--- a/data/134/DEUSTATIS/National accounts - Deflators quarters.xlsx
+++ b/data/134/DEUSTATIS/National accounts - Deflators quarters.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="79">
   <si>
     <t>National accounts - Deflators: Germany, quarters, original and adjusted data, use of the gross domestic product</t>
   </si>
@@ -144,9 +144,6 @@
     <t>Gross domestic product</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>VGR-VWB-01</t>
   </si>
   <si>
@@ -252,7 +249,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2021 | created: 2021-12-28 / 09:53:31</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:22:27</t>
   </si>
 </sst>
 </file>
@@ -3880,24 +3877,24 @@
         <v>109.6</v>
       </c>
       <c r="DS8" t="n" s="10">
-        <v>110.0</v>
+        <v>109.97</v>
       </c>
       <c r="DT8" t="n" s="10">
-        <v>110.18</v>
+        <v>110.16</v>
       </c>
       <c r="DU8" t="n" s="10">
-        <v>113.07</v>
-      </c>
-      <c r="DV8" t="s" s="10">
-        <v>43</v>
+        <v>112.91</v>
+      </c>
+      <c r="DV8" t="n" s="10">
+        <v>115.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B9" t="s" s="13">
         <v>44</v>
-      </c>
-      <c r="B9" t="s" s="13">
-        <v>45</v>
       </c>
       <c r="C9" t="n" s="10">
         <v>70.01</v>
@@ -4260,24 +4257,24 @@
         <v>108.92</v>
       </c>
       <c r="DS9" t="n" s="10">
-        <v>109.45</v>
+        <v>109.43</v>
       </c>
       <c r="DT9" t="n" s="10">
-        <v>110.1</v>
+        <v>110.05</v>
       </c>
       <c r="DU9" t="n" s="10">
-        <v>113.14</v>
-      </c>
-      <c r="DV9" t="s" s="10">
-        <v>43</v>
+        <v>113.0</v>
+      </c>
+      <c r="DV9" t="n" s="10">
+        <v>116.04</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B10" t="s" s="13">
         <v>46</v>
-      </c>
-      <c r="B10" t="s" s="13">
-        <v>47</v>
       </c>
       <c r="C10" t="n" s="10">
         <v>69.14</v>
@@ -4640,24 +4637,24 @@
         <v>108.88</v>
       </c>
       <c r="DS10" t="n" s="10">
-        <v>108.69</v>
+        <v>108.71</v>
       </c>
       <c r="DT10" t="n" s="10">
-        <v>109.46</v>
+        <v>109.27</v>
       </c>
       <c r="DU10" t="n" s="10">
-        <v>110.88</v>
-      </c>
-      <c r="DV10" t="s" s="10">
-        <v>43</v>
+        <v>110.57</v>
+      </c>
+      <c r="DV10" t="n" s="10">
+        <v>113.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="B11" t="s" s="13">
         <v>48</v>
-      </c>
-      <c r="B11" t="s" s="13">
-        <v>49</v>
       </c>
       <c r="C11" t="n" s="10">
         <v>69.13</v>
@@ -5023,21 +5020,21 @@
         <v>107.45</v>
       </c>
       <c r="DT11" t="n" s="10">
-        <v>108.51</v>
+        <v>108.5</v>
       </c>
       <c r="DU11" t="n" s="10">
-        <v>109.35</v>
-      </c>
-      <c r="DV11" t="s" s="10">
-        <v>43</v>
+        <v>109.42</v>
+      </c>
+      <c r="DV11" t="n" s="10">
+        <v>110.4</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s" s="13">
         <v>50</v>
-      </c>
-      <c r="B12" t="s" s="13">
-        <v>51</v>
       </c>
       <c r="C12" t="n" s="10">
         <v>69.07</v>
@@ -5400,24 +5397,24 @@
         <v>116.71</v>
       </c>
       <c r="DS12" t="n" s="10">
-        <v>111.89</v>
+        <v>111.96</v>
       </c>
       <c r="DT12" t="n" s="10">
-        <v>111.97</v>
+        <v>111.39</v>
       </c>
       <c r="DU12" t="n" s="10">
-        <v>114.69</v>
-      </c>
-      <c r="DV12" t="s" s="10">
-        <v>43</v>
+        <v>113.44</v>
+      </c>
+      <c r="DV12" t="n" s="10">
+        <v>121.14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s" s="13">
         <v>52</v>
-      </c>
-      <c r="B13" t="s" s="13">
-        <v>53</v>
       </c>
       <c r="C13" t="n" s="10">
         <v>72.64</v>
@@ -5780,24 +5777,24 @@
         <v>108.85</v>
       </c>
       <c r="DS13" t="n" s="10">
-        <v>111.95</v>
+        <v>111.81</v>
       </c>
       <c r="DT13" t="n" s="10">
-        <v>112.19</v>
+        <v>112.66</v>
       </c>
       <c r="DU13" t="n" s="10">
-        <v>120.8</v>
-      </c>
-      <c r="DV13" t="s" s="10">
-        <v>43</v>
+        <v>121.32</v>
+      </c>
+      <c r="DV13" t="n" s="10">
+        <v>124.72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B14" t="s" s="13">
         <v>54</v>
-      </c>
-      <c r="B14" t="s" s="13">
-        <v>55</v>
       </c>
       <c r="C14" t="n" s="10">
         <v>79.15</v>
@@ -6160,24 +6157,24 @@
         <v>110.71</v>
       </c>
       <c r="DS14" t="n" s="10">
-        <v>112.55</v>
+        <v>112.57</v>
       </c>
       <c r="DT14" t="n" s="10">
-        <v>114.79</v>
+        <v>114.8</v>
       </c>
       <c r="DU14" t="n" s="10">
-        <v>118.24</v>
-      </c>
-      <c r="DV14" t="s" s="10">
-        <v>43</v>
+        <v>118.25</v>
+      </c>
+      <c r="DV14" t="n" s="10">
+        <v>119.13</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s" s="13">
         <v>56</v>
-      </c>
-      <c r="B15" t="s" s="13">
-        <v>57</v>
       </c>
       <c r="C15" t="n" s="10">
         <v>106.94</v>
@@ -6540,24 +6537,24 @@
         <v>104.29</v>
       </c>
       <c r="DS15" t="n" s="10">
-        <v>105.38</v>
+        <v>105.4</v>
       </c>
       <c r="DT15" t="n" s="10">
-        <v>106.06</v>
+        <v>106.07</v>
       </c>
       <c r="DU15" t="n" s="10">
-        <v>106.52</v>
-      </c>
-      <c r="DV15" t="s" s="10">
-        <v>43</v>
+        <v>106.5</v>
+      </c>
+      <c r="DV15" t="n" s="10">
+        <v>106.54</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="B16" t="s" s="13">
         <v>58</v>
-      </c>
-      <c r="B16" t="s" s="13">
-        <v>59</v>
       </c>
       <c r="C16" t="n" s="10">
         <v>64.14</v>
@@ -6923,21 +6920,21 @@
         <v>119.84</v>
       </c>
       <c r="DT16" t="n" s="10">
-        <v>123.79</v>
+        <v>123.8</v>
       </c>
       <c r="DU16" t="n" s="10">
-        <v>130.22</v>
-      </c>
-      <c r="DV16" t="s" s="10">
-        <v>43</v>
+        <v>130.31</v>
+      </c>
+      <c r="DV16" t="n" s="10">
+        <v>132.95</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s" s="13">
         <v>60</v>
-      </c>
-      <c r="B17" t="s" s="13">
-        <v>61</v>
       </c>
       <c r="C17" t="n" s="10">
         <v>76.4</v>
@@ -7303,21 +7300,21 @@
         <v>107.35</v>
       </c>
       <c r="DT17" t="n" s="10">
-        <v>107.37</v>
+        <v>107.38</v>
       </c>
       <c r="DU17" t="n" s="10">
-        <v>107.41</v>
-      </c>
-      <c r="DV17" t="s" s="10">
-        <v>43</v>
+        <v>107.42</v>
+      </c>
+      <c r="DV17" t="n" s="10">
+        <v>108.94</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B18" t="s" s="13">
         <v>62</v>
-      </c>
-      <c r="B18" t="s" s="13">
-        <v>63</v>
       </c>
       <c r="C18" t="n" s="10">
         <v>91.81</v>
@@ -7680,24 +7677,24 @@
         <v>102.7</v>
       </c>
       <c r="DS18" t="n" s="10">
-        <v>102.21</v>
+        <v>102.2</v>
       </c>
       <c r="DT18" t="n" s="10">
-        <v>100.92</v>
+        <v>100.93</v>
       </c>
       <c r="DU18" t="n" s="10">
-        <v>100.58</v>
-      </c>
-      <c r="DV18" t="s" s="10">
-        <v>43</v>
+        <v>100.5</v>
+      </c>
+      <c r="DV18" t="n" s="10">
+        <v>98.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="B19" t="s" s="13">
         <v>64</v>
-      </c>
-      <c r="B19" t="s" s="13">
-        <v>65</v>
       </c>
       <c r="C19" t="n" s="10">
         <v>86.93</v>
@@ -8063,21 +8060,21 @@
         <v>103.58</v>
       </c>
       <c r="DT19" t="n" s="10">
-        <v>106.08</v>
+        <v>106.04</v>
       </c>
       <c r="DU19" t="n" s="10">
-        <v>109.2</v>
-      </c>
-      <c r="DV19" t="s" s="10">
-        <v>43</v>
+        <v>109.13</v>
+      </c>
+      <c r="DV19" t="n" s="10">
+        <v>111.72</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="B20" t="s" s="13">
         <v>66</v>
-      </c>
-      <c r="B20" t="s" s="13">
-        <v>67</v>
       </c>
       <c r="C20" t="n" s="10">
         <v>88.52</v>
@@ -8440,24 +8437,24 @@
         <v>100.86</v>
       </c>
       <c r="DS20" t="n" s="10">
-        <v>101.84</v>
+        <v>101.85</v>
       </c>
       <c r="DT20" t="n" s="10">
-        <v>103.92</v>
+        <v>103.91</v>
       </c>
       <c r="DU20" t="n" s="10">
-        <v>106.68</v>
-      </c>
-      <c r="DV20" t="s" s="10">
-        <v>43</v>
+        <v>106.73</v>
+      </c>
+      <c r="DV20" t="n" s="10">
+        <v>109.73</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s" s="13">
         <v>68</v>
-      </c>
-      <c r="B21" t="s" s="13">
-        <v>69</v>
       </c>
       <c r="C21" t="n" s="10">
         <v>78.17</v>
@@ -8820,24 +8817,24 @@
         <v>108.63</v>
       </c>
       <c r="DS21" t="n" s="10">
-        <v>112.01</v>
+        <v>111.93</v>
       </c>
       <c r="DT21" t="n" s="10">
-        <v>116.55</v>
+        <v>116.13</v>
       </c>
       <c r="DU21" t="n" s="10">
-        <v>120.98</v>
-      </c>
-      <c r="DV21" t="s" s="10">
-        <v>43</v>
+        <v>119.95</v>
+      </c>
+      <c r="DV21" t="n" s="10">
+        <v>120.53</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B22" t="s" s="13">
         <v>70</v>
-      </c>
-      <c r="B22" t="s" s="13">
-        <v>71</v>
       </c>
       <c r="C22" t="n" s="10">
         <v>94.68</v>
@@ -9200,24 +9197,24 @@
         <v>99.56</v>
       </c>
       <c r="DS22" t="n" s="10">
-        <v>101.34</v>
+        <v>101.35</v>
       </c>
       <c r="DT22" t="n" s="10">
-        <v>105.11</v>
+        <v>105.06</v>
       </c>
       <c r="DU22" t="n" s="10">
-        <v>108.57</v>
-      </c>
-      <c r="DV22" t="s" s="10">
-        <v>43</v>
+        <v>108.59</v>
+      </c>
+      <c r="DV22" t="n" s="10">
+        <v>113.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="B23" t="s" s="13">
         <v>72</v>
-      </c>
-      <c r="B23" t="s" s="13">
-        <v>73</v>
       </c>
       <c r="C23" t="n" s="10">
         <v>101.14</v>
@@ -9583,21 +9580,21 @@
         <v>99.58</v>
       </c>
       <c r="DT23" t="n" s="10">
-        <v>103.72</v>
+        <v>103.69</v>
       </c>
       <c r="DU23" t="n" s="10">
-        <v>108.13</v>
-      </c>
-      <c r="DV23" t="s" s="10">
-        <v>43</v>
+        <v>108.17</v>
+      </c>
+      <c r="DV23" t="n" s="10">
+        <v>113.73</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="9">
+        <v>73</v>
+      </c>
+      <c r="B24" t="s" s="13">
         <v>74</v>
-      </c>
-      <c r="B24" t="s" s="13">
-        <v>75</v>
       </c>
       <c r="C24" t="n" s="10">
         <v>75.63</v>
@@ -9960,21 +9957,21 @@
         <v>107.26</v>
       </c>
       <c r="DS24" t="n" s="10">
-        <v>107.8</v>
+        <v>107.87</v>
       </c>
       <c r="DT24" t="n" s="10">
-        <v>109.85</v>
+        <v>109.7</v>
       </c>
       <c r="DU24" t="n" s="10">
-        <v>110.81</v>
-      </c>
-      <c r="DV24" t="s" s="10">
-        <v>43</v>
+        <v>110.76</v>
+      </c>
+      <c r="DV24" t="n" s="10">
+        <v>111.38</v>
       </c>
     </row>
     <row r="25" ht="33.75" customHeight="true">
       <c r="A25" t="s" s="14">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -10345,24 +10342,24 @@
         <v>108.78</v>
       </c>
       <c r="DS26" t="n" s="10">
-        <v>110.57</v>
+        <v>110.54</v>
       </c>
       <c r="DT26" t="n" s="10">
-        <v>110.4</v>
+        <v>110.38</v>
       </c>
       <c r="DU26" t="n" s="10">
-        <v>113.11</v>
-      </c>
-      <c r="DV26" t="s" s="10">
-        <v>43</v>
+        <v>112.95</v>
+      </c>
+      <c r="DV26" t="n" s="10">
+        <v>114.12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B27" t="s" s="13">
         <v>44</v>
-      </c>
-      <c r="B27" t="s" s="13">
-        <v>45</v>
       </c>
       <c r="C27" t="n" s="10">
         <v>70.61</v>
@@ -10725,24 +10722,24 @@
         <v>108.16</v>
       </c>
       <c r="DS27" t="n" s="10">
-        <v>110.1</v>
+        <v>110.11</v>
       </c>
       <c r="DT27" t="n" s="10">
         <v>110.24</v>
       </c>
       <c r="DU27" t="n" s="10">
-        <v>113.16</v>
-      </c>
-      <c r="DV27" t="s" s="10">
-        <v>43</v>
+        <v>113.05</v>
+      </c>
+      <c r="DV27" t="n" s="10">
+        <v>115.31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B28" t="s" s="13">
         <v>46</v>
-      </c>
-      <c r="B28" t="s" s="13">
-        <v>47</v>
       </c>
       <c r="C28" t="n" s="10">
         <v>69.94</v>
@@ -11105,24 +11102,24 @@
         <v>107.61</v>
       </c>
       <c r="DS28" t="n" s="10">
-        <v>109.59</v>
+        <v>109.64</v>
       </c>
       <c r="DT28" t="n" s="10">
-        <v>109.45</v>
+        <v>109.28</v>
       </c>
       <c r="DU28" t="n" s="10">
-        <v>111.3</v>
-      </c>
-      <c r="DV28" t="s" s="10">
-        <v>43</v>
+        <v>111.0</v>
+      </c>
+      <c r="DV28" t="n" s="10">
+        <v>112.3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="B29" t="s" s="13">
         <v>48</v>
-      </c>
-      <c r="B29" t="s" s="13">
-        <v>49</v>
       </c>
       <c r="C29" t="n" s="10">
         <v>68.91</v>
@@ -11488,21 +11485,21 @@
         <v>107.98</v>
       </c>
       <c r="DT29" t="n" s="10">
-        <v>108.29</v>
+        <v>108.28</v>
       </c>
       <c r="DU29" t="n" s="10">
-        <v>109.04</v>
-      </c>
-      <c r="DV29" t="s" s="10">
-        <v>43</v>
+        <v>109.11</v>
+      </c>
+      <c r="DV29" t="n" s="10">
+        <v>110.39</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s" s="13">
         <v>50</v>
-      </c>
-      <c r="B30" t="s" s="13">
-        <v>51</v>
       </c>
       <c r="C30" t="n" s="10">
         <v>72.84</v>
@@ -11865,24 +11862,24 @@
         <v>112.45</v>
       </c>
       <c r="DS30" t="n" s="10">
-        <v>113.58</v>
+        <v>113.65</v>
       </c>
       <c r="DT30" t="n" s="10">
-        <v>112.42</v>
+        <v>111.84</v>
       </c>
       <c r="DU30" t="n" s="10">
-        <v>116.83</v>
-      </c>
-      <c r="DV30" t="s" s="10">
-        <v>43</v>
+        <v>115.58</v>
+      </c>
+      <c r="DV30" t="n" s="10">
+        <v>116.92</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s" s="13">
         <v>52</v>
-      </c>
-      <c r="B31" t="s" s="13">
-        <v>53</v>
       </c>
       <c r="C31" t="n" s="10">
         <v>72.7</v>
@@ -12245,24 +12242,24 @@
         <v>109.93</v>
       </c>
       <c r="DS31" t="n" s="10">
-        <v>111.79</v>
+        <v>111.71</v>
       </c>
       <c r="DT31" t="n" s="10">
-        <v>112.87</v>
+        <v>113.4</v>
       </c>
       <c r="DU31" t="n" s="10">
-        <v>119.58</v>
-      </c>
-      <c r="DV31" t="s" s="10">
-        <v>43</v>
+        <v>120.14</v>
+      </c>
+      <c r="DV31" t="n" s="10">
+        <v>125.68</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B32" t="s" s="13">
         <v>54</v>
-      </c>
-      <c r="B32" t="s" s="13">
-        <v>55</v>
       </c>
       <c r="C32" t="n" s="10">
         <v>79.3</v>
@@ -12625,24 +12622,24 @@
         <v>110.94</v>
       </c>
       <c r="DS32" t="n" s="10">
-        <v>112.36</v>
+        <v>112.46</v>
       </c>
       <c r="DT32" t="n" s="10">
-        <v>114.61</v>
+        <v>114.7</v>
       </c>
       <c r="DU32" t="n" s="10">
-        <v>118.05</v>
-      </c>
-      <c r="DV32" t="s" s="10">
-        <v>43</v>
+        <v>118.15</v>
+      </c>
+      <c r="DV32" t="n" s="10">
+        <v>119.87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s" s="13">
         <v>56</v>
-      </c>
-      <c r="B33" t="s" s="13">
-        <v>57</v>
       </c>
       <c r="C33" t="n" s="10">
         <v>107.2</v>
@@ -13005,24 +13002,24 @@
         <v>104.84</v>
       </c>
       <c r="DS33" t="n" s="10">
-        <v>105.27</v>
+        <v>105.29</v>
       </c>
       <c r="DT33" t="n" s="10">
-        <v>105.69</v>
+        <v>105.7</v>
       </c>
       <c r="DU33" t="n" s="10">
-        <v>106.45</v>
-      </c>
-      <c r="DV33" t="s" s="10">
-        <v>43</v>
+        <v>106.43</v>
+      </c>
+      <c r="DV33" t="n" s="10">
+        <v>107.09</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="B34" t="s" s="13">
         <v>58</v>
-      </c>
-      <c r="B34" t="s" s="13">
-        <v>59</v>
       </c>
       <c r="C34" t="n" s="10">
         <v>64.22</v>
@@ -13388,21 +13385,21 @@
         <v>119.53</v>
       </c>
       <c r="DT34" t="n" s="10">
-        <v>123.74</v>
+        <v>123.75</v>
       </c>
       <c r="DU34" t="n" s="10">
-        <v>130.2</v>
-      </c>
-      <c r="DV34" t="s" s="10">
-        <v>43</v>
+        <v>130.29</v>
+      </c>
+      <c r="DV34" t="n" s="10">
+        <v>133.33</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s" s="13">
         <v>60</v>
-      </c>
-      <c r="B35" t="s" s="13">
-        <v>61</v>
       </c>
       <c r="C35" t="n" s="10">
         <v>76.44</v>
@@ -13768,21 +13765,21 @@
         <v>107.28</v>
       </c>
       <c r="DT35" t="n" s="10">
-        <v>107.59</v>
+        <v>107.6</v>
       </c>
       <c r="DU35" t="n" s="10">
-        <v>107.94</v>
-      </c>
-      <c r="DV35" t="s" s="10">
-        <v>43</v>
+        <v>107.95</v>
+      </c>
+      <c r="DV35" t="n" s="10">
+        <v>108.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B36" t="s" s="13">
         <v>62</v>
-      </c>
-      <c r="B36" t="s" s="13">
-        <v>63</v>
       </c>
       <c r="C36" t="n" s="10">
         <v>92.37</v>
@@ -14145,24 +14142,24 @@
         <v>102.5</v>
       </c>
       <c r="DS36" t="n" s="10">
-        <v>102.13</v>
+        <v>102.1</v>
       </c>
       <c r="DT36" t="n" s="10">
         <v>101.14</v>
       </c>
       <c r="DU36" t="n" s="10">
-        <v>100.66</v>
-      </c>
-      <c r="DV36" t="s" s="10">
-        <v>43</v>
+        <v>100.56</v>
+      </c>
+      <c r="DV36" t="n" s="10">
+        <v>98.48</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="B37" t="s" s="13">
         <v>64</v>
-      </c>
-      <c r="B37" t="s" s="13">
-        <v>65</v>
       </c>
       <c r="C37" t="n" s="10">
         <v>87.09</v>
@@ -14525,24 +14522,24 @@
         <v>102.24</v>
       </c>
       <c r="DS37" t="n" s="10">
-        <v>103.78</v>
+        <v>103.79</v>
       </c>
       <c r="DT37" t="n" s="10">
-        <v>106.06</v>
+        <v>106.03</v>
       </c>
       <c r="DU37" t="n" s="10">
-        <v>109.02</v>
-      </c>
-      <c r="DV37" t="s" s="10">
-        <v>43</v>
+        <v>108.95</v>
+      </c>
+      <c r="DV37" t="n" s="10">
+        <v>111.73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="B38" t="s" s="13">
         <v>66</v>
-      </c>
-      <c r="B38" t="s" s="13">
-        <v>67</v>
       </c>
       <c r="C38" t="n" s="10">
         <v>88.63</v>
@@ -14905,24 +14902,24 @@
         <v>100.98</v>
       </c>
       <c r="DS38" t="n" s="10">
-        <v>101.91</v>
+        <v>101.92</v>
       </c>
       <c r="DT38" t="n" s="10">
-        <v>103.77</v>
+        <v>103.76</v>
       </c>
       <c r="DU38" t="n" s="10">
-        <v>106.62</v>
-      </c>
-      <c r="DV38" t="s" s="10">
-        <v>43</v>
+        <v>106.67</v>
+      </c>
+      <c r="DV38" t="n" s="10">
+        <v>109.88</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="B39" t="s" s="13">
         <v>68</v>
-      </c>
-      <c r="B39" t="s" s="13">
-        <v>69</v>
       </c>
       <c r="C39" t="n" s="10">
         <v>78.57</v>
@@ -15285,24 +15282,24 @@
         <v>108.13</v>
       </c>
       <c r="DS39" t="n" s="10">
-        <v>112.72</v>
+        <v>112.64</v>
       </c>
       <c r="DT39" t="n" s="10">
-        <v>117.07</v>
+        <v>116.65</v>
       </c>
       <c r="DU39" t="n" s="10">
-        <v>120.22</v>
-      </c>
-      <c r="DV39" t="s" s="10">
-        <v>43</v>
+        <v>119.19</v>
+      </c>
+      <c r="DV39" t="n" s="10">
+        <v>120.09</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s" s="13">
         <v>70</v>
-      </c>
-      <c r="B40" t="s" s="13">
-        <v>71</v>
       </c>
       <c r="C40" t="n" s="10">
         <v>94.28</v>
@@ -15665,24 +15662,24 @@
         <v>99.75</v>
       </c>
       <c r="DS40" t="n" s="10">
-        <v>101.62</v>
+        <v>101.66</v>
       </c>
       <c r="DT40" t="n" s="10">
-        <v>104.86</v>
+        <v>104.83</v>
       </c>
       <c r="DU40" t="n" s="10">
-        <v>108.31</v>
-      </c>
-      <c r="DV40" t="s" s="10">
-        <v>43</v>
+        <v>108.34</v>
+      </c>
+      <c r="DV40" t="n" s="10">
+        <v>113.45</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="B41" t="s" s="13">
         <v>72</v>
-      </c>
-      <c r="B41" t="s" s="13">
-        <v>73</v>
       </c>
       <c r="C41" t="n" s="10">
         <v>100.88</v>
@@ -16048,21 +16045,21 @@
         <v>99.71</v>
       </c>
       <c r="DT41" t="n" s="10">
-        <v>103.5</v>
+        <v>103.47</v>
       </c>
       <c r="DU41" t="n" s="10">
-        <v>108.02</v>
-      </c>
-      <c r="DV41" t="s" s="10">
-        <v>43</v>
+        <v>108.06</v>
+      </c>
+      <c r="DV41" t="n" s="10">
+        <v>113.93</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="9">
+        <v>73</v>
+      </c>
+      <c r="B42" t="s" s="13">
         <v>74</v>
-      </c>
-      <c r="B42" t="s" s="13">
-        <v>75</v>
       </c>
       <c r="C42" t="n" s="10">
         <v>74.98</v>
@@ -16425,21 +16422,21 @@
         <v>107.82</v>
       </c>
       <c r="DS42" t="n" s="10">
-        <v>108.8</v>
+        <v>108.87</v>
       </c>
       <c r="DT42" t="n" s="10">
-        <v>109.59</v>
+        <v>109.44</v>
       </c>
       <c r="DU42" t="n" s="10">
-        <v>109.49</v>
-      </c>
-      <c r="DV42" t="s" s="10">
-        <v>43</v>
+        <v>109.44</v>
+      </c>
+      <c r="DV42" t="n" s="10">
+        <v>112.0</v>
       </c>
     </row>
     <row r="43" ht="33.75" customHeight="true">
       <c r="A43" t="s" s="14">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -16450,271 +16447,271 @@
         <v>42</v>
       </c>
       <c r="C44" t="n" s="10">
-        <v>69.24</v>
+        <v>69.29</v>
       </c>
       <c r="D44" t="n" s="10">
-        <v>71.18</v>
+        <v>71.17</v>
       </c>
       <c r="E44" t="n" s="10">
         <v>71.85</v>
       </c>
       <c r="F44" t="n" s="10">
-        <v>72.52</v>
+        <v>72.56</v>
       </c>
       <c r="G44" t="n" s="10">
-        <v>74.15</v>
+        <v>74.14</v>
       </c>
       <c r="H44" t="n" s="10">
-        <v>74.5</v>
+        <v>74.52</v>
       </c>
       <c r="I44" t="n" s="10">
         <v>75.79</v>
       </c>
       <c r="J44" t="n" s="10">
-        <v>76.69</v>
+        <v>76.68</v>
       </c>
       <c r="K44" t="n" s="10">
-        <v>77.08</v>
+        <v>77.09</v>
       </c>
       <c r="L44" t="n" s="10">
-        <v>78.29</v>
+        <v>78.28</v>
       </c>
       <c r="M44" t="n" s="10">
-        <v>78.57</v>
+        <v>78.56</v>
       </c>
       <c r="N44" t="n" s="10">
-        <v>79.46</v>
+        <v>79.41</v>
       </c>
       <c r="O44" t="n" s="10">
-        <v>79.48</v>
+        <v>79.47</v>
       </c>
       <c r="P44" t="n" s="10">
-        <v>79.69</v>
+        <v>79.67</v>
       </c>
       <c r="Q44" t="n" s="10">
-        <v>80.15</v>
+        <v>80.13</v>
       </c>
       <c r="R44" t="n" s="10">
-        <v>80.15</v>
+        <v>80.16</v>
       </c>
       <c r="S44" t="n" s="10">
-        <v>81.0</v>
+        <v>80.99</v>
       </c>
       <c r="T44" t="n" s="10">
-        <v>81.18</v>
+        <v>81.19</v>
       </c>
       <c r="U44" t="n" s="10">
-        <v>81.3</v>
+        <v>81.32</v>
       </c>
       <c r="V44" t="n" s="10">
         <v>81.64</v>
       </c>
       <c r="W44" t="n" s="10">
-        <v>81.95</v>
+        <v>81.93</v>
       </c>
       <c r="X44" t="n" s="10">
-        <v>81.52</v>
+        <v>81.54</v>
       </c>
       <c r="Y44" t="n" s="10">
         <v>81.77</v>
       </c>
       <c r="Z44" t="n" s="10">
-        <v>81.7</v>
+        <v>81.72</v>
       </c>
       <c r="AA44" t="n" s="10">
-        <v>81.27</v>
+        <v>81.31</v>
       </c>
       <c r="AB44" t="n" s="10">
-        <v>82.27</v>
+        <v>82.23</v>
       </c>
       <c r="AC44" t="n" s="10">
-        <v>82.12</v>
+        <v>82.13</v>
       </c>
       <c r="AD44" t="n" s="10">
-        <v>81.87</v>
+        <v>81.9</v>
       </c>
       <c r="AE44" t="n" s="10">
-        <v>82.43</v>
+        <v>82.42</v>
       </c>
       <c r="AF44" t="n" s="10">
-        <v>82.28</v>
+        <v>82.31</v>
       </c>
       <c r="AG44" t="n" s="10">
-        <v>82.78</v>
+        <v>82.77</v>
       </c>
       <c r="AH44" t="n" s="10">
-        <v>83.21</v>
+        <v>83.2</v>
       </c>
       <c r="AI44" t="n" s="10">
-        <v>82.9</v>
+        <v>82.91</v>
       </c>
       <c r="AJ44" t="n" s="10">
+        <v>83.37</v>
+      </c>
+      <c r="AK44" t="n" s="10">
+        <v>83.18</v>
+      </c>
+      <c r="AL44" t="n" s="10">
         <v>83.39</v>
       </c>
-      <c r="AK44" t="n" s="10">
-        <v>83.19</v>
-      </c>
-      <c r="AL44" t="n" s="10">
-        <v>83.43</v>
-      </c>
       <c r="AM44" t="n" s="10">
-        <v>83.03</v>
+        <v>82.99</v>
       </c>
       <c r="AN44" t="n" s="10">
         <v>82.4</v>
       </c>
       <c r="AO44" t="n" s="10">
-        <v>82.42</v>
+        <v>82.43</v>
       </c>
       <c r="AP44" t="n" s="10">
-        <v>82.2</v>
+        <v>82.23</v>
       </c>
       <c r="AQ44" t="n" s="10">
         <v>83.09</v>
       </c>
       <c r="AR44" t="n" s="10">
-        <v>83.16</v>
+        <v>83.18</v>
       </c>
       <c r="AS44" t="n" s="10">
-        <v>83.39</v>
+        <v>83.41</v>
       </c>
       <c r="AT44" t="n" s="10">
-        <v>84.09</v>
+        <v>84.11</v>
       </c>
       <c r="AU44" t="n" s="10">
-        <v>83.94</v>
+        <v>83.97</v>
       </c>
       <c r="AV44" t="n" s="10">
-        <v>84.58</v>
+        <v>84.57</v>
       </c>
       <c r="AW44" t="n" s="10">
-        <v>84.93</v>
+        <v>84.94</v>
       </c>
       <c r="AX44" t="n" s="10">
-        <v>84.97</v>
+        <v>84.99</v>
       </c>
       <c r="AY44" t="n" s="10">
-        <v>85.42</v>
+        <v>85.43</v>
       </c>
       <c r="AZ44" t="n" s="10">
-        <v>85.47</v>
+        <v>85.49</v>
       </c>
       <c r="BA44" t="n" s="10">
-        <v>86.0</v>
+        <v>86.01</v>
       </c>
       <c r="BB44" t="n" s="10">
-        <v>85.91</v>
+        <v>85.93</v>
       </c>
       <c r="BC44" t="n" s="10">
-        <v>86.88</v>
+        <v>86.86</v>
       </c>
       <c r="BD44" t="n" s="10">
         <v>86.9</v>
       </c>
       <c r="BE44" t="n" s="10">
-        <v>87.11</v>
+        <v>87.1</v>
       </c>
       <c r="BF44" t="n" s="10">
-        <v>87.78</v>
+        <v>87.73</v>
       </c>
       <c r="BG44" t="n" s="10">
-        <v>86.79</v>
+        <v>86.81</v>
       </c>
       <c r="BH44" t="n" s="10">
-        <v>87.82</v>
+        <v>87.77</v>
       </c>
       <c r="BI44" t="n" s="10">
-        <v>87.51</v>
+        <v>87.49</v>
       </c>
       <c r="BJ44" t="n" s="10">
-        <v>87.42</v>
+        <v>87.41</v>
       </c>
       <c r="BK44" t="n" s="10">
-        <v>87.73</v>
+        <v>87.69</v>
       </c>
       <c r="BL44" t="n" s="10">
-        <v>87.14</v>
+        <v>87.16</v>
       </c>
       <c r="BM44" t="n" s="10">
-        <v>87.43</v>
+        <v>87.44</v>
       </c>
       <c r="BN44" t="n" s="10">
         <v>87.7</v>
       </c>
       <c r="BO44" t="n" s="10">
-        <v>88.67</v>
+        <v>88.64</v>
       </c>
       <c r="BP44" t="n" s="10">
-        <v>88.5</v>
+        <v>88.56</v>
       </c>
       <c r="BQ44" t="n" s="10">
-        <v>89.0</v>
+        <v>89.12</v>
       </c>
       <c r="BR44" t="n" s="10">
-        <v>89.15</v>
+        <v>89.1</v>
       </c>
       <c r="BS44" t="n" s="10">
-        <v>89.41</v>
+        <v>89.2</v>
       </c>
       <c r="BT44" t="n" s="10">
-        <v>90.33</v>
+        <v>90.46</v>
       </c>
       <c r="BU44" t="n" s="10">
-        <v>90.02</v>
+        <v>90.26</v>
       </c>
       <c r="BV44" t="n" s="10">
-        <v>89.6</v>
+        <v>89.54</v>
       </c>
       <c r="BW44" t="n" s="10">
-        <v>91.63</v>
+        <v>91.15</v>
       </c>
       <c r="BX44" t="n" s="10">
-        <v>90.92</v>
+        <v>91.24</v>
       </c>
       <c r="BY44" t="n" s="10">
-        <v>91.78</v>
+        <v>91.98</v>
       </c>
       <c r="BZ44" t="n" s="10">
-        <v>91.98</v>
+        <v>91.9</v>
       </c>
       <c r="CA44" t="n" s="10">
-        <v>92.4</v>
+        <v>92.13</v>
       </c>
       <c r="CB44" t="n" s="10">
-        <v>92.0</v>
+        <v>92.11</v>
       </c>
       <c r="CC44" t="n" s="10">
-        <v>92.4</v>
+        <v>92.43</v>
       </c>
       <c r="CD44" t="n" s="10">
-        <v>92.93</v>
+        <v>92.88</v>
       </c>
       <c r="CE44" t="n" s="10">
-        <v>92.84</v>
+        <v>92.79</v>
       </c>
       <c r="CF44" t="n" s="10">
-        <v>93.33</v>
+        <v>93.31</v>
       </c>
       <c r="CG44" t="n" s="10">
-        <v>93.43</v>
+        <v>93.42</v>
       </c>
       <c r="CH44" t="n" s="10">
         <v>93.68</v>
       </c>
       <c r="CI44" t="n" s="10">
-        <v>94.43</v>
+        <v>94.39</v>
       </c>
       <c r="CJ44" t="n" s="10">
-        <v>94.01</v>
+        <v>94.02</v>
       </c>
       <c r="CK44" t="n" s="10">
-        <v>94.44</v>
+        <v>94.47</v>
       </c>
       <c r="CL44" t="n" s="10">
-        <v>95.03</v>
+        <v>95.05</v>
       </c>
       <c r="CM44" t="n" s="10">
-        <v>95.26</v>
+        <v>95.3</v>
       </c>
       <c r="CN44" t="n" s="10">
         <v>96.28</v>
@@ -16723,111 +16720,111 @@
         <v>96.56</v>
       </c>
       <c r="CP44" t="n" s="10">
-        <v>96.74</v>
+        <v>96.76</v>
       </c>
       <c r="CQ44" t="n" s="10">
         <v>97.42</v>
       </c>
       <c r="CR44" t="n" s="10">
-        <v>97.74</v>
+        <v>97.76</v>
       </c>
       <c r="CS44" t="n" s="10">
-        <v>98.26</v>
+        <v>98.27</v>
       </c>
       <c r="CT44" t="n" s="10">
-        <v>98.47</v>
+        <v>98.49</v>
       </c>
       <c r="CU44" t="n" s="10">
-        <v>99.41</v>
+        <v>99.39</v>
       </c>
       <c r="CV44" t="n" s="10">
-        <v>99.43</v>
+        <v>99.45</v>
       </c>
       <c r="CW44" t="n" s="10">
-        <v>100.25</v>
+        <v>100.24</v>
       </c>
       <c r="CX44" t="n" s="10">
-        <v>100.93</v>
+        <v>100.9</v>
       </c>
       <c r="CY44" t="n" s="10">
-        <v>100.49</v>
+        <v>100.51</v>
       </c>
       <c r="CZ44" t="n" s="10">
-        <v>101.85</v>
+        <v>101.81</v>
       </c>
       <c r="DA44" t="n" s="10">
-        <v>101.57</v>
+        <v>101.56</v>
       </c>
       <c r="DB44" t="n" s="10">
-        <v>102.01</v>
+        <v>102.0</v>
       </c>
       <c r="DC44" t="n" s="10">
-        <v>102.68</v>
+        <v>102.64</v>
       </c>
       <c r="DD44" t="n" s="10">
-        <v>102.17</v>
+        <v>102.2</v>
       </c>
       <c r="DE44" t="n" s="10">
-        <v>102.9</v>
+        <v>102.91</v>
       </c>
       <c r="DF44" t="n" s="10">
-        <v>102.93</v>
+        <v>102.96</v>
       </c>
       <c r="DG44" t="n" s="10">
-        <v>103.66</v>
+        <v>103.68</v>
       </c>
       <c r="DH44" t="n" s="10">
         <v>104.59</v>
       </c>
       <c r="DI44" t="n" s="10">
-        <v>104.78</v>
+        <v>104.8</v>
       </c>
       <c r="DJ44" t="n" s="10">
-        <v>105.61</v>
+        <v>105.63</v>
       </c>
       <c r="DK44" t="n" s="10">
-        <v>105.64</v>
+        <v>105.66</v>
       </c>
       <c r="DL44" t="n" s="10">
         <v>106.63</v>
       </c>
       <c r="DM44" t="n" s="10">
-        <v>107.44</v>
+        <v>107.45</v>
       </c>
       <c r="DN44" t="n" s="10">
-        <v>107.7</v>
+        <v>107.74</v>
       </c>
       <c r="DO44" t="n" s="10">
-        <v>108.39</v>
+        <v>108.41</v>
       </c>
       <c r="DP44" t="n" s="10">
-        <v>109.66</v>
+        <v>109.63</v>
       </c>
       <c r="DQ44" t="n" s="10">
-        <v>108.41</v>
+        <v>108.47</v>
       </c>
       <c r="DR44" t="n" s="10">
-        <v>109.2</v>
+        <v>109.13</v>
       </c>
       <c r="DS44" t="n" s="10">
-        <v>109.79</v>
+        <v>109.81</v>
       </c>
       <c r="DT44" t="n" s="10">
-        <v>111.23</v>
+        <v>111.17</v>
       </c>
       <c r="DU44" t="n" s="10">
-        <v>113.18</v>
-      </c>
-      <c r="DV44" t="s" s="10">
-        <v>43</v>
+        <v>113.14</v>
+      </c>
+      <c r="DV44" t="n" s="10">
+        <v>115.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="9">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s" s="13">
         <v>44</v>
-      </c>
-      <c r="B45" t="s" s="13">
-        <v>45</v>
       </c>
       <c r="C45" t="n" s="10">
         <v>70.42</v>
@@ -16836,52 +16833,52 @@
         <v>71.88</v>
       </c>
       <c r="E45" t="n" s="10">
-        <v>72.55</v>
+        <v>72.54</v>
       </c>
       <c r="F45" t="n" s="10">
-        <v>73.34</v>
+        <v>73.35</v>
       </c>
       <c r="G45" t="n" s="10">
         <v>74.47</v>
       </c>
       <c r="H45" t="n" s="10">
-        <v>74.95</v>
+        <v>74.94</v>
       </c>
       <c r="I45" t="n" s="10">
         <v>75.98</v>
       </c>
       <c r="J45" t="n" s="10">
-        <v>76.65</v>
+        <v>76.66</v>
       </c>
       <c r="K45" t="n" s="10">
         <v>77.2</v>
       </c>
       <c r="L45" t="n" s="10">
-        <v>78.21</v>
+        <v>78.2</v>
       </c>
       <c r="M45" t="n" s="10">
-        <v>78.47</v>
+        <v>78.48</v>
       </c>
       <c r="N45" t="n" s="10">
-        <v>79.21</v>
+        <v>79.22</v>
       </c>
       <c r="O45" t="n" s="10">
-        <v>79.28</v>
+        <v>79.29</v>
       </c>
       <c r="P45" t="n" s="10">
         <v>79.48</v>
       </c>
       <c r="Q45" t="n" s="10">
-        <v>79.92</v>
+        <v>79.91</v>
       </c>
       <c r="R45" t="n" s="10">
         <v>79.98</v>
       </c>
       <c r="S45" t="n" s="10">
-        <v>80.63</v>
+        <v>80.65</v>
       </c>
       <c r="T45" t="n" s="10">
-        <v>80.78</v>
+        <v>80.79</v>
       </c>
       <c r="U45" t="n" s="10">
         <v>80.93</v>
@@ -16890,7 +16887,7 @@
         <v>81.15</v>
       </c>
       <c r="W45" t="n" s="10">
-        <v>81.41</v>
+        <v>81.4</v>
       </c>
       <c r="X45" t="n" s="10">
         <v>81.26</v>
@@ -16899,19 +16896,19 @@
         <v>81.42</v>
       </c>
       <c r="Z45" t="n" s="10">
-        <v>81.55</v>
+        <v>81.57</v>
       </c>
       <c r="AA45" t="n" s="10">
-        <v>81.4</v>
+        <v>81.39</v>
       </c>
       <c r="AB45" t="n" s="10">
-        <v>82.08</v>
+        <v>82.07</v>
       </c>
       <c r="AC45" t="n" s="10">
-        <v>82.16</v>
+        <v>82.17</v>
       </c>
       <c r="AD45" t="n" s="10">
-        <v>81.95</v>
+        <v>81.96</v>
       </c>
       <c r="AE45" t="n" s="10">
         <v>82.26</v>
@@ -16920,19 +16917,19 @@
         <v>82.05</v>
       </c>
       <c r="AG45" t="n" s="10">
-        <v>82.17</v>
+        <v>82.18</v>
       </c>
       <c r="AH45" t="n" s="10">
-        <v>82.3</v>
+        <v>82.32</v>
       </c>
       <c r="AI45" t="n" s="10">
-        <v>82.05</v>
+        <v>82.06</v>
       </c>
       <c r="AJ45" t="n" s="10">
         <v>82.57</v>
       </c>
       <c r="AK45" t="n" s="10">
-        <v>82.55</v>
+        <v>82.56</v>
       </c>
       <c r="AL45" t="n" s="10">
         <v>82.89</v>
@@ -16941,279 +16938,279 @@
         <v>82.95</v>
       </c>
       <c r="AN45" t="n" s="10">
-        <v>82.66</v>
+        <v>82.65</v>
       </c>
       <c r="AO45" t="n" s="10">
         <v>82.96</v>
       </c>
       <c r="AP45" t="n" s="10">
-        <v>83.08</v>
+        <v>83.09</v>
       </c>
       <c r="AQ45" t="n" s="10">
-        <v>83.61</v>
+        <v>83.62</v>
       </c>
       <c r="AR45" t="n" s="10">
-        <v>83.71</v>
+        <v>83.73</v>
       </c>
       <c r="AS45" t="n" s="10">
         <v>83.93</v>
       </c>
       <c r="AT45" t="n" s="10">
-        <v>84.34</v>
+        <v>84.35</v>
       </c>
       <c r="AU45" t="n" s="10">
-        <v>84.21</v>
+        <v>84.19</v>
       </c>
       <c r="AV45" t="n" s="10">
-        <v>84.67</v>
+        <v>84.66</v>
       </c>
       <c r="AW45" t="n" s="10">
         <v>84.83</v>
       </c>
       <c r="AX45" t="n" s="10">
-        <v>84.9</v>
+        <v>84.92</v>
       </c>
       <c r="AY45" t="n" s="10">
-        <v>85.29</v>
+        <v>85.28</v>
       </c>
       <c r="AZ45" t="n" s="10">
         <v>85.11</v>
       </c>
       <c r="BA45" t="n" s="10">
-        <v>85.49</v>
+        <v>85.51</v>
       </c>
       <c r="BB45" t="n" s="10">
-        <v>85.38</v>
+        <v>85.39</v>
       </c>
       <c r="BC45" t="n" s="10">
-        <v>86.15</v>
+        <v>86.17</v>
       </c>
       <c r="BD45" t="n" s="10">
-        <v>86.46</v>
+        <v>86.48</v>
       </c>
       <c r="BE45" t="n" s="10">
-        <v>86.69</v>
+        <v>86.66</v>
       </c>
       <c r="BF45" t="n" s="10">
-        <v>87.25</v>
+        <v>87.27</v>
       </c>
       <c r="BG45" t="n" s="10">
-        <v>86.68</v>
+        <v>86.71</v>
       </c>
       <c r="BH45" t="n" s="10">
-        <v>87.47</v>
+        <v>87.49</v>
       </c>
       <c r="BI45" t="n" s="10">
-        <v>87.63</v>
+        <v>87.56</v>
       </c>
       <c r="BJ45" t="n" s="10">
-        <v>87.7</v>
+        <v>87.73</v>
       </c>
       <c r="BK45" t="n" s="10">
-        <v>88.06</v>
+        <v>88.08</v>
       </c>
       <c r="BL45" t="n" s="10">
-        <v>87.82</v>
+        <v>87.83</v>
       </c>
       <c r="BM45" t="n" s="10">
-        <v>88.17</v>
+        <v>88.14</v>
       </c>
       <c r="BN45" t="n" s="10">
-        <v>88.32</v>
+        <v>88.31</v>
       </c>
       <c r="BO45" t="n" s="10">
-        <v>89.1</v>
+        <v>89.07</v>
       </c>
       <c r="BP45" t="n" s="10">
-        <v>88.98</v>
+        <v>89.06</v>
       </c>
       <c r="BQ45" t="n" s="10">
-        <v>89.37</v>
+        <v>89.55</v>
       </c>
       <c r="BR45" t="n" s="10">
-        <v>90.13</v>
+        <v>89.85</v>
       </c>
       <c r="BS45" t="n" s="10">
-        <v>90.48</v>
+        <v>90.3</v>
       </c>
       <c r="BT45" t="n" s="10">
-        <v>91.11</v>
+        <v>91.42</v>
       </c>
       <c r="BU45" t="n" s="10">
-        <v>91.33</v>
+        <v>91.73</v>
       </c>
       <c r="BV45" t="n" s="10">
-        <v>90.94</v>
+        <v>90.43</v>
       </c>
       <c r="BW45" t="n" s="10">
-        <v>91.4</v>
+        <v>91.07</v>
       </c>
       <c r="BX45" t="n" s="10">
-        <v>90.74</v>
+        <v>91.16</v>
       </c>
       <c r="BY45" t="n" s="10">
-        <v>91.39</v>
+        <v>91.68</v>
       </c>
       <c r="BZ45" t="n" s="10">
-        <v>92.13</v>
+        <v>91.82</v>
       </c>
       <c r="CA45" t="n" s="10">
-        <v>92.53</v>
+        <v>92.33</v>
       </c>
       <c r="CB45" t="n" s="10">
-        <v>92.32</v>
+        <v>92.49</v>
       </c>
       <c r="CC45" t="n" s="10">
-        <v>93.06</v>
+        <v>93.11</v>
       </c>
       <c r="CD45" t="n" s="10">
-        <v>93.78</v>
+        <v>93.74</v>
       </c>
       <c r="CE45" t="n" s="10">
-        <v>94.09</v>
+        <v>94.06</v>
       </c>
       <c r="CF45" t="n" s="10">
         <v>94.81</v>
       </c>
       <c r="CG45" t="n" s="10">
-        <v>94.93</v>
+        <v>94.94</v>
       </c>
       <c r="CH45" t="n" s="10">
-        <v>95.32</v>
+        <v>95.31</v>
       </c>
       <c r="CI45" t="n" s="10">
-        <v>95.92</v>
+        <v>95.91</v>
       </c>
       <c r="CJ45" t="n" s="10">
-        <v>95.66</v>
+        <v>95.65</v>
       </c>
       <c r="CK45" t="n" s="10">
-        <v>96.08</v>
+        <v>96.09</v>
       </c>
       <c r="CL45" t="n" s="10">
         <v>96.63</v>
       </c>
       <c r="CM45" t="n" s="10">
-        <v>96.85</v>
+        <v>96.84</v>
       </c>
       <c r="CN45" t="n" s="10">
         <v>97.57</v>
       </c>
       <c r="CO45" t="n" s="10">
-        <v>97.82</v>
+        <v>97.81</v>
       </c>
       <c r="CP45" t="n" s="10">
-        <v>97.98</v>
+        <v>97.99</v>
       </c>
       <c r="CQ45" t="n" s="10">
-        <v>98.69</v>
+        <v>98.68</v>
       </c>
       <c r="CR45" t="n" s="10">
-        <v>98.82</v>
+        <v>98.81</v>
       </c>
       <c r="CS45" t="n" s="10">
-        <v>99.16</v>
+        <v>99.15</v>
       </c>
       <c r="CT45" t="n" s="10">
-        <v>99.06</v>
+        <v>99.1</v>
       </c>
       <c r="CU45" t="n" s="10">
-        <v>99.67</v>
+        <v>99.65</v>
       </c>
       <c r="CV45" t="n" s="10">
-        <v>99.73</v>
+        <v>99.69</v>
       </c>
       <c r="CW45" t="n" s="10">
-        <v>100.21</v>
+        <v>100.16</v>
       </c>
       <c r="CX45" t="n" s="10">
-        <v>100.49</v>
+        <v>100.57</v>
       </c>
       <c r="CY45" t="n" s="10">
-        <v>100.0</v>
+        <v>99.96</v>
       </c>
       <c r="CZ45" t="n" s="10">
-        <v>101.12</v>
+        <v>101.09</v>
       </c>
       <c r="DA45" t="n" s="10">
-        <v>101.08</v>
+        <v>101.06</v>
       </c>
       <c r="DB45" t="n" s="10">
-        <v>101.46</v>
+        <v>101.5</v>
       </c>
       <c r="DC45" t="n" s="10">
-        <v>102.44</v>
+        <v>102.4</v>
       </c>
       <c r="DD45" t="n" s="10">
-        <v>102.06</v>
+        <v>102.04</v>
       </c>
       <c r="DE45" t="n" s="10">
-        <v>102.65</v>
+        <v>102.64</v>
       </c>
       <c r="DF45" t="n" s="10">
-        <v>102.84</v>
+        <v>102.86</v>
       </c>
       <c r="DG45" t="n" s="10">
-        <v>103.8</v>
+        <v>103.79</v>
       </c>
       <c r="DH45" t="n" s="10">
-        <v>104.75</v>
+        <v>104.73</v>
       </c>
       <c r="DI45" t="n" s="10">
-        <v>105.25</v>
+        <v>105.23</v>
       </c>
       <c r="DJ45" t="n" s="10">
-        <v>105.82</v>
+        <v>105.84</v>
       </c>
       <c r="DK45" t="n" s="10">
-        <v>105.81</v>
+        <v>105.85</v>
       </c>
       <c r="DL45" t="n" s="10">
-        <v>106.98</v>
+        <v>106.87</v>
       </c>
       <c r="DM45" t="n" s="10">
-        <v>107.34</v>
+        <v>107.39</v>
       </c>
       <c r="DN45" t="n" s="10">
-        <v>107.43</v>
+        <v>107.45</v>
       </c>
       <c r="DO45" t="n" s="10">
-        <v>107.96</v>
+        <v>108.04</v>
       </c>
       <c r="DP45" t="n" s="10">
-        <v>108.51</v>
+        <v>108.22</v>
       </c>
       <c r="DQ45" t="n" s="10">
-        <v>107.54</v>
+        <v>107.69</v>
       </c>
       <c r="DR45" t="n" s="10">
-        <v>108.34</v>
+        <v>108.38</v>
       </c>
       <c r="DS45" t="n" s="10">
-        <v>109.26</v>
+        <v>109.33</v>
       </c>
       <c r="DT45" t="n" s="10">
-        <v>111.32</v>
+        <v>110.96</v>
       </c>
       <c r="DU45" t="n" s="10">
-        <v>113.16</v>
-      </c>
-      <c r="DV45" t="s" s="10">
-        <v>43</v>
+        <v>113.29</v>
+      </c>
+      <c r="DV45" t="n" s="10">
+        <v>116.04</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="9">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s" s="13">
         <v>46</v>
       </c>
-      <c r="B46" t="s" s="13">
-        <v>47</v>
-      </c>
       <c r="C46" t="n" s="10">
-        <v>70.1</v>
+        <v>70.11</v>
       </c>
       <c r="D46" t="n" s="10">
-        <v>71.54</v>
+        <v>71.53</v>
       </c>
       <c r="E46" t="n" s="10">
         <v>72.14</v>
@@ -17222,7 +17219,7 @@
         <v>73.1</v>
       </c>
       <c r="G46" t="n" s="10">
-        <v>73.95</v>
+        <v>73.94</v>
       </c>
       <c r="H46" t="n" s="10">
         <v>74.43</v>
@@ -17231,7 +17228,7 @@
         <v>75.41</v>
       </c>
       <c r="J46" t="n" s="10">
-        <v>75.95</v>
+        <v>75.94</v>
       </c>
       <c r="K46" t="n" s="10">
         <v>76.64</v>
@@ -17243,10 +17240,10 @@
         <v>78.01</v>
       </c>
       <c r="N46" t="n" s="10">
-        <v>78.64</v>
+        <v>78.62</v>
       </c>
       <c r="O46" t="n" s="10">
-        <v>78.88</v>
+        <v>78.87</v>
       </c>
       <c r="P46" t="n" s="10">
         <v>78.87</v>
@@ -17258,13 +17255,13 @@
         <v>79.48</v>
       </c>
       <c r="S46" t="n" s="10">
-        <v>79.92</v>
+        <v>79.91</v>
       </c>
       <c r="T46" t="n" s="10">
         <v>80.17</v>
       </c>
       <c r="U46" t="n" s="10">
-        <v>80.35</v>
+        <v>80.36</v>
       </c>
       <c r="V46" t="n" s="10">
         <v>80.53</v>
@@ -17273,16 +17270,16 @@
         <v>80.65</v>
       </c>
       <c r="X46" t="n" s="10">
-        <v>80.6</v>
+        <v>80.61</v>
       </c>
       <c r="Y46" t="n" s="10">
-        <v>80.68</v>
+        <v>80.69</v>
       </c>
       <c r="Z46" t="n" s="10">
-        <v>80.75</v>
+        <v>80.76</v>
       </c>
       <c r="AA46" t="n" s="10">
-        <v>80.87</v>
+        <v>80.88</v>
       </c>
       <c r="AB46" t="n" s="10">
         <v>81.24</v>
@@ -17309,40 +17306,40 @@
         <v>81.63</v>
       </c>
       <c r="AJ46" t="n" s="10">
-        <v>82.15</v>
+        <v>82.14</v>
       </c>
       <c r="AK46" t="n" s="10">
         <v>82.2</v>
       </c>
       <c r="AL46" t="n" s="10">
-        <v>82.28</v>
+        <v>82.27</v>
       </c>
       <c r="AM46" t="n" s="10">
-        <v>82.34</v>
+        <v>82.33</v>
       </c>
       <c r="AN46" t="n" s="10">
         <v>82.13</v>
       </c>
       <c r="AO46" t="n" s="10">
-        <v>82.49</v>
+        <v>82.5</v>
       </c>
       <c r="AP46" t="n" s="10">
-        <v>82.81</v>
+        <v>82.82</v>
       </c>
       <c r="AQ46" t="n" s="10">
         <v>83.48</v>
       </c>
       <c r="AR46" t="n" s="10">
-        <v>83.89</v>
+        <v>83.9</v>
       </c>
       <c r="AS46" t="n" s="10">
-        <v>84.24</v>
+        <v>84.25</v>
       </c>
       <c r="AT46" t="n" s="10">
         <v>84.72</v>
       </c>
       <c r="AU46" t="n" s="10">
-        <v>84.72</v>
+        <v>84.73</v>
       </c>
       <c r="AV46" t="n" s="10">
         <v>85.22</v>
@@ -17357,13 +17354,13 @@
         <v>86.07</v>
       </c>
       <c r="AZ46" t="n" s="10">
-        <v>85.98</v>
+        <v>85.99</v>
       </c>
       <c r="BA46" t="n" s="10">
         <v>86.43</v>
       </c>
       <c r="BB46" t="n" s="10">
-        <v>86.37</v>
+        <v>86.38</v>
       </c>
       <c r="BC46" t="n" s="10">
         <v>86.76</v>
@@ -17372,28 +17369,28 @@
         <v>87.08</v>
       </c>
       <c r="BE46" t="n" s="10">
-        <v>87.18</v>
+        <v>87.17</v>
       </c>
       <c r="BF46" t="n" s="10">
-        <v>87.62</v>
+        <v>87.6</v>
       </c>
       <c r="BG46" t="n" s="10">
         <v>87.34</v>
       </c>
       <c r="BH46" t="n" s="10">
-        <v>87.84</v>
+        <v>87.83</v>
       </c>
       <c r="BI46" t="n" s="10">
         <v>88.12</v>
       </c>
       <c r="BJ46" t="n" s="10">
-        <v>88.25</v>
+        <v>88.24</v>
       </c>
       <c r="BK46" t="n" s="10">
-        <v>88.71</v>
+        <v>88.7</v>
       </c>
       <c r="BL46" t="n" s="10">
-        <v>88.62</v>
+        <v>88.63</v>
       </c>
       <c r="BM46" t="n" s="10">
         <v>88.75</v>
@@ -17405,37 +17402,37 @@
         <v>89.53</v>
       </c>
       <c r="BP46" t="n" s="10">
-        <v>89.69</v>
+        <v>89.7</v>
       </c>
       <c r="BQ46" t="n" s="10">
-        <v>90.1</v>
+        <v>90.11</v>
       </c>
       <c r="BR46" t="n" s="10">
-        <v>90.77</v>
+        <v>90.78</v>
       </c>
       <c r="BS46" t="n" s="10">
-        <v>90.99</v>
+        <v>91.0</v>
       </c>
       <c r="BT46" t="n" s="10">
-        <v>91.71</v>
+        <v>91.7</v>
       </c>
       <c r="BU46" t="n" s="10">
-        <v>91.84</v>
+        <v>91.83</v>
       </c>
       <c r="BV46" t="n" s="10">
-        <v>91.58</v>
+        <v>91.59</v>
       </c>
       <c r="BW46" t="n" s="10">
         <v>91.64</v>
       </c>
       <c r="BX46" t="n" s="10">
-        <v>91.76</v>
+        <v>91.77</v>
       </c>
       <c r="BY46" t="n" s="10">
         <v>92.22</v>
       </c>
       <c r="BZ46" t="n" s="10">
-        <v>92.67</v>
+        <v>92.66</v>
       </c>
       <c r="CA46" t="n" s="10">
         <v>93.01</v>
@@ -17450,7 +17447,7 @@
         <v>94.24</v>
       </c>
       <c r="CE46" t="n" s="10">
-        <v>94.56</v>
+        <v>94.55</v>
       </c>
       <c r="CF46" t="n" s="10">
         <v>95.06</v>
@@ -17462,7 +17459,7 @@
         <v>95.48</v>
       </c>
       <c r="CI46" t="n" s="10">
-        <v>96.04</v>
+        <v>96.02</v>
       </c>
       <c r="CJ46" t="n" s="10">
         <v>96.07</v>
@@ -17471,10 +17468,10 @@
         <v>96.43</v>
       </c>
       <c r="CL46" t="n" s="10">
-        <v>96.96</v>
+        <v>96.97</v>
       </c>
       <c r="CM46" t="n" s="10">
-        <v>97.26</v>
+        <v>97.28</v>
       </c>
       <c r="CN46" t="n" s="10">
         <v>97.93</v>
@@ -17483,7 +17480,7 @@
         <v>98.33</v>
       </c>
       <c r="CP46" t="n" s="10">
-        <v>98.58</v>
+        <v>98.59</v>
       </c>
       <c r="CQ46" t="n" s="10">
         <v>99.02</v>
@@ -17501,7 +17498,7 @@
         <v>99.71</v>
       </c>
       <c r="CV46" t="n" s="10">
-        <v>99.85</v>
+        <v>99.86</v>
       </c>
       <c r="CW46" t="n" s="10">
         <v>100.03</v>
@@ -17510,99 +17507,99 @@
         <v>100.37</v>
       </c>
       <c r="CY46" t="n" s="10">
-        <v>100.02</v>
+        <v>100.03</v>
       </c>
       <c r="CZ46" t="n" s="10">
-        <v>100.76</v>
+        <v>100.73</v>
       </c>
       <c r="DA46" t="n" s="10">
         <v>100.93</v>
       </c>
       <c r="DB46" t="n" s="10">
-        <v>101.31</v>
+        <v>101.34</v>
       </c>
       <c r="DC46" t="n" s="10">
-        <v>102.09</v>
+        <v>102.12</v>
       </c>
       <c r="DD46" t="n" s="10">
-        <v>102.0</v>
+        <v>101.82</v>
       </c>
       <c r="DE46" t="n" s="10">
-        <v>102.5</v>
+        <v>102.54</v>
       </c>
       <c r="DF46" t="n" s="10">
-        <v>102.73</v>
+        <v>102.87</v>
       </c>
       <c r="DG46" t="n" s="10">
-        <v>103.31</v>
+        <v>103.54</v>
       </c>
       <c r="DH46" t="n" s="10">
-        <v>103.85</v>
+        <v>103.19</v>
       </c>
       <c r="DI46" t="n" s="10">
-        <v>104.26</v>
+        <v>104.48</v>
       </c>
       <c r="DJ46" t="n" s="10">
-        <v>104.88</v>
+        <v>105.18</v>
       </c>
       <c r="DK46" t="n" s="10">
-        <v>104.95</v>
+        <v>105.38</v>
       </c>
       <c r="DL46" t="n" s="10">
-        <v>105.21</v>
+        <v>104.09</v>
       </c>
       <c r="DM46" t="n" s="10">
-        <v>106.24</v>
+        <v>106.6</v>
       </c>
       <c r="DN46" t="n" s="10">
-        <v>106.49</v>
+        <v>106.77</v>
       </c>
       <c r="DO46" t="n" s="10">
-        <v>107.26</v>
+        <v>108.05</v>
       </c>
       <c r="DP46" t="n" s="10">
-        <v>106.95</v>
+        <v>105.38</v>
       </c>
       <c r="DQ46" t="n" s="10">
-        <v>107.13</v>
+        <v>107.72</v>
       </c>
       <c r="DR46" t="n" s="10">
-        <v>108.14</v>
+        <v>108.02</v>
       </c>
       <c r="DS46" t="n" s="10">
-        <v>109.78</v>
+        <v>110.94</v>
       </c>
       <c r="DT46" t="n" s="10">
-        <v>108.66</v>
+        <v>106.81</v>
       </c>
       <c r="DU46" t="n" s="10">
-        <v>111.57</v>
-      </c>
-      <c r="DV46" t="s" s="10">
-        <v>43</v>
+        <v>111.99</v>
+      </c>
+      <c r="DV46" t="n" s="10">
+        <v>112.61</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="9">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s" s="13">
         <v>48</v>
       </c>
-      <c r="B47" t="s" s="13">
-        <v>49</v>
-      </c>
       <c r="C47" t="n" s="10">
-        <v>68.75</v>
+        <v>68.76</v>
       </c>
       <c r="D47" t="n" s="10">
-        <v>69.97</v>
+        <v>69.96</v>
       </c>
       <c r="E47" t="n" s="10">
         <v>71.09</v>
       </c>
       <c r="F47" t="n" s="10">
-        <v>72.04</v>
+        <v>72.05</v>
       </c>
       <c r="G47" t="n" s="10">
-        <v>72.66</v>
+        <v>72.65</v>
       </c>
       <c r="H47" t="n" s="10">
         <v>73.24</v>
@@ -17611,22 +17608,22 @@
         <v>73.99</v>
       </c>
       <c r="J47" t="n" s="10">
-        <v>74.52</v>
+        <v>74.51</v>
       </c>
       <c r="K47" t="n" s="10">
         <v>75.49</v>
       </c>
       <c r="L47" t="n" s="10">
-        <v>76.42</v>
+        <v>76.41</v>
       </c>
       <c r="M47" t="n" s="10">
         <v>76.8</v>
       </c>
       <c r="N47" t="n" s="10">
-        <v>77.55</v>
+        <v>77.53</v>
       </c>
       <c r="O47" t="n" s="10">
-        <v>77.83</v>
+        <v>77.82</v>
       </c>
       <c r="P47" t="n" s="10">
         <v>77.98</v>
@@ -17635,10 +17632,10 @@
         <v>78.41</v>
       </c>
       <c r="R47" t="n" s="10">
-        <v>78.42</v>
+        <v>78.43</v>
       </c>
       <c r="S47" t="n" s="10">
-        <v>78.81</v>
+        <v>78.8</v>
       </c>
       <c r="T47" t="n" s="10">
         <v>79.05</v>
@@ -17653,19 +17650,19 @@
         <v>79.62</v>
       </c>
       <c r="X47" t="n" s="10">
-        <v>79.56</v>
+        <v>79.57</v>
       </c>
       <c r="Y47" t="n" s="10">
-        <v>79.68</v>
+        <v>79.69</v>
       </c>
       <c r="Z47" t="n" s="10">
-        <v>79.81</v>
+        <v>79.82</v>
       </c>
       <c r="AA47" t="n" s="10">
-        <v>79.99</v>
+        <v>80.0</v>
       </c>
       <c r="AB47" t="n" s="10">
-        <v>80.59</v>
+        <v>80.58</v>
       </c>
       <c r="AC47" t="n" s="10">
         <v>80.78</v>
@@ -17677,7 +17674,7 @@
         <v>80.74</v>
       </c>
       <c r="AF47" t="n" s="10">
-        <v>80.65</v>
+        <v>80.66</v>
       </c>
       <c r="AG47" t="n" s="10">
         <v>80.92</v>
@@ -17689,13 +17686,13 @@
         <v>81.14</v>
       </c>
       <c r="AJ47" t="n" s="10">
-        <v>81.61</v>
+        <v>81.6</v>
       </c>
       <c r="AK47" t="n" s="10">
         <v>81.56</v>
       </c>
       <c r="AL47" t="n" s="10">
-        <v>81.7</v>
+        <v>81.68</v>
       </c>
       <c r="AM47" t="n" s="10">
         <v>81.93</v>
@@ -17704,25 +17701,25 @@
         <v>81.71</v>
       </c>
       <c r="AO47" t="n" s="10">
-        <v>82.13</v>
+        <v>82.14</v>
       </c>
       <c r="AP47" t="n" s="10">
-        <v>82.56</v>
+        <v>82.57</v>
       </c>
       <c r="AQ47" t="n" s="10">
         <v>83.16</v>
       </c>
       <c r="AR47" t="n" s="10">
-        <v>83.6</v>
+        <v>83.61</v>
       </c>
       <c r="AS47" t="n" s="10">
-        <v>83.91</v>
+        <v>83.92</v>
       </c>
       <c r="AT47" t="n" s="10">
         <v>84.31</v>
       </c>
       <c r="AU47" t="n" s="10">
-        <v>84.26</v>
+        <v>84.28</v>
       </c>
       <c r="AV47" t="n" s="10">
         <v>84.84</v>
@@ -17731,49 +17728,49 @@
         <v>85.02</v>
       </c>
       <c r="AX47" t="n" s="10">
-        <v>85.18</v>
+        <v>85.19</v>
       </c>
       <c r="AY47" t="n" s="10">
         <v>85.88</v>
       </c>
       <c r="AZ47" t="n" s="10">
-        <v>85.8</v>
+        <v>85.81</v>
       </c>
       <c r="BA47" t="n" s="10">
         <v>86.2</v>
       </c>
       <c r="BB47" t="n" s="10">
-        <v>86.29</v>
+        <v>86.3</v>
       </c>
       <c r="BC47" t="n" s="10">
-        <v>86.74</v>
+        <v>86.73</v>
       </c>
       <c r="BD47" t="n" s="10">
         <v>87.08</v>
       </c>
       <c r="BE47" t="n" s="10">
-        <v>87.31</v>
+        <v>87.3</v>
       </c>
       <c r="BF47" t="n" s="10">
-        <v>87.83</v>
+        <v>87.81</v>
       </c>
       <c r="BG47" t="n" s="10">
-        <v>87.43</v>
+        <v>87.44</v>
       </c>
       <c r="BH47" t="n" s="10">
-        <v>88.14</v>
+        <v>88.13</v>
       </c>
       <c r="BI47" t="n" s="10">
         <v>88.38</v>
       </c>
       <c r="BJ47" t="n" s="10">
-        <v>88.55</v>
+        <v>88.54</v>
       </c>
       <c r="BK47" t="n" s="10">
-        <v>89.06</v>
+        <v>89.04</v>
       </c>
       <c r="BL47" t="n" s="10">
-        <v>88.92</v>
+        <v>88.93</v>
       </c>
       <c r="BM47" t="n" s="10">
         <v>89.17</v>
@@ -17785,37 +17782,37 @@
         <v>90.14</v>
       </c>
       <c r="BP47" t="n" s="10">
-        <v>90.31</v>
+        <v>90.32</v>
       </c>
       <c r="BQ47" t="n" s="10">
-        <v>90.76</v>
+        <v>90.77</v>
       </c>
       <c r="BR47" t="n" s="10">
-        <v>91.59</v>
+        <v>91.6</v>
       </c>
       <c r="BS47" t="n" s="10">
-        <v>91.96</v>
+        <v>91.97</v>
       </c>
       <c r="BT47" t="n" s="10">
-        <v>92.9</v>
+        <v>92.89</v>
       </c>
       <c r="BU47" t="n" s="10">
-        <v>93.05</v>
+        <v>93.04</v>
       </c>
       <c r="BV47" t="n" s="10">
-        <v>92.48</v>
+        <v>92.49</v>
       </c>
       <c r="BW47" t="n" s="10">
         <v>92.33</v>
       </c>
       <c r="BX47" t="n" s="10">
-        <v>92.32</v>
+        <v>92.33</v>
       </c>
       <c r="BY47" t="n" s="10">
         <v>92.75</v>
       </c>
       <c r="BZ47" t="n" s="10">
-        <v>93.39</v>
+        <v>93.38</v>
       </c>
       <c r="CA47" t="n" s="10">
         <v>93.72</v>
@@ -17824,37 +17821,37 @@
         <v>94.1</v>
       </c>
       <c r="CC47" t="n" s="10">
-        <v>94.57</v>
+        <v>94.56</v>
       </c>
       <c r="CD47" t="n" s="10">
-        <v>95.13</v>
+        <v>95.12</v>
       </c>
       <c r="CE47" t="n" s="10">
-        <v>95.44</v>
+        <v>95.43</v>
       </c>
       <c r="CF47" t="n" s="10">
-        <v>95.99</v>
+        <v>95.98</v>
       </c>
       <c r="CG47" t="n" s="10">
-        <v>96.14</v>
+        <v>96.13</v>
       </c>
       <c r="CH47" t="n" s="10">
         <v>96.34</v>
       </c>
       <c r="CI47" t="n" s="10">
-        <v>96.98</v>
+        <v>96.96</v>
       </c>
       <c r="CJ47" t="n" s="10">
         <v>96.84</v>
       </c>
       <c r="CK47" t="n" s="10">
-        <v>97.18</v>
+        <v>97.19</v>
       </c>
       <c r="CL47" t="n" s="10">
-        <v>97.62</v>
+        <v>97.63</v>
       </c>
       <c r="CM47" t="n" s="10">
-        <v>97.76</v>
+        <v>97.78</v>
       </c>
       <c r="CN47" t="n" s="10">
         <v>98.46</v>
@@ -17863,25 +17860,25 @@
         <v>98.69</v>
       </c>
       <c r="CP47" t="n" s="10">
-        <v>98.85</v>
+        <v>98.86</v>
       </c>
       <c r="CQ47" t="n" s="10">
         <v>99.22</v>
       </c>
       <c r="CR47" t="n" s="10">
-        <v>99.18</v>
+        <v>99.19</v>
       </c>
       <c r="CS47" t="n" s="10">
         <v>99.46</v>
       </c>
       <c r="CT47" t="n" s="10">
-        <v>99.37</v>
+        <v>99.38</v>
       </c>
       <c r="CU47" t="n" s="10">
         <v>99.76</v>
       </c>
       <c r="CV47" t="n" s="10">
-        <v>99.8</v>
+        <v>99.81</v>
       </c>
       <c r="CW47" t="n" s="10">
         <v>100.0</v>
@@ -17890,84 +17887,84 @@
         <v>100.39</v>
       </c>
       <c r="CY47" t="n" s="10">
-        <v>99.94</v>
+        <v>99.95</v>
       </c>
       <c r="CZ47" t="n" s="10">
-        <v>100.88</v>
+        <v>100.84</v>
       </c>
       <c r="DA47" t="n" s="10">
-        <v>100.97</v>
+        <v>100.96</v>
       </c>
       <c r="DB47" t="n" s="10">
-        <v>101.4</v>
+        <v>101.44</v>
       </c>
       <c r="DC47" t="n" s="10">
-        <v>102.13</v>
+        <v>102.18</v>
       </c>
       <c r="DD47" t="n" s="10">
-        <v>101.8</v>
+        <v>101.57</v>
       </c>
       <c r="DE47" t="n" s="10">
-        <v>102.26</v>
+        <v>102.34</v>
       </c>
       <c r="DF47" t="n" s="10">
-        <v>102.31</v>
+        <v>102.51</v>
       </c>
       <c r="DG47" t="n" s="10">
-        <v>102.92</v>
+        <v>103.23</v>
       </c>
       <c r="DH47" t="n" s="10">
-        <v>103.44</v>
+        <v>102.53</v>
       </c>
       <c r="DI47" t="n" s="10">
-        <v>103.72</v>
+        <v>104.03</v>
       </c>
       <c r="DJ47" t="n" s="10">
-        <v>104.28</v>
+        <v>104.71</v>
       </c>
       <c r="DK47" t="n" s="10">
-        <v>104.27</v>
+        <v>104.86</v>
       </c>
       <c r="DL47" t="n" s="10">
-        <v>104.48</v>
+        <v>102.96</v>
       </c>
       <c r="DM47" t="n" s="10">
-        <v>105.59</v>
+        <v>106.07</v>
       </c>
       <c r="DN47" t="n" s="10">
-        <v>105.61</v>
+        <v>105.94</v>
       </c>
       <c r="DO47" t="n" s="10">
-        <v>106.44</v>
+        <v>107.46</v>
       </c>
       <c r="DP47" t="n" s="10">
-        <v>105.1</v>
+        <v>103.2</v>
       </c>
       <c r="DQ47" t="n" s="10">
-        <v>105.57</v>
+        <v>106.26</v>
       </c>
       <c r="DR47" t="n" s="10">
-        <v>106.12</v>
+        <v>105.82</v>
       </c>
       <c r="DS47" t="n" s="10">
-        <v>108.34</v>
+        <v>109.82</v>
       </c>
       <c r="DT47" t="n" s="10">
-        <v>107.04</v>
+        <v>105.18</v>
       </c>
       <c r="DU47" t="n" s="10">
-        <v>109.79</v>
-      </c>
-      <c r="DV47" t="s" s="10">
-        <v>43</v>
+        <v>110.63</v>
+      </c>
+      <c r="DV47" t="n" s="10">
+        <v>110.36</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="B48" t="s" s="13">
         <v>50</v>
-      </c>
-      <c r="B48" t="s" s="13">
-        <v>51</v>
       </c>
       <c r="C48" t="n" s="10">
         <v>74.33</v>
@@ -18300,7 +18297,7 @@
         <v>104.92</v>
       </c>
       <c r="DI48" t="n" s="10">
-        <v>105.66</v>
+        <v>105.67</v>
       </c>
       <c r="DJ48" t="n" s="10">
         <v>106.43</v>
@@ -18309,141 +18306,141 @@
         <v>106.76</v>
       </c>
       <c r="DL48" t="n" s="10">
-        <v>107.15</v>
+        <v>107.08</v>
       </c>
       <c r="DM48" t="n" s="10">
-        <v>107.95</v>
+        <v>107.97</v>
       </c>
       <c r="DN48" t="n" s="10">
-        <v>108.82</v>
+        <v>108.95</v>
       </c>
       <c r="DO48" t="n" s="10">
-        <v>109.43</v>
+        <v>109.64</v>
       </c>
       <c r="DP48" t="n" s="10">
-        <v>111.37</v>
+        <v>110.6</v>
       </c>
       <c r="DQ48" t="n" s="10">
-        <v>111.12</v>
+        <v>111.41</v>
       </c>
       <c r="DR48" t="n" s="10">
-        <v>113.03</v>
+        <v>113.4</v>
       </c>
       <c r="DS48" t="n" s="10">
-        <v>113.41</v>
+        <v>113.9</v>
       </c>
       <c r="DT48" t="n" s="10">
-        <v>112.72</v>
+        <v>110.9</v>
       </c>
       <c r="DU48" t="n" s="10">
-        <v>116.01</v>
-      </c>
-      <c r="DV48" t="s" s="10">
-        <v>43</v>
+        <v>115.42</v>
+      </c>
+      <c r="DV48" t="n" s="10">
+        <v>118.19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="9">
+        <v>51</v>
+      </c>
+      <c r="B49" t="s" s="13">
         <v>52</v>
       </c>
-      <c r="B49" t="s" s="13">
-        <v>53</v>
-      </c>
       <c r="C49" t="n" s="10">
-        <v>71.63</v>
+        <v>71.59</v>
       </c>
       <c r="D49" t="n" s="10">
         <v>73.18</v>
       </c>
       <c r="E49" t="n" s="10">
-        <v>74.01</v>
+        <v>73.95</v>
       </c>
       <c r="F49" t="n" s="10">
-        <v>74.35</v>
+        <v>74.34</v>
       </c>
       <c r="G49" t="n" s="10">
-        <v>76.27</v>
+        <v>76.26</v>
       </c>
       <c r="H49" t="n" s="10">
-        <v>76.75</v>
+        <v>76.72</v>
       </c>
       <c r="I49" t="n" s="10">
-        <v>77.94</v>
+        <v>77.92</v>
       </c>
       <c r="J49" t="n" s="10">
-        <v>79.06</v>
+        <v>79.09</v>
       </c>
       <c r="K49" t="n" s="10">
-        <v>79.14</v>
+        <v>79.12</v>
       </c>
       <c r="L49" t="n" s="10">
         <v>80.03</v>
       </c>
       <c r="M49" t="n" s="10">
-        <v>80.09</v>
+        <v>80.11</v>
       </c>
       <c r="N49" t="n" s="10">
-        <v>81.19</v>
+        <v>81.25</v>
       </c>
       <c r="O49" t="n" s="10">
-        <v>80.73</v>
+        <v>80.76</v>
       </c>
       <c r="P49" t="n" s="10">
-        <v>81.62</v>
+        <v>81.59</v>
       </c>
       <c r="Q49" t="n" s="10">
-        <v>82.02</v>
+        <v>81.99</v>
       </c>
       <c r="R49" t="n" s="10">
-        <v>81.75</v>
+        <v>81.72</v>
       </c>
       <c r="S49" t="n" s="10">
-        <v>83.02</v>
+        <v>83.1</v>
       </c>
       <c r="T49" t="n" s="10">
+        <v>82.88</v>
+      </c>
+      <c r="U49" t="n" s="10">
         <v>82.87</v>
       </c>
-      <c r="U49" t="n" s="10">
-        <v>82.93</v>
-      </c>
       <c r="V49" t="n" s="10">
-        <v>83.31</v>
+        <v>83.28</v>
       </c>
       <c r="W49" t="n" s="10">
-        <v>83.99</v>
+        <v>83.96</v>
       </c>
       <c r="X49" t="n" s="10">
-        <v>83.53</v>
+        <v>83.49</v>
       </c>
       <c r="Y49" t="n" s="10">
         <v>83.93</v>
       </c>
       <c r="Z49" t="n" s="10">
-        <v>84.32</v>
+        <v>84.36</v>
       </c>
       <c r="AA49" t="n" s="10">
-        <v>83.22</v>
+        <v>83.11</v>
       </c>
       <c r="AB49" t="n" s="10">
-        <v>84.95</v>
+        <v>84.91</v>
       </c>
       <c r="AC49" t="n" s="10">
-        <v>85.16</v>
+        <v>85.18</v>
       </c>
       <c r="AD49" t="n" s="10">
-        <v>84.24</v>
+        <v>84.3</v>
       </c>
       <c r="AE49" t="n" s="10">
-        <v>86.08</v>
+        <v>86.04</v>
       </c>
       <c r="AF49" t="n" s="10">
-        <v>85.43</v>
+        <v>85.42</v>
       </c>
       <c r="AG49" t="n" s="10">
-        <v>85.26</v>
+        <v>85.27</v>
       </c>
       <c r="AH49" t="n" s="10">
-        <v>85.12</v>
+        <v>85.17</v>
       </c>
       <c r="AI49" t="n" s="10">
         <v>83.53</v>
@@ -18452,291 +18449,291 @@
         <v>84.07</v>
       </c>
       <c r="AK49" t="n" s="10">
-        <v>83.84</v>
+        <v>83.85</v>
       </c>
       <c r="AL49" t="n" s="10">
-        <v>85.0</v>
+        <v>85.05</v>
       </c>
       <c r="AM49" t="n" s="10">
-        <v>85.03</v>
+        <v>85.04</v>
       </c>
       <c r="AN49" t="n" s="10">
-        <v>84.49</v>
+        <v>84.47</v>
       </c>
       <c r="AO49" t="n" s="10">
-        <v>84.63</v>
+        <v>84.57</v>
       </c>
       <c r="AP49" t="n" s="10">
-        <v>84.11</v>
+        <v>84.1</v>
       </c>
       <c r="AQ49" t="n" s="10">
-        <v>84.23</v>
+        <v>84.24</v>
       </c>
       <c r="AR49" t="n" s="10">
-        <v>83.28</v>
+        <v>83.32</v>
       </c>
       <c r="AS49" t="n" s="10">
-        <v>83.04</v>
+        <v>83.01</v>
       </c>
       <c r="AT49" t="n" s="10">
-        <v>83.14</v>
+        <v>83.13</v>
       </c>
       <c r="AU49" t="n" s="10">
-        <v>82.6</v>
+        <v>82.48</v>
       </c>
       <c r="AV49" t="n" s="10">
-        <v>82.93</v>
+        <v>82.91</v>
       </c>
       <c r="AW49" t="n" s="10">
-        <v>83.25</v>
+        <v>83.26</v>
       </c>
       <c r="AX49" t="n" s="10">
-        <v>82.68</v>
+        <v>82.72</v>
       </c>
       <c r="AY49" t="n" s="10">
-        <v>82.75</v>
+        <v>82.74</v>
       </c>
       <c r="AZ49" t="n" s="10">
-        <v>82.25</v>
+        <v>82.19</v>
       </c>
       <c r="BA49" t="n" s="10">
-        <v>82.31</v>
+        <v>82.38</v>
       </c>
       <c r="BB49" t="n" s="10">
-        <v>82.06</v>
+        <v>82.05</v>
       </c>
       <c r="BC49" t="n" s="10">
-        <v>84.25</v>
+        <v>84.35</v>
       </c>
       <c r="BD49" t="n" s="10">
-        <v>84.49</v>
+        <v>84.57</v>
       </c>
       <c r="BE49" t="n" s="10">
-        <v>85.24</v>
+        <v>85.1</v>
       </c>
       <c r="BF49" t="n" s="10">
-        <v>86.25</v>
+        <v>86.39</v>
       </c>
       <c r="BG49" t="n" s="10">
-        <v>84.58</v>
+        <v>84.67</v>
       </c>
       <c r="BH49" t="n" s="10">
-        <v>86.46</v>
+        <v>86.57</v>
       </c>
       <c r="BI49" t="n" s="10">
-        <v>86.23</v>
+        <v>85.87</v>
       </c>
       <c r="BJ49" t="n" s="10">
-        <v>86.01</v>
+        <v>86.15</v>
       </c>
       <c r="BK49" t="n" s="10">
-        <v>85.96</v>
+        <v>86.09</v>
       </c>
       <c r="BL49" t="n" s="10">
-        <v>85.21</v>
+        <v>85.26</v>
       </c>
       <c r="BM49" t="n" s="10">
-        <v>86.32</v>
+        <v>86.16</v>
       </c>
       <c r="BN49" t="n" s="10">
-        <v>86.21</v>
+        <v>86.14</v>
       </c>
       <c r="BO49" t="n" s="10">
-        <v>87.74</v>
+        <v>87.63</v>
       </c>
       <c r="BP49" t="n" s="10">
-        <v>86.72</v>
+        <v>87.04</v>
       </c>
       <c r="BQ49" t="n" s="10">
-        <v>87.01</v>
+        <v>87.8</v>
       </c>
       <c r="BR49" t="n" s="10">
-        <v>88.06</v>
+        <v>86.8</v>
       </c>
       <c r="BS49" t="n" s="10">
-        <v>88.83</v>
+        <v>88.03</v>
       </c>
       <c r="BT49" t="n" s="10">
-        <v>89.2</v>
+        <v>90.53</v>
       </c>
       <c r="BU49" t="n" s="10">
-        <v>89.67</v>
+        <v>91.49</v>
       </c>
       <c r="BV49" t="n" s="10">
-        <v>88.84</v>
+        <v>86.63</v>
       </c>
       <c r="BW49" t="n" s="10">
-        <v>90.81</v>
+        <v>89.23</v>
       </c>
       <c r="BX49" t="n" s="10">
-        <v>87.06</v>
+        <v>89.13</v>
       </c>
       <c r="BY49" t="n" s="10">
-        <v>88.48</v>
+        <v>89.93</v>
       </c>
       <c r="BZ49" t="n" s="10">
-        <v>90.43</v>
+        <v>88.94</v>
       </c>
       <c r="CA49" t="n" s="10">
-        <v>91.05</v>
+        <v>90.05</v>
       </c>
       <c r="CB49" t="n" s="10">
-        <v>88.86</v>
+        <v>89.6</v>
       </c>
       <c r="CC49" t="n" s="10">
-        <v>90.82</v>
+        <v>91.07</v>
       </c>
       <c r="CD49" t="n" s="10">
-        <v>92.2</v>
+        <v>92.08</v>
       </c>
       <c r="CE49" t="n" s="10">
-        <v>92.43</v>
+        <v>92.32</v>
       </c>
       <c r="CF49" t="n" s="10">
-        <v>93.89</v>
+        <v>93.95</v>
       </c>
       <c r="CG49" t="n" s="10">
-        <v>93.75</v>
+        <v>93.82</v>
       </c>
       <c r="CH49" t="n" s="10">
         <v>94.75</v>
       </c>
       <c r="CI49" t="n" s="10">
-        <v>95.51</v>
+        <v>95.49</v>
       </c>
       <c r="CJ49" t="n" s="10">
-        <v>94.09</v>
+        <v>94.07</v>
       </c>
       <c r="CK49" t="n" s="10">
-        <v>94.84</v>
+        <v>94.83</v>
       </c>
       <c r="CL49" t="n" s="10">
-        <v>95.45</v>
+        <v>95.4</v>
       </c>
       <c r="CM49" t="n" s="10">
-        <v>95.31</v>
+        <v>95.24</v>
       </c>
       <c r="CN49" t="n" s="10">
-        <v>96.25</v>
+        <v>96.27</v>
       </c>
       <c r="CO49" t="n" s="10">
-        <v>96.01</v>
+        <v>95.99</v>
       </c>
       <c r="CP49" t="n" s="10">
-        <v>95.85</v>
+        <v>95.86</v>
       </c>
       <c r="CQ49" t="n" s="10">
-        <v>97.47</v>
+        <v>97.4</v>
       </c>
       <c r="CR49" t="n" s="10">
-        <v>97.82</v>
+        <v>97.77</v>
       </c>
       <c r="CS49" t="n" s="10">
-        <v>98.3</v>
+        <v>98.26</v>
       </c>
       <c r="CT49" t="n" s="10">
-        <v>97.84</v>
+        <v>98.0</v>
       </c>
       <c r="CU49" t="n" s="10">
-        <v>99.51</v>
+        <v>99.43</v>
       </c>
       <c r="CV49" t="n" s="10">
-        <v>99.27</v>
+        <v>99.07</v>
       </c>
       <c r="CW49" t="n" s="10">
-        <v>100.86</v>
+        <v>100.65</v>
       </c>
       <c r="CX49" t="n" s="10">
-        <v>100.98</v>
+        <v>101.33</v>
       </c>
       <c r="CY49" t="n" s="10">
-        <v>99.91</v>
+        <v>99.73</v>
       </c>
       <c r="CZ49" t="n" s="10">
-        <v>102.46</v>
+        <v>102.45</v>
       </c>
       <c r="DA49" t="n" s="10">
-        <v>101.59</v>
+        <v>101.52</v>
       </c>
       <c r="DB49" t="n" s="10">
-        <v>101.99</v>
+        <v>102.11</v>
       </c>
       <c r="DC49" t="n" s="10">
-        <v>103.71</v>
+        <v>103.43</v>
       </c>
       <c r="DD49" t="n" s="10">
-        <v>102.34</v>
+        <v>102.84</v>
       </c>
       <c r="DE49" t="n" s="10">
-        <v>103.27</v>
+        <v>102.97</v>
       </c>
       <c r="DF49" t="n" s="10">
-        <v>103.29</v>
+        <v>102.9</v>
       </c>
       <c r="DG49" t="n" s="10">
-        <v>105.52</v>
+        <v>104.71</v>
       </c>
       <c r="DH49" t="n" s="10">
-        <v>107.89</v>
+        <v>110.23</v>
       </c>
       <c r="DI49" t="n" s="10">
-        <v>108.61</v>
+        <v>107.78</v>
       </c>
       <c r="DJ49" t="n" s="10">
-        <v>109.04</v>
+        <v>108.09</v>
       </c>
       <c r="DK49" t="n" s="10">
-        <v>108.82</v>
+        <v>107.57</v>
       </c>
       <c r="DL49" t="n" s="10">
-        <v>113.05</v>
+        <v>116.79</v>
       </c>
       <c r="DM49" t="n" s="10">
-        <v>111.16</v>
+        <v>110.14</v>
       </c>
       <c r="DN49" t="n" s="10">
-        <v>110.64</v>
+        <v>109.83</v>
       </c>
       <c r="DO49" t="n" s="10">
-        <v>110.34</v>
+        <v>108.13</v>
       </c>
       <c r="DP49" t="n" s="10">
-        <v>113.84</v>
+        <v>118.53</v>
       </c>
       <c r="DQ49" t="n" s="10">
-        <v>108.7</v>
+        <v>107.33</v>
       </c>
       <c r="DR49" t="n" s="10">
-        <v>108.93</v>
+        <v>109.56</v>
       </c>
       <c r="DS49" t="n" s="10">
-        <v>107.59</v>
+        <v>104.53</v>
       </c>
       <c r="DT49" t="n" s="10">
-        <v>120.13</v>
+        <v>125.95</v>
       </c>
       <c r="DU49" t="n" s="10">
-        <v>118.6</v>
-      </c>
-      <c r="DV49" t="s" s="10">
-        <v>43</v>
+        <v>117.71</v>
+      </c>
+      <c r="DV49" t="n" s="10">
+        <v>127.83</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="9">
+        <v>53</v>
+      </c>
+      <c r="B50" t="s" s="13">
         <v>54</v>
       </c>
-      <c r="B50" t="s" s="13">
-        <v>55</v>
-      </c>
       <c r="C50" t="n" s="10">
-        <v>78.51</v>
+        <v>78.52</v>
       </c>
       <c r="D50" t="n" s="10">
         <v>80.35</v>
       </c>
       <c r="E50" t="n" s="10">
-        <v>80.83</v>
+        <v>80.82</v>
       </c>
       <c r="F50" t="n" s="10">
         <v>80.94</v>
@@ -18751,7 +18748,7 @@
         <v>84.34</v>
       </c>
       <c r="J50" t="n" s="10">
-        <v>85.28</v>
+        <v>85.29</v>
       </c>
       <c r="K50" t="n" s="10">
         <v>85.29</v>
@@ -18778,28 +18775,28 @@
         <v>87.59</v>
       </c>
       <c r="S50" t="n" s="10">
-        <v>88.31</v>
+        <v>88.3</v>
       </c>
       <c r="T50" t="n" s="10">
         <v>88.32</v>
       </c>
       <c r="U50" t="n" s="10">
-        <v>88.1</v>
+        <v>88.11</v>
       </c>
       <c r="V50" t="n" s="10">
         <v>88.28</v>
       </c>
       <c r="W50" t="n" s="10">
-        <v>88.36</v>
+        <v>88.35</v>
       </c>
       <c r="X50" t="n" s="10">
-        <v>87.59</v>
+        <v>87.6</v>
       </c>
       <c r="Y50" t="n" s="10">
         <v>87.97</v>
       </c>
       <c r="Z50" t="n" s="10">
-        <v>87.61</v>
+        <v>87.62</v>
       </c>
       <c r="AA50" t="n" s="10">
         <v>86.83</v>
@@ -18814,7 +18811,7 @@
         <v>87.34</v>
       </c>
       <c r="AE50" t="n" s="10">
-        <v>87.84</v>
+        <v>87.83</v>
       </c>
       <c r="AF50" t="n" s="10">
         <v>87.04</v>
@@ -18823,7 +18820,7 @@
         <v>87.55</v>
       </c>
       <c r="AH50" t="n" s="10">
-        <v>87.56</v>
+        <v>87.57</v>
       </c>
       <c r="AI50" t="n" s="10">
         <v>86.69</v>
@@ -18847,7 +18844,7 @@
         <v>86.96</v>
       </c>
       <c r="AP50" t="n" s="10">
-        <v>86.79</v>
+        <v>86.8</v>
       </c>
       <c r="AQ50" t="n" s="10">
         <v>87.13</v>
@@ -18886,76 +18883,76 @@
         <v>85.27</v>
       </c>
       <c r="BC50" t="n" s="10">
-        <v>86.64</v>
+        <v>86.65</v>
       </c>
       <c r="BD50" t="n" s="10">
         <v>86.25</v>
       </c>
       <c r="BE50" t="n" s="10">
+        <v>86.6</v>
+      </c>
+      <c r="BF50" t="n" s="10">
+        <v>87.7</v>
+      </c>
+      <c r="BG50" t="n" s="10">
+        <v>86.34</v>
+      </c>
+      <c r="BH50" t="n" s="10">
+        <v>87.54</v>
+      </c>
+      <c r="BI50" t="n" s="10">
+        <v>86.6</v>
+      </c>
+      <c r="BJ50" t="n" s="10">
+        <v>86.31</v>
+      </c>
+      <c r="BK50" t="n" s="10">
+        <v>88.14</v>
+      </c>
+      <c r="BL50" t="n" s="10">
+        <v>85.82</v>
+      </c>
+      <c r="BM50" t="n" s="10">
         <v>86.63</v>
       </c>
-      <c r="BF50" t="n" s="10">
-        <v>87.78</v>
-      </c>
-      <c r="BG50" t="n" s="10">
-        <v>86.14</v>
-      </c>
-      <c r="BH50" t="n" s="10">
-        <v>87.6</v>
-      </c>
-      <c r="BI50" t="n" s="10">
-        <v>86.7</v>
-      </c>
-      <c r="BJ50" t="n" s="10">
-        <v>86.43</v>
-      </c>
-      <c r="BK50" t="n" s="10">
-        <v>87.79</v>
-      </c>
-      <c r="BL50" t="n" s="10">
-        <v>85.93</v>
-      </c>
-      <c r="BM50" t="n" s="10">
-        <v>86.71</v>
-      </c>
       <c r="BN50" t="n" s="10">
-        <v>87.12</v>
+        <v>87.08</v>
       </c>
       <c r="BO50" t="n" s="10">
-        <v>88.87</v>
+        <v>89.05</v>
       </c>
       <c r="BP50" t="n" s="10">
-        <v>88.18</v>
+        <v>88.12</v>
       </c>
       <c r="BQ50" t="n" s="10">
-        <v>88.62</v>
+        <v>88.61</v>
       </c>
       <c r="BR50" t="n" s="10">
         <v>89.06</v>
       </c>
       <c r="BS50" t="n" s="10">
-        <v>89.09</v>
+        <v>89.12</v>
       </c>
       <c r="BT50" t="n" s="10">
-        <v>91.25</v>
+        <v>91.24</v>
       </c>
       <c r="BU50" t="n" s="10">
-        <v>90.94</v>
+        <v>90.93</v>
       </c>
       <c r="BV50" t="n" s="10">
         <v>90.4</v>
       </c>
       <c r="BW50" t="n" s="10">
-        <v>90.39</v>
+        <v>90.41</v>
       </c>
       <c r="BX50" t="n" s="10">
         <v>90.17</v>
       </c>
       <c r="BY50" t="n" s="10">
-        <v>91.44</v>
+        <v>91.43</v>
       </c>
       <c r="BZ50" t="n" s="10">
-        <v>92.38</v>
+        <v>92.37</v>
       </c>
       <c r="CA50" t="n" s="10">
         <v>90.3</v>
@@ -18967,7 +18964,7 @@
         <v>92.79</v>
       </c>
       <c r="CD50" t="n" s="10">
-        <v>93.51</v>
+        <v>93.5</v>
       </c>
       <c r="CE50" t="n" s="10">
         <v>92.72</v>
@@ -18988,13 +18985,13 @@
         <v>94.97</v>
       </c>
       <c r="CK50" t="n" s="10">
-        <v>95.09</v>
+        <v>95.1</v>
       </c>
       <c r="CL50" t="n" s="10">
         <v>95.46</v>
       </c>
       <c r="CM50" t="n" s="10">
-        <v>95.17</v>
+        <v>95.18</v>
       </c>
       <c r="CN50" t="n" s="10">
         <v>96.8</v>
@@ -19015,7 +19012,7 @@
         <v>98.47</v>
       </c>
       <c r="CT50" t="n" s="10">
-        <v>98.44</v>
+        <v>98.45</v>
       </c>
       <c r="CU50" t="n" s="10">
         <v>99.59</v>
@@ -19027,13 +19024,13 @@
         <v>100.2</v>
       </c>
       <c r="CX50" t="n" s="10">
-        <v>101.21</v>
+        <v>101.2</v>
       </c>
       <c r="CY50" t="n" s="10">
         <v>100.03</v>
       </c>
       <c r="CZ50" t="n" s="10">
-        <v>102.25</v>
+        <v>102.24</v>
       </c>
       <c r="DA50" t="n" s="10">
         <v>101.7</v>
@@ -19057,192 +19054,192 @@
         <v>104.37</v>
       </c>
       <c r="DH50" t="n" s="10">
-        <v>105.87</v>
+        <v>105.9</v>
       </c>
       <c r="DI50" t="n" s="10">
-        <v>106.2</v>
+        <v>106.25</v>
       </c>
       <c r="DJ50" t="n" s="10">
-        <v>107.28</v>
+        <v>107.16</v>
       </c>
       <c r="DK50" t="n" s="10">
-        <v>107.56</v>
+        <v>107.64</v>
       </c>
       <c r="DL50" t="n" s="10">
-        <v>108.42</v>
+        <v>108.45</v>
       </c>
       <c r="DM50" t="n" s="10">
-        <v>109.79</v>
+        <v>109.8</v>
       </c>
       <c r="DN50" t="n" s="10">
-        <v>109.86</v>
+        <v>109.66</v>
       </c>
       <c r="DO50" t="n" s="10">
-        <v>110.49</v>
+        <v>110.93</v>
       </c>
       <c r="DP50" t="n" s="10">
-        <v>110.86</v>
+        <v>110.87</v>
       </c>
       <c r="DQ50" t="n" s="10">
-        <v>110.82</v>
+        <v>110.5</v>
       </c>
       <c r="DR50" t="n" s="10">
-        <v>111.99</v>
+        <v>111.73</v>
       </c>
       <c r="DS50" t="n" s="10">
-        <v>111.22</v>
+        <v>111.95</v>
       </c>
       <c r="DT50" t="n" s="10">
         <v>115.39</v>
       </c>
       <c r="DU50" t="n" s="10">
-        <v>118.9</v>
-      </c>
-      <c r="DV50" t="s" s="10">
-        <v>43</v>
+        <v>118.42</v>
+      </c>
+      <c r="DV50" t="n" s="10">
+        <v>121.38</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="9">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s" s="13">
         <v>56</v>
       </c>
-      <c r="B51" t="s" s="13">
-        <v>57</v>
-      </c>
       <c r="C51" t="n" s="10">
-        <v>105.76</v>
+        <v>105.71</v>
       </c>
       <c r="D51" t="n" s="10">
-        <v>108.05</v>
+        <v>108.06</v>
       </c>
       <c r="E51" t="n" s="10">
-        <v>108.17</v>
+        <v>108.15</v>
       </c>
       <c r="F51" t="n" s="10">
-        <v>107.3</v>
+        <v>107.26</v>
       </c>
       <c r="G51" t="n" s="10">
-        <v>109.46</v>
+        <v>109.47</v>
       </c>
       <c r="H51" t="n" s="10">
-        <v>108.85</v>
+        <v>108.82</v>
       </c>
       <c r="I51" t="n" s="10">
         <v>109.9</v>
       </c>
       <c r="J51" t="n" s="10">
-        <v>110.89</v>
+        <v>110.9</v>
       </c>
       <c r="K51" t="n" s="10">
-        <v>110.34</v>
+        <v>110.32</v>
       </c>
       <c r="L51" t="n" s="10">
-        <v>111.57</v>
+        <v>111.59</v>
       </c>
       <c r="M51" t="n" s="10">
         <v>111.72</v>
       </c>
       <c r="N51" t="n" s="10">
-        <v>113.1</v>
+        <v>113.16</v>
       </c>
       <c r="O51" t="n" s="10">
         <v>111.7</v>
       </c>
       <c r="P51" t="n" s="10">
-        <v>111.77</v>
+        <v>111.79</v>
       </c>
       <c r="Q51" t="n" s="10">
-        <v>111.36</v>
+        <v>111.38</v>
       </c>
       <c r="R51" t="n" s="10">
         <v>110.19</v>
       </c>
       <c r="S51" t="n" s="10">
-        <v>111.28</v>
+        <v>111.3</v>
       </c>
       <c r="T51" t="n" s="10">
-        <v>109.95</v>
+        <v>109.93</v>
       </c>
       <c r="U51" t="n" s="10">
-        <v>109.46</v>
+        <v>109.44</v>
       </c>
       <c r="V51" t="n" s="10">
         <v>109.48</v>
       </c>
       <c r="W51" t="n" s="10">
-        <v>110.14</v>
+        <v>110.16</v>
       </c>
       <c r="X51" t="n" s="10">
-        <v>108.7</v>
+        <v>108.69</v>
       </c>
       <c r="Y51" t="n" s="10">
         <v>109.2</v>
       </c>
       <c r="Z51" t="n" s="10">
-        <v>108.68</v>
+        <v>108.66</v>
       </c>
       <c r="AA51" t="n" s="10">
-        <v>107.18</v>
+        <v>107.11</v>
       </c>
       <c r="AB51" t="n" s="10">
-        <v>109.74</v>
+        <v>109.77</v>
       </c>
       <c r="AC51" t="n" s="10">
         <v>108.54</v>
       </c>
       <c r="AD51" t="n" s="10">
-        <v>107.86</v>
+        <v>107.82</v>
       </c>
       <c r="AE51" t="n" s="10">
         <v>108.32</v>
       </c>
       <c r="AF51" t="n" s="10">
-        <v>106.75</v>
+        <v>106.72</v>
       </c>
       <c r="AG51" t="n" s="10">
         <v>107.08</v>
       </c>
       <c r="AH51" t="n" s="10">
-        <v>106.83</v>
+        <v>106.86</v>
       </c>
       <c r="AI51" t="n" s="10">
         <v>105.43</v>
       </c>
       <c r="AJ51" t="n" s="10">
-        <v>105.79</v>
+        <v>105.81</v>
       </c>
       <c r="AK51" t="n" s="10">
-        <v>105.43</v>
+        <v>105.44</v>
       </c>
       <c r="AL51" t="n" s="10">
-        <v>105.98</v>
+        <v>106.03</v>
       </c>
       <c r="AM51" t="n" s="10">
-        <v>106.18</v>
+        <v>106.22</v>
       </c>
       <c r="AN51" t="n" s="10">
         <v>105.58</v>
       </c>
       <c r="AO51" t="n" s="10">
-        <v>105.19</v>
+        <v>105.18</v>
       </c>
       <c r="AP51" t="n" s="10">
-        <v>105.17</v>
+        <v>105.14</v>
       </c>
       <c r="AQ51" t="n" s="10">
-        <v>104.87</v>
+        <v>104.88</v>
       </c>
       <c r="AR51" t="n" s="10">
-        <v>103.93</v>
+        <v>103.9</v>
       </c>
       <c r="AS51" t="n" s="10">
-        <v>103.73</v>
+        <v>103.72</v>
       </c>
       <c r="AT51" t="n" s="10">
-        <v>102.97</v>
+        <v>102.96</v>
       </c>
       <c r="AU51" t="n" s="10">
-        <v>102.81</v>
+        <v>102.77</v>
       </c>
       <c r="AV51" t="n" s="10">
         <v>103.58</v>
@@ -19251,333 +19248,333 @@
         <v>102.26</v>
       </c>
       <c r="AX51" t="n" s="10">
-        <v>101.68</v>
+        <v>101.67</v>
       </c>
       <c r="AY51" t="n" s="10">
-        <v>100.64</v>
+        <v>100.63</v>
       </c>
       <c r="AZ51" t="n" s="10">
-        <v>99.7</v>
+        <v>99.68</v>
       </c>
       <c r="BA51" t="n" s="10">
         <v>100.4</v>
       </c>
       <c r="BB51" t="n" s="10">
-        <v>99.44</v>
+        <v>99.43</v>
       </c>
       <c r="BC51" t="n" s="10">
-        <v>100.82</v>
+        <v>100.85</v>
       </c>
       <c r="BD51" t="n" s="10">
         <v>99.84</v>
       </c>
       <c r="BE51" t="n" s="10">
-        <v>99.93</v>
+        <v>99.95</v>
       </c>
       <c r="BF51" t="n" s="10">
-        <v>101.13</v>
+        <v>101.19</v>
       </c>
       <c r="BG51" t="n" s="10">
-        <v>98.59</v>
+        <v>98.56</v>
       </c>
       <c r="BH51" t="n" s="10">
-        <v>100.41</v>
+        <v>100.46</v>
       </c>
       <c r="BI51" t="n" s="10">
-        <v>99.23</v>
+        <v>99.24</v>
       </c>
       <c r="BJ51" t="n" s="10">
-        <v>98.7</v>
+        <v>98.72</v>
       </c>
       <c r="BK51" t="n" s="10">
-        <v>99.19</v>
+        <v>99.21</v>
       </c>
       <c r="BL51" t="n" s="10">
-        <v>97.3</v>
+        <v>97.29</v>
       </c>
       <c r="BM51" t="n" s="10">
-        <v>97.37</v>
+        <v>97.36</v>
       </c>
       <c r="BN51" t="n" s="10">
-        <v>96.94</v>
+        <v>96.93</v>
       </c>
       <c r="BO51" t="n" s="10">
-        <v>97.63</v>
+        <v>97.64</v>
       </c>
       <c r="BP51" t="n" s="10">
-        <v>96.66</v>
+        <v>96.64</v>
       </c>
       <c r="BQ51" t="n" s="10">
-        <v>96.68</v>
+        <v>96.67</v>
       </c>
       <c r="BR51" t="n" s="10">
-        <v>96.64</v>
+        <v>96.62</v>
       </c>
       <c r="BS51" t="n" s="10">
-        <v>96.55</v>
+        <v>96.54</v>
       </c>
       <c r="BT51" t="n" s="10">
-        <v>97.77</v>
+        <v>97.8</v>
       </c>
       <c r="BU51" t="n" s="10">
-        <v>96.78</v>
+        <v>96.79</v>
       </c>
       <c r="BV51" t="n" s="10">
-        <v>96.01</v>
+        <v>95.99</v>
       </c>
       <c r="BW51" t="n" s="10">
-        <v>97.72</v>
+        <v>97.75</v>
       </c>
       <c r="BX51" t="n" s="10">
-        <v>95.66</v>
+        <v>95.64</v>
       </c>
       <c r="BY51" t="n" s="10">
         <v>97.13</v>
       </c>
       <c r="BZ51" t="n" s="10">
-        <v>97.83</v>
+        <v>97.84</v>
       </c>
       <c r="CA51" t="n" s="10">
-        <v>98.04</v>
+        <v>98.05</v>
       </c>
       <c r="CB51" t="n" s="10">
+        <v>97.94</v>
+      </c>
+      <c r="CC51" t="n" s="10">
+        <v>97.71</v>
+      </c>
+      <c r="CD51" t="n" s="10">
+        <v>98.01</v>
+      </c>
+      <c r="CE51" t="n" s="10">
+        <v>97.72</v>
+      </c>
+      <c r="CF51" t="n" s="10">
+        <v>97.92</v>
+      </c>
+      <c r="CG51" t="n" s="10">
         <v>97.93</v>
-      </c>
-      <c r="CC51" t="n" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="CD51" t="n" s="10">
-        <v>97.98</v>
-      </c>
-      <c r="CE51" t="n" s="10">
-        <v>97.71</v>
-      </c>
-      <c r="CF51" t="n" s="10">
-        <v>97.9</v>
-      </c>
-      <c r="CG51" t="n" s="10">
-        <v>97.92</v>
       </c>
       <c r="CH51" t="n" s="10">
         <v>97.66</v>
       </c>
       <c r="CI51" t="n" s="10">
-        <v>98.77</v>
+        <v>98.8</v>
       </c>
       <c r="CJ51" t="n" s="10">
-        <v>97.68</v>
+        <v>97.67</v>
       </c>
       <c r="CK51" t="n" s="10">
-        <v>97.83</v>
+        <v>97.81</v>
       </c>
       <c r="CL51" t="n" s="10">
-        <v>98.0</v>
+        <v>97.99</v>
       </c>
       <c r="CM51" t="n" s="10">
-        <v>97.3</v>
+        <v>97.27</v>
       </c>
       <c r="CN51" t="n" s="10">
-        <v>98.57</v>
+        <v>98.58</v>
       </c>
       <c r="CO51" t="n" s="10">
         <v>98.38</v>
       </c>
       <c r="CP51" t="n" s="10">
-        <v>98.34</v>
+        <v>98.33</v>
       </c>
       <c r="CQ51" t="n" s="10">
         <v>98.69</v>
       </c>
       <c r="CR51" t="n" s="10">
-        <v>98.51</v>
+        <v>98.49</v>
       </c>
       <c r="CS51" t="n" s="10">
-        <v>98.98</v>
+        <v>98.97</v>
       </c>
       <c r="CT51" t="n" s="10">
-        <v>98.82</v>
+        <v>98.8</v>
       </c>
       <c r="CU51" t="n" s="10">
         <v>99.78</v>
       </c>
       <c r="CV51" t="n" s="10">
-        <v>99.4</v>
+        <v>99.39</v>
       </c>
       <c r="CW51" t="n" s="10">
         <v>100.26</v>
       </c>
       <c r="CX51" t="n" s="10">
-        <v>101.04</v>
+        <v>101.06</v>
       </c>
       <c r="CY51" t="n" s="10">
-        <v>99.81</v>
+        <v>99.8</v>
       </c>
       <c r="CZ51" t="n" s="10">
-        <v>101.64</v>
+        <v>101.68</v>
       </c>
       <c r="DA51" t="n" s="10">
-        <v>100.9</v>
+        <v>100.91</v>
       </c>
       <c r="DB51" t="n" s="10">
-        <v>100.85</v>
+        <v>100.86</v>
       </c>
       <c r="DC51" t="n" s="10">
-        <v>101.83</v>
+        <v>101.86</v>
       </c>
       <c r="DD51" t="n" s="10">
-        <v>100.3</v>
+        <v>100.28</v>
       </c>
       <c r="DE51" t="n" s="10">
-        <v>100.76</v>
+        <v>100.74</v>
       </c>
       <c r="DF51" t="n" s="10">
-        <v>100.62</v>
+        <v>100.57</v>
       </c>
       <c r="DG51" t="n" s="10">
-        <v>100.73</v>
+        <v>100.71</v>
       </c>
       <c r="DH51" t="n" s="10">
-        <v>101.54</v>
+        <v>101.59</v>
       </c>
       <c r="DI51" t="n" s="10">
-        <v>101.28</v>
+        <v>101.36</v>
       </c>
       <c r="DJ51" t="n" s="10">
-        <v>101.87</v>
+        <v>101.6</v>
       </c>
       <c r="DK51" t="n" s="10">
-        <v>102.01</v>
+        <v>102.08</v>
       </c>
       <c r="DL51" t="n" s="10">
-        <v>102.37</v>
+        <v>102.46</v>
       </c>
       <c r="DM51" t="n" s="10">
-        <v>103.42</v>
+        <v>103.6</v>
       </c>
       <c r="DN51" t="n" s="10">
-        <v>103.34</v>
+        <v>102.85</v>
       </c>
       <c r="DO51" t="n" s="10">
-        <v>104.34</v>
+        <v>104.54</v>
       </c>
       <c r="DP51" t="n" s="10">
-        <v>103.65</v>
+        <v>103.77</v>
       </c>
       <c r="DQ51" t="n" s="10">
-        <v>104.74</v>
+        <v>105.01</v>
       </c>
       <c r="DR51" t="n" s="10">
-        <v>105.75</v>
+        <v>105.18</v>
       </c>
       <c r="DS51" t="n" s="10">
-        <v>105.12</v>
+        <v>105.29</v>
       </c>
       <c r="DT51" t="n" s="10">
-        <v>106.02</v>
+        <v>106.13</v>
       </c>
       <c r="DU51" t="n" s="10">
-        <v>106.6</v>
-      </c>
-      <c r="DV51" t="s" s="10">
-        <v>43</v>
+        <v>106.89</v>
+      </c>
+      <c r="DV51" t="n" s="10">
+        <v>108.48</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="9">
+        <v>57</v>
+      </c>
+      <c r="B52" t="s" s="13">
         <v>58</v>
       </c>
-      <c r="B52" t="s" s="13">
-        <v>59</v>
-      </c>
       <c r="C52" t="n" s="10">
-        <v>63.68</v>
+        <v>63.71</v>
       </c>
       <c r="D52" t="n" s="10">
-        <v>65.62</v>
+        <v>65.61</v>
       </c>
       <c r="E52" t="n" s="10">
         <v>66.34</v>
       </c>
       <c r="F52" t="n" s="10">
-        <v>66.99</v>
+        <v>67.01</v>
       </c>
       <c r="G52" t="n" s="10">
         <v>69.18</v>
       </c>
       <c r="H52" t="n" s="10">
-        <v>69.3</v>
+        <v>69.31</v>
       </c>
       <c r="I52" t="n" s="10">
         <v>70.72</v>
       </c>
       <c r="J52" t="n" s="10">
-        <v>71.59</v>
+        <v>71.58</v>
       </c>
       <c r="K52" t="n" s="10">
-        <v>71.86</v>
+        <v>71.87</v>
       </c>
       <c r="L52" t="n" s="10">
-        <v>73.11</v>
+        <v>73.1</v>
       </c>
       <c r="M52" t="n" s="10">
-        <v>73.41</v>
+        <v>73.4</v>
       </c>
       <c r="N52" t="n" s="10">
-        <v>74.42</v>
+        <v>74.41</v>
       </c>
       <c r="O52" t="n" s="10">
-        <v>73.77</v>
+        <v>73.76</v>
       </c>
       <c r="P52" t="n" s="10">
         <v>74.47</v>
       </c>
       <c r="Q52" t="n" s="10">
-        <v>74.87</v>
+        <v>74.86</v>
       </c>
       <c r="R52" t="n" s="10">
         <v>74.85</v>
       </c>
       <c r="S52" t="n" s="10">
-        <v>75.49</v>
+        <v>75.48</v>
       </c>
       <c r="T52" t="n" s="10">
-        <v>75.9</v>
+        <v>75.91</v>
       </c>
       <c r="U52" t="n" s="10">
-        <v>75.72</v>
+        <v>75.74</v>
       </c>
       <c r="V52" t="n" s="10">
-        <v>75.95</v>
+        <v>75.96</v>
       </c>
       <c r="W52" t="n" s="10">
-        <v>75.74</v>
+        <v>75.73</v>
       </c>
       <c r="X52" t="n" s="10">
-        <v>75.1</v>
+        <v>75.12</v>
       </c>
       <c r="Y52" t="n" s="10">
         <v>75.4</v>
       </c>
       <c r="Z52" t="n" s="10">
-        <v>75.04</v>
+        <v>75.05</v>
       </c>
       <c r="AA52" t="n" s="10">
-        <v>74.41</v>
+        <v>74.44</v>
       </c>
       <c r="AB52" t="n" s="10">
-        <v>76.04</v>
+        <v>76.03</v>
       </c>
       <c r="AC52" t="n" s="10">
         <v>75.34</v>
       </c>
       <c r="AD52" t="n" s="10">
-        <v>74.86</v>
+        <v>74.88</v>
       </c>
       <c r="AE52" t="n" s="10">
-        <v>75.46</v>
+        <v>75.45</v>
       </c>
       <c r="AF52" t="n" s="10">
-        <v>74.88</v>
+        <v>74.89</v>
       </c>
       <c r="AG52" t="n" s="10">
         <v>75.54</v>
@@ -19586,43 +19583,43 @@
         <v>75.68</v>
       </c>
       <c r="AI52" t="n" s="10">
-        <v>74.86</v>
+        <v>74.87</v>
       </c>
       <c r="AJ52" t="n" s="10">
-        <v>75.28</v>
+        <v>75.26</v>
       </c>
       <c r="AK52" t="n" s="10">
-        <v>75.27</v>
+        <v>75.26</v>
       </c>
       <c r="AL52" t="n" s="10">
-        <v>76.05</v>
+        <v>76.02</v>
       </c>
       <c r="AM52" t="n" s="10">
-        <v>75.97</v>
+        <v>75.95</v>
       </c>
       <c r="AN52" t="n" s="10">
         <v>75.23</v>
       </c>
       <c r="AO52" t="n" s="10">
-        <v>75.09</v>
+        <v>75.1</v>
       </c>
       <c r="AP52" t="n" s="10">
-        <v>74.76</v>
+        <v>74.78</v>
       </c>
       <c r="AQ52" t="n" s="10">
         <v>75.49</v>
       </c>
       <c r="AR52" t="n" s="10">
-        <v>74.97</v>
+        <v>74.99</v>
       </c>
       <c r="AS52" t="n" s="10">
-        <v>74.72</v>
+        <v>74.74</v>
       </c>
       <c r="AT52" t="n" s="10">
-        <v>74.68</v>
+        <v>74.69</v>
       </c>
       <c r="AU52" t="n" s="10">
-        <v>74.09</v>
+        <v>74.11</v>
       </c>
       <c r="AV52" t="n" s="10">
         <v>75.15</v>
@@ -19637,237 +19634,237 @@
         <v>74.89</v>
       </c>
       <c r="AZ52" t="n" s="10">
-        <v>74.4</v>
+        <v>74.42</v>
       </c>
       <c r="BA52" t="n" s="10">
-        <v>74.95</v>
+        <v>74.94</v>
       </c>
       <c r="BB52" t="n" s="10">
-        <v>74.57</v>
+        <v>74.59</v>
       </c>
       <c r="BC52" t="n" s="10">
-        <v>76.27</v>
+        <v>76.26</v>
       </c>
       <c r="BD52" t="n" s="10">
         <v>76.06</v>
       </c>
       <c r="BE52" t="n" s="10">
-        <v>76.69</v>
+        <v>76.62</v>
       </c>
       <c r="BF52" t="n" s="10">
-        <v>78.09</v>
+        <v>77.92</v>
       </c>
       <c r="BG52" t="n" s="10">
-        <v>76.53</v>
+        <v>76.94</v>
       </c>
       <c r="BH52" t="n" s="10">
-        <v>78.17</v>
+        <v>78.01</v>
       </c>
       <c r="BI52" t="n" s="10">
-        <v>77.14</v>
+        <v>76.95</v>
       </c>
       <c r="BJ52" t="n" s="10">
-        <v>76.96</v>
+        <v>76.72</v>
       </c>
       <c r="BK52" t="n" s="10">
-        <v>79.32</v>
+        <v>80.0</v>
       </c>
       <c r="BL52" t="n" s="10">
-        <v>76.84</v>
+        <v>76.61</v>
       </c>
       <c r="BM52" t="n" s="10">
-        <v>78.26</v>
+        <v>78.1</v>
       </c>
       <c r="BN52" t="n" s="10">
-        <v>79.36</v>
+        <v>79.25</v>
       </c>
       <c r="BO52" t="n" s="10">
-        <v>82.37</v>
+        <v>82.72</v>
       </c>
       <c r="BP52" t="n" s="10">
-        <v>81.71</v>
+        <v>81.61</v>
       </c>
       <c r="BQ52" t="n" s="10">
-        <v>82.59</v>
+        <v>82.54</v>
       </c>
       <c r="BR52" t="n" s="10">
-        <v>83.57</v>
+        <v>83.58</v>
       </c>
       <c r="BS52" t="n" s="10">
-        <v>83.39</v>
+        <v>83.45</v>
       </c>
       <c r="BT52" t="n" s="10">
-        <v>86.96</v>
+        <v>86.91</v>
       </c>
       <c r="BU52" t="n" s="10">
         <v>87.02</v>
       </c>
       <c r="BV52" t="n" s="10">
-        <v>86.38</v>
+        <v>86.4</v>
       </c>
       <c r="BW52" t="n" s="10">
         <v>85.42</v>
       </c>
       <c r="BX52" t="n" s="10">
-        <v>86.24</v>
+        <v>86.26</v>
       </c>
       <c r="BY52" t="n" s="10">
-        <v>87.76</v>
+        <v>87.75</v>
       </c>
       <c r="BZ52" t="n" s="10">
-        <v>89.1</v>
+        <v>89.09</v>
       </c>
       <c r="CA52" t="n" s="10">
         <v>84.69</v>
       </c>
       <c r="CB52" t="n" s="10">
-        <v>89.54</v>
+        <v>89.53</v>
       </c>
       <c r="CC52" t="n" s="10">
-        <v>89.68</v>
+        <v>89.66</v>
       </c>
       <c r="CD52" t="n" s="10">
-        <v>90.86</v>
+        <v>90.83</v>
       </c>
       <c r="CE52" t="n" s="10">
-        <v>89.09</v>
+        <v>89.08</v>
       </c>
       <c r="CF52" t="n" s="10">
-        <v>91.74</v>
+        <v>91.72</v>
       </c>
       <c r="CG52" t="n" s="10">
-        <v>91.99</v>
+        <v>91.97</v>
       </c>
       <c r="CH52" t="n" s="10">
         <v>91.92</v>
       </c>
       <c r="CI52" t="n" s="10">
-        <v>93.83</v>
+        <v>93.8</v>
       </c>
       <c r="CJ52" t="n" s="10">
-        <v>92.9</v>
+        <v>92.91</v>
       </c>
       <c r="CK52" t="n" s="10">
-        <v>92.89</v>
+        <v>92.91</v>
       </c>
       <c r="CL52" t="n" s="10">
-        <v>93.41</v>
+        <v>93.42</v>
       </c>
       <c r="CM52" t="n" s="10">
-        <v>93.31</v>
+        <v>93.35</v>
       </c>
       <c r="CN52" t="n" s="10">
-        <v>95.59</v>
+        <v>95.58</v>
       </c>
       <c r="CO52" t="n" s="10">
         <v>96.4</v>
       </c>
       <c r="CP52" t="n" s="10">
-        <v>96.68</v>
+        <v>96.69</v>
       </c>
       <c r="CQ52" t="n" s="10">
         <v>97.26</v>
       </c>
       <c r="CR52" t="n" s="10">
-        <v>97.42</v>
+        <v>97.44</v>
       </c>
       <c r="CS52" t="n" s="10">
         <v>98.04</v>
       </c>
       <c r="CT52" t="n" s="10">
-        <v>97.98</v>
+        <v>98.0</v>
       </c>
       <c r="CU52" t="n" s="10">
         <v>99.49</v>
       </c>
       <c r="CV52" t="n" s="10">
-        <v>98.84</v>
+        <v>98.86</v>
       </c>
       <c r="CW52" t="n" s="10">
         <v>100.16</v>
       </c>
       <c r="CX52" t="n" s="10">
-        <v>101.6</v>
+        <v>101.58</v>
       </c>
       <c r="CY52" t="n" s="10">
-        <v>100.05</v>
+        <v>100.07</v>
       </c>
       <c r="CZ52" t="n" s="10">
-        <v>103.23</v>
+        <v>103.18</v>
       </c>
       <c r="DA52" t="n" s="10">
-        <v>102.46</v>
+        <v>102.45</v>
       </c>
       <c r="DB52" t="n" s="10">
-        <v>103.23</v>
+        <v>103.22</v>
       </c>
       <c r="DC52" t="n" s="10">
-        <v>105.3</v>
+        <v>105.26</v>
       </c>
       <c r="DD52" t="n" s="10">
-        <v>103.6</v>
+        <v>103.63</v>
       </c>
       <c r="DE52" t="n" s="10">
-        <v>105.01</v>
+        <v>105.02</v>
       </c>
       <c r="DF52" t="n" s="10">
-        <v>105.58</v>
+        <v>105.61</v>
       </c>
       <c r="DG52" t="n" s="10">
-        <v>107.13</v>
+        <v>107.15</v>
       </c>
       <c r="DH52" t="n" s="10">
         <v>109.52</v>
       </c>
       <c r="DI52" t="n" s="10">
-        <v>110.23</v>
+        <v>110.25</v>
       </c>
       <c r="DJ52" t="n" s="10">
-        <v>111.9</v>
+        <v>111.94</v>
       </c>
       <c r="DK52" t="n" s="10">
-        <v>112.39</v>
+        <v>112.45</v>
       </c>
       <c r="DL52" t="n" s="10">
-        <v>113.83</v>
+        <v>113.78</v>
       </c>
       <c r="DM52" t="n" s="10">
-        <v>115.93</v>
+        <v>115.75</v>
       </c>
       <c r="DN52" t="n" s="10">
-        <v>115.57</v>
+        <v>115.66</v>
       </c>
       <c r="DO52" t="n" s="10">
-        <v>116.73</v>
+        <v>117.46</v>
       </c>
       <c r="DP52" t="n" s="10">
-        <v>117.8</v>
+        <v>117.69</v>
       </c>
       <c r="DQ52" t="n" s="10">
-        <v>117.0</v>
+        <v>116.13</v>
       </c>
       <c r="DR52" t="n" s="10">
-        <v>118.2</v>
+        <v>118.11</v>
       </c>
       <c r="DS52" t="n" s="10">
-        <v>117.29</v>
+        <v>118.67</v>
       </c>
       <c r="DT52" t="n" s="10">
-        <v>125.17</v>
+        <v>125.1</v>
       </c>
       <c r="DU52" t="n" s="10">
-        <v>131.83</v>
-      </c>
-      <c r="DV52" t="s" s="10">
-        <v>43</v>
+        <v>130.69</v>
+      </c>
+      <c r="DV52" t="n" s="10">
+        <v>135.31</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="9">
+        <v>59</v>
+      </c>
+      <c r="B53" t="s" s="13">
         <v>60</v>
-      </c>
-      <c r="B53" t="s" s="13">
-        <v>61</v>
       </c>
       <c r="C53" t="n" s="10">
         <v>76.38</v>
@@ -20173,482 +20170,482 @@
         <v>100.37</v>
       </c>
       <c r="CZ53" t="n" s="10">
-        <v>100.75</v>
+        <v>100.74</v>
       </c>
       <c r="DA53" t="n" s="10">
-        <v>101.14</v>
+        <v>101.12</v>
       </c>
       <c r="DB53" t="n" s="10">
-        <v>101.37</v>
+        <v>101.39</v>
       </c>
       <c r="DC53" t="n" s="10">
-        <v>101.89</v>
+        <v>101.88</v>
       </c>
       <c r="DD53" t="n" s="10">
-        <v>102.21</v>
+        <v>102.2</v>
       </c>
       <c r="DE53" t="n" s="10">
-        <v>102.67</v>
+        <v>102.65</v>
       </c>
       <c r="DF53" t="n" s="10">
-        <v>102.88</v>
+        <v>102.9</v>
       </c>
       <c r="DG53" t="n" s="10">
-        <v>104.1</v>
+        <v>104.09</v>
       </c>
       <c r="DH53" t="n" s="10">
-        <v>104.57</v>
+        <v>104.61</v>
       </c>
       <c r="DI53" t="n" s="10">
-        <v>104.96</v>
+        <v>105.04</v>
       </c>
       <c r="DJ53" t="n" s="10">
-        <v>105.53</v>
+        <v>105.29</v>
       </c>
       <c r="DK53" t="n" s="10">
-        <v>105.6</v>
+        <v>105.69</v>
       </c>
       <c r="DL53" t="n" s="10">
-        <v>105.92</v>
+        <v>106.03</v>
       </c>
       <c r="DM53" t="n" s="10">
-        <v>106.08</v>
+        <v>106.22</v>
       </c>
       <c r="DN53" t="n" s="10">
-        <v>107.34</v>
+        <v>106.97</v>
       </c>
       <c r="DO53" t="n" s="10">
-        <v>106.04</v>
+        <v>106.14</v>
       </c>
       <c r="DP53" t="n" s="10">
-        <v>106.18</v>
+        <v>106.26</v>
       </c>
       <c r="DQ53" t="n" s="10">
-        <v>106.39</v>
+        <v>106.51</v>
       </c>
       <c r="DR53" t="n" s="10">
-        <v>107.82</v>
+        <v>107.62</v>
       </c>
       <c r="DS53" t="n" s="10">
-        <v>107.14</v>
+        <v>107.16</v>
       </c>
       <c r="DT53" t="n" s="10">
-        <v>107.37</v>
+        <v>107.4</v>
       </c>
       <c r="DU53" t="n" s="10">
-        <v>107.62</v>
-      </c>
-      <c r="DV53" t="s" s="10">
-        <v>43</v>
+        <v>107.78</v>
+      </c>
+      <c r="DV53" t="n" s="10">
+        <v>109.11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="9">
+        <v>61</v>
+      </c>
+      <c r="B54" t="s" s="13">
         <v>62</v>
       </c>
-      <c r="B54" t="s" s="13">
-        <v>63</v>
-      </c>
       <c r="C54" t="n" s="10">
-        <v>90.88</v>
+        <v>91.14</v>
       </c>
       <c r="D54" t="n" s="10">
-        <v>93.58</v>
+        <v>93.59</v>
       </c>
       <c r="E54" t="n" s="10">
-        <v>93.62</v>
+        <v>93.65</v>
       </c>
       <c r="F54" t="n" s="10">
-        <v>93.02</v>
+        <v>93.21</v>
       </c>
       <c r="G54" t="n" s="10">
-        <v>95.72</v>
+        <v>95.67</v>
       </c>
       <c r="H54" t="n" s="10">
-        <v>95.0</v>
+        <v>95.14</v>
       </c>
       <c r="I54" t="n" s="10">
-        <v>96.58</v>
+        <v>96.61</v>
       </c>
       <c r="J54" t="n" s="10">
-        <v>97.65</v>
+        <v>97.56</v>
       </c>
       <c r="K54" t="n" s="10">
-        <v>96.9</v>
+        <v>96.99</v>
       </c>
       <c r="L54" t="n" s="10">
-        <v>98.18</v>
+        <v>98.11</v>
       </c>
       <c r="M54" t="n" s="10">
-        <v>98.22</v>
+        <v>98.16</v>
       </c>
       <c r="N54" t="n" s="10">
-        <v>99.22</v>
+        <v>98.97</v>
       </c>
       <c r="O54" t="n" s="10">
+        <v>98.69</v>
+      </c>
+      <c r="P54" t="n" s="10">
         <v>98.78</v>
       </c>
-      <c r="P54" t="n" s="10">
-        <v>98.84</v>
-      </c>
       <c r="Q54" t="n" s="10">
-        <v>98.96</v>
+        <v>98.87</v>
       </c>
       <c r="R54" t="n" s="10">
-        <v>98.57</v>
+        <v>98.62</v>
       </c>
       <c r="S54" t="n" s="10">
-        <v>99.79</v>
+        <v>99.64</v>
       </c>
       <c r="T54" t="n" s="10">
-        <v>99.87</v>
+        <v>99.9</v>
       </c>
       <c r="U54" t="n" s="10">
-        <v>99.75</v>
+        <v>99.86</v>
       </c>
       <c r="V54" t="n" s="10">
-        <v>100.39</v>
+        <v>100.44</v>
       </c>
       <c r="W54" t="n" s="10">
-        <v>100.67</v>
+        <v>100.65</v>
       </c>
       <c r="X54" t="n" s="10">
-        <v>99.14</v>
+        <v>99.28</v>
       </c>
       <c r="Y54" t="n" s="10">
         <v>99.71</v>
       </c>
       <c r="Z54" t="n" s="10">
-        <v>98.64</v>
+        <v>98.72</v>
       </c>
       <c r="AA54" t="n" s="10">
-        <v>97.28</v>
+        <v>97.54</v>
       </c>
       <c r="AB54" t="n" s="10">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="AC54" t="n" s="10">
-        <v>97.77</v>
+        <v>97.79</v>
       </c>
       <c r="AD54" t="n" s="10">
-        <v>97.63</v>
+        <v>97.72</v>
       </c>
       <c r="AE54" t="n" s="10">
-        <v>98.74</v>
+        <v>98.71</v>
       </c>
       <c r="AF54" t="n" s="10">
-        <v>99.07</v>
+        <v>99.19</v>
       </c>
       <c r="AG54" t="n" s="10">
-        <v>100.81</v>
+        <v>100.78</v>
       </c>
       <c r="AH54" t="n" s="10">
-        <v>102.22</v>
+        <v>102.12</v>
       </c>
       <c r="AI54" t="n" s="10">
-        <v>101.96</v>
+        <v>101.97</v>
       </c>
       <c r="AJ54" t="n" s="10">
-        <v>101.76</v>
+        <v>101.68</v>
       </c>
       <c r="AK54" t="n" s="10">
-        <v>100.91</v>
+        <v>100.87</v>
       </c>
       <c r="AL54" t="n" s="10">
-        <v>100.43</v>
+        <v>100.26</v>
       </c>
       <c r="AM54" t="n" s="10">
-        <v>98.44</v>
+        <v>98.33</v>
       </c>
       <c r="AN54" t="n" s="10">
-        <v>97.12</v>
+        <v>97.15</v>
       </c>
       <c r="AO54" t="n" s="10">
+        <v>96.23</v>
+      </c>
+      <c r="AP54" t="n" s="10">
+        <v>95.14</v>
+      </c>
+      <c r="AQ54" t="n" s="10">
         <v>96.16</v>
       </c>
-      <c r="AP54" t="n" s="10">
-        <v>95.03</v>
-      </c>
-      <c r="AQ54" t="n" s="10">
-        <v>96.18</v>
-      </c>
       <c r="AR54" t="n" s="10">
-        <v>96.09</v>
+        <v>96.12</v>
       </c>
       <c r="AS54" t="n" s="10">
-        <v>96.2</v>
+        <v>96.29</v>
       </c>
       <c r="AT54" t="n" s="10">
-        <v>97.43</v>
+        <v>97.49</v>
       </c>
       <c r="AU54" t="n" s="10">
-        <v>97.49</v>
+        <v>97.66</v>
       </c>
       <c r="AV54" t="n" s="10">
-        <v>98.14</v>
+        <v>98.15</v>
       </c>
       <c r="AW54" t="n" s="10">
-        <v>98.96</v>
+        <v>98.98</v>
       </c>
       <c r="AX54" t="n" s="10">
-        <v>98.81</v>
+        <v>98.88</v>
       </c>
       <c r="AY54" t="n" s="10">
-        <v>99.14</v>
+        <v>99.2</v>
       </c>
       <c r="AZ54" t="n" s="10">
-        <v>100.13</v>
+        <v>100.22</v>
       </c>
       <c r="BA54" t="n" s="10">
-        <v>100.76</v>
+        <v>100.79</v>
       </c>
       <c r="BB54" t="n" s="10">
-        <v>100.94</v>
+        <v>101.03</v>
       </c>
       <c r="BC54" t="n" s="10">
-        <v>101.6</v>
+        <v>101.5</v>
       </c>
       <c r="BD54" t="n" s="10">
-        <v>100.68</v>
+        <v>100.63</v>
       </c>
       <c r="BE54" t="n" s="10">
-        <v>100.44</v>
+        <v>100.55</v>
       </c>
       <c r="BF54" t="n" s="10">
-        <v>100.68</v>
+        <v>100.48</v>
       </c>
       <c r="BG54" t="n" s="10">
-        <v>99.42</v>
+        <v>99.44</v>
       </c>
       <c r="BH54" t="n" s="10">
-        <v>100.03</v>
+        <v>99.81</v>
       </c>
       <c r="BI54" t="n" s="10">
-        <v>98.54</v>
+        <v>98.69</v>
       </c>
       <c r="BJ54" t="n" s="10">
-        <v>98.12</v>
+        <v>98.03</v>
       </c>
       <c r="BK54" t="n" s="10">
-        <v>97.81</v>
+        <v>97.66</v>
       </c>
       <c r="BL54" t="n" s="10">
-        <v>96.9</v>
+        <v>96.93</v>
       </c>
       <c r="BM54" t="n" s="10">
-        <v>96.74</v>
+        <v>96.89</v>
       </c>
       <c r="BN54" t="n" s="10">
-        <v>97.12</v>
+        <v>97.19</v>
       </c>
       <c r="BO54" t="n" s="10">
-        <v>97.74</v>
+        <v>97.73</v>
       </c>
       <c r="BP54" t="n" s="10">
-        <v>97.66</v>
+        <v>97.64</v>
       </c>
       <c r="BQ54" t="n" s="10">
-        <v>98.13</v>
+        <v>97.96</v>
       </c>
       <c r="BR54" t="n" s="10">
-        <v>96.4</v>
+        <v>97.07</v>
       </c>
       <c r="BS54" t="n" s="10">
-        <v>96.16</v>
+        <v>96.02</v>
       </c>
       <c r="BT54" t="n" s="10">
-        <v>96.7</v>
+        <v>96.31</v>
       </c>
       <c r="BU54" t="n" s="10">
-        <v>95.48</v>
+        <v>95.07</v>
       </c>
       <c r="BV54" t="n" s="10">
+        <v>96.64</v>
+      </c>
+      <c r="BW54" t="n" s="10">
+        <v>99.72</v>
+      </c>
+      <c r="BX54" t="n" s="10">
+        <v>100.21</v>
+      </c>
+      <c r="BY54" t="n" s="10">
+        <v>101.0</v>
+      </c>
+      <c r="BZ54" t="n" s="10">
+        <v>100.17</v>
+      </c>
+      <c r="CA54" t="n" s="10">
+        <v>99.26</v>
+      </c>
+      <c r="CB54" t="n" s="10">
+        <v>98.58</v>
+      </c>
+      <c r="CC54" t="n" s="10">
+        <v>97.67</v>
+      </c>
+      <c r="CD54" t="n" s="10">
+        <v>97.18</v>
+      </c>
+      <c r="CE54" t="n" s="10">
+        <v>96.06</v>
+      </c>
+      <c r="CF54" t="n" s="10">
+        <v>95.59</v>
+      </c>
+      <c r="CG54" t="n" s="10">
+        <v>95.52</v>
+      </c>
+      <c r="CH54" t="n" s="10">
+        <v>95.29</v>
+      </c>
+      <c r="CI54" t="n" s="10">
         <v>95.47</v>
       </c>
-      <c r="BW54" t="n" s="10">
-        <v>100.17</v>
-      </c>
-      <c r="BX54" t="n" s="10">
-        <v>100.48</v>
-      </c>
-      <c r="BY54" t="n" s="10">
-        <v>101.25</v>
-      </c>
-      <c r="BZ54" t="n" s="10">
-        <v>99.52</v>
-      </c>
-      <c r="CA54" t="n" s="10">
-        <v>99.46</v>
-      </c>
-      <c r="CB54" t="n" s="10">
-        <v>98.71</v>
-      </c>
-      <c r="CC54" t="n" s="10">
-        <v>97.7</v>
-      </c>
-      <c r="CD54" t="n" s="10">
-        <v>97.22</v>
-      </c>
-      <c r="CE54" t="n" s="10">
-        <v>96.07</v>
-      </c>
-      <c r="CF54" t="n" s="10">
-        <v>95.64</v>
-      </c>
-      <c r="CG54" t="n" s="10">
-        <v>95.55</v>
-      </c>
-      <c r="CH54" t="n" s="10">
-        <v>95.28</v>
-      </c>
-      <c r="CI54" t="n" s="10">
-        <v>95.56</v>
-      </c>
       <c r="CJ54" t="n" s="10">
-        <v>95.2</v>
+        <v>95.23</v>
       </c>
       <c r="CK54" t="n" s="10">
-        <v>95.25</v>
+        <v>95.31</v>
       </c>
       <c r="CL54" t="n" s="10">
-        <v>95.46</v>
+        <v>95.5</v>
       </c>
       <c r="CM54" t="n" s="10">
-        <v>95.65</v>
+        <v>95.75</v>
       </c>
       <c r="CN54" t="n" s="10">
         <v>96.39</v>
       </c>
       <c r="CO54" t="n" s="10">
-        <v>96.58</v>
+        <v>96.59</v>
       </c>
       <c r="CP54" t="n" s="10">
-        <v>96.74</v>
+        <v>96.77</v>
       </c>
       <c r="CQ54" t="n" s="10">
-        <v>96.76</v>
+        <v>96.79</v>
       </c>
       <c r="CR54" t="n" s="10">
-        <v>97.33</v>
+        <v>97.39</v>
       </c>
       <c r="CS54" t="n" s="10">
-        <v>97.79</v>
+        <v>97.84</v>
       </c>
       <c r="CT54" t="n" s="10">
-        <v>98.51</v>
+        <v>98.47</v>
       </c>
       <c r="CU54" t="n" s="10">
-        <v>99.31</v>
+        <v>99.34</v>
       </c>
       <c r="CV54" t="n" s="10">
-        <v>99.24</v>
+        <v>99.36</v>
       </c>
       <c r="CW54" t="n" s="10">
-        <v>100.13</v>
+        <v>100.19</v>
       </c>
       <c r="CX54" t="n" s="10">
-        <v>101.1</v>
+        <v>100.87</v>
       </c>
       <c r="CY54" t="n" s="10">
+        <v>101.68</v>
+      </c>
+      <c r="CZ54" t="n" s="10">
+        <v>102.09</v>
+      </c>
+      <c r="DA54" t="n" s="10">
         <v>101.57</v>
       </c>
-      <c r="CZ54" t="n" s="10">
-        <v>102.15</v>
-      </c>
-      <c r="DA54" t="n" s="10">
-        <v>101.55</v>
-      </c>
       <c r="DB54" t="n" s="10">
-        <v>101.55</v>
+        <v>101.43</v>
       </c>
       <c r="DC54" t="n" s="10">
-        <v>100.77</v>
+        <v>100.73</v>
       </c>
       <c r="DD54" t="n" s="10">
-        <v>100.59</v>
+        <v>100.68</v>
       </c>
       <c r="DE54" t="n" s="10">
-        <v>101.01</v>
+        <v>101.07</v>
       </c>
       <c r="DF54" t="n" s="10">
-        <v>100.66</v>
+        <v>100.68</v>
       </c>
       <c r="DG54" t="n" s="10">
-        <v>100.27</v>
+        <v>100.3</v>
       </c>
       <c r="DH54" t="n" s="10">
-        <v>100.19</v>
+        <v>100.21</v>
       </c>
       <c r="DI54" t="n" s="10">
-        <v>99.5</v>
+        <v>99.58</v>
       </c>
       <c r="DJ54" t="n" s="10">
-        <v>100.08</v>
+        <v>100.07</v>
       </c>
       <c r="DK54" t="n" s="10">
-        <v>100.24</v>
+        <v>100.18</v>
       </c>
       <c r="DL54" t="n" s="10">
-        <v>100.01</v>
+        <v>100.21</v>
       </c>
       <c r="DM54" t="n" s="10">
-        <v>100.94</v>
+        <v>100.87</v>
       </c>
       <c r="DN54" t="n" s="10">
-        <v>101.37</v>
+        <v>101.36</v>
       </c>
       <c r="DO54" t="n" s="10">
-        <v>101.81</v>
+        <v>101.62</v>
       </c>
       <c r="DP54" t="n" s="10">
-        <v>103.96</v>
+        <v>104.63</v>
       </c>
       <c r="DQ54" t="n" s="10">
-        <v>102.99</v>
+        <v>102.79</v>
       </c>
       <c r="DR54" t="n" s="10">
-        <v>102.94</v>
+        <v>102.62</v>
       </c>
       <c r="DS54" t="n" s="10">
-        <v>102.16</v>
+        <v>101.99</v>
       </c>
       <c r="DT54" t="n" s="10">
-        <v>100.68</v>
+        <v>101.36</v>
       </c>
       <c r="DU54" t="n" s="10">
-        <v>100.81</v>
-      </c>
-      <c r="DV54" t="s" s="10">
-        <v>43</v>
+        <v>100.43</v>
+      </c>
+      <c r="DV54" t="n" s="10">
+        <v>98.7</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s" s="13">
         <v>64</v>
       </c>
-      <c r="B55" t="s" s="13">
-        <v>65</v>
-      </c>
       <c r="C55" t="n" s="10">
-        <v>84.77</v>
+        <v>84.79</v>
       </c>
       <c r="D55" t="n" s="10">
-        <v>89.18</v>
+        <v>89.22</v>
       </c>
       <c r="E55" t="n" s="10">
         <v>88.97</v>
       </c>
       <c r="F55" t="n" s="10">
-        <v>87.31</v>
+        <v>87.34</v>
       </c>
       <c r="G55" t="n" s="10">
         <v>90.18</v>
       </c>
       <c r="H55" t="n" s="10">
-        <v>88.33</v>
+        <v>88.36</v>
       </c>
       <c r="I55" t="n" s="10">
-        <v>89.69</v>
+        <v>89.72</v>
       </c>
       <c r="J55" t="n" s="10">
         <v>90.55</v>
@@ -20663,10 +20660,10 @@
         <v>90.4</v>
       </c>
       <c r="N55" t="n" s="10">
-        <v>91.98</v>
+        <v>91.95</v>
       </c>
       <c r="O55" t="n" s="10">
-        <v>90.47</v>
+        <v>90.44</v>
       </c>
       <c r="P55" t="n" s="10">
         <v>90.91</v>
@@ -20675,10 +20672,10 @@
         <v>90.99</v>
       </c>
       <c r="R55" t="n" s="10">
-        <v>90.17</v>
+        <v>90.2</v>
       </c>
       <c r="S55" t="n" s="10">
-        <v>92.49</v>
+        <v>92.46</v>
       </c>
       <c r="T55" t="n" s="10">
         <v>90.74</v>
@@ -20693,19 +20690,19 @@
         <v>91.53</v>
       </c>
       <c r="X55" t="n" s="10">
-        <v>89.84</v>
+        <v>89.87</v>
       </c>
       <c r="Y55" t="n" s="10">
         <v>90.63</v>
       </c>
       <c r="Z55" t="n" s="10">
-        <v>90.08</v>
+        <v>90.11</v>
       </c>
       <c r="AA55" t="n" s="10">
-        <v>88.69</v>
+        <v>88.71</v>
       </c>
       <c r="AB55" t="n" s="10">
-        <v>92.72</v>
+        <v>92.69</v>
       </c>
       <c r="AC55" t="n" s="10">
         <v>91.74</v>
@@ -20717,13 +20714,13 @@
         <v>92.17</v>
       </c>
       <c r="AF55" t="n" s="10">
-        <v>90.44</v>
+        <v>90.46</v>
       </c>
       <c r="AG55" t="n" s="10">
         <v>91.25</v>
       </c>
       <c r="AH55" t="n" s="10">
-        <v>91.09</v>
+        <v>91.07</v>
       </c>
       <c r="AI55" t="n" s="10">
         <v>89.68</v>
@@ -20732,22 +20729,22 @@
         <v>90.94</v>
       </c>
       <c r="AK55" t="n" s="10">
-        <v>91.18</v>
+        <v>91.2</v>
       </c>
       <c r="AL55" t="n" s="10">
-        <v>92.73</v>
+        <v>92.71</v>
       </c>
       <c r="AM55" t="n" s="10">
-        <v>93.27</v>
+        <v>93.3</v>
       </c>
       <c r="AN55" t="n" s="10">
-        <v>92.47</v>
+        <v>92.49</v>
       </c>
       <c r="AO55" t="n" s="10">
-        <v>92.87</v>
+        <v>92.89</v>
       </c>
       <c r="AP55" t="n" s="10">
-        <v>93.01</v>
+        <v>93.04</v>
       </c>
       <c r="AQ55" t="n" s="10">
         <v>93.91</v>
@@ -20756,34 +20753,34 @@
         <v>93.28</v>
       </c>
       <c r="AS55" t="n" s="10">
-        <v>92.88</v>
+        <v>92.89</v>
       </c>
       <c r="AT55" t="n" s="10">
-        <v>92.56</v>
+        <v>92.57</v>
       </c>
       <c r="AU55" t="n" s="10">
-        <v>91.79</v>
+        <v>91.83</v>
       </c>
       <c r="AV55" t="n" s="10">
-        <v>93.17</v>
+        <v>93.19</v>
       </c>
       <c r="AW55" t="n" s="10">
         <v>92.81</v>
       </c>
       <c r="AX55" t="n" s="10">
-        <v>92.56</v>
+        <v>92.58</v>
       </c>
       <c r="AY55" t="n" s="10">
-        <v>92.65</v>
+        <v>92.67</v>
       </c>
       <c r="AZ55" t="n" s="10">
-        <v>91.8</v>
+        <v>91.82</v>
       </c>
       <c r="BA55" t="n" s="10">
         <v>92.22</v>
       </c>
       <c r="BB55" t="n" s="10">
-        <v>91.34</v>
+        <v>91.36</v>
       </c>
       <c r="BC55" t="n" s="10">
         <v>92.68</v>
@@ -20792,46 +20789,46 @@
         <v>92.21</v>
       </c>
       <c r="BE55" t="n" s="10">
-        <v>92.86</v>
+        <v>92.88</v>
       </c>
       <c r="BF55" t="n" s="10">
         <v>94.36</v>
       </c>
       <c r="BG55" t="n" s="10">
-        <v>92.28</v>
+        <v>92.3</v>
       </c>
       <c r="BH55" t="n" s="10">
-        <v>94.65</v>
+        <v>94.66</v>
       </c>
       <c r="BI55" t="n" s="10">
-        <v>93.92</v>
+        <v>93.91</v>
       </c>
       <c r="BJ55" t="n" s="10">
-        <v>93.77</v>
+        <v>93.79</v>
       </c>
       <c r="BK55" t="n" s="10">
         <v>94.96</v>
       </c>
       <c r="BL55" t="n" s="10">
-        <v>93.54</v>
+        <v>93.56</v>
       </c>
       <c r="BM55" t="n" s="10">
-        <v>93.99</v>
+        <v>94.01</v>
       </c>
       <c r="BN55" t="n" s="10">
-        <v>94.18</v>
+        <v>94.2</v>
       </c>
       <c r="BO55" t="n" s="10">
-        <v>94.79</v>
+        <v>94.8</v>
       </c>
       <c r="BP55" t="n" s="10">
-        <v>94.24</v>
+        <v>94.25</v>
       </c>
       <c r="BQ55" t="n" s="10">
         <v>94.26</v>
       </c>
       <c r="BR55" t="n" s="10">
-        <v>94.42</v>
+        <v>94.44</v>
       </c>
       <c r="BS55" t="n" s="10">
         <v>95.02</v>
@@ -20840,16 +20837,16 @@
         <v>97.21</v>
       </c>
       <c r="BU55" t="n" s="10">
-        <v>96.1</v>
+        <v>96.11</v>
       </c>
       <c r="BV55" t="n" s="10">
-        <v>94.72</v>
+        <v>94.73</v>
       </c>
       <c r="BW55" t="n" s="10">
-        <v>94.78</v>
+        <v>94.79</v>
       </c>
       <c r="BX55" t="n" s="10">
-        <v>92.57</v>
+        <v>92.58</v>
       </c>
       <c r="BY55" t="n" s="10">
         <v>93.0</v>
@@ -20858,19 +20855,19 @@
         <v>93.73</v>
       </c>
       <c r="CA55" t="n" s="10">
-        <v>94.18</v>
+        <v>94.21</v>
       </c>
       <c r="CB55" t="n" s="10">
         <v>95.85</v>
       </c>
       <c r="CC55" t="n" s="10">
-        <v>96.66</v>
+        <v>96.67</v>
       </c>
       <c r="CD55" t="n" s="10">
         <v>97.8</v>
       </c>
       <c r="CE55" t="n" s="10">
-        <v>98.12</v>
+        <v>98.13</v>
       </c>
       <c r="CF55" t="n" s="10">
         <v>98.35</v>
@@ -20879,25 +20876,25 @@
         <v>98.55</v>
       </c>
       <c r="CH55" t="n" s="10">
-        <v>98.64</v>
+        <v>98.65</v>
       </c>
       <c r="CI55" t="n" s="10">
-        <v>100.18</v>
+        <v>100.17</v>
       </c>
       <c r="CJ55" t="n" s="10">
-        <v>99.5</v>
+        <v>99.51</v>
       </c>
       <c r="CK55" t="n" s="10">
-        <v>99.62</v>
+        <v>99.63</v>
       </c>
       <c r="CL55" t="n" s="10">
-        <v>99.68</v>
+        <v>99.69</v>
       </c>
       <c r="CM55" t="n" s="10">
-        <v>98.74</v>
+        <v>98.76</v>
       </c>
       <c r="CN55" t="n" s="10">
-        <v>99.57</v>
+        <v>99.58</v>
       </c>
       <c r="CO55" t="n" s="10">
         <v>99.04</v>
@@ -20906,111 +20903,111 @@
         <v>98.78</v>
       </c>
       <c r="CQ55" t="n" s="10">
-        <v>98.91</v>
+        <v>98.92</v>
       </c>
       <c r="CR55" t="n" s="10">
-        <v>98.47</v>
+        <v>98.5</v>
       </c>
       <c r="CS55" t="n" s="10">
-        <v>98.93</v>
+        <v>98.97</v>
       </c>
       <c r="CT55" t="n" s="10">
-        <v>99.05</v>
+        <v>98.96</v>
       </c>
       <c r="CU55" t="n" s="10">
-        <v>99.83</v>
+        <v>99.87</v>
       </c>
       <c r="CV55" t="n" s="10">
-        <v>99.71</v>
+        <v>99.78</v>
       </c>
       <c r="CW55" t="n" s="10">
-        <v>100.07</v>
+        <v>100.14</v>
       </c>
       <c r="CX55" t="n" s="10">
-        <v>100.4</v>
+        <v>100.23</v>
       </c>
       <c r="CY55" t="n" s="10">
-        <v>98.42</v>
+        <v>98.49</v>
       </c>
       <c r="CZ55" t="n" s="10">
-        <v>99.75</v>
+        <v>99.78</v>
       </c>
       <c r="DA55" t="n" s="10">
-        <v>99.51</v>
+        <v>99.55</v>
       </c>
       <c r="DB55" t="n" s="10">
-        <v>100.29</v>
+        <v>100.2</v>
       </c>
       <c r="DC55" t="n" s="10">
-        <v>101.57</v>
+        <v>101.6</v>
       </c>
       <c r="DD55" t="n" s="10">
-        <v>100.41</v>
+        <v>100.44</v>
       </c>
       <c r="DE55" t="n" s="10">
-        <v>100.45</v>
+        <v>100.48</v>
       </c>
       <c r="DF55" t="n" s="10">
-        <v>100.41</v>
+        <v>100.37</v>
       </c>
       <c r="DG55" t="n" s="10">
-        <v>100.64</v>
+        <v>100.66</v>
       </c>
       <c r="DH55" t="n" s="10">
-        <v>101.68</v>
+        <v>101.69</v>
       </c>
       <c r="DI55" t="n" s="10">
-        <v>101.95</v>
+        <v>101.98</v>
       </c>
       <c r="DJ55" t="n" s="10">
         <v>102.62</v>
       </c>
       <c r="DK55" t="n" s="10">
-        <v>102.03</v>
+        <v>102.05</v>
       </c>
       <c r="DL55" t="n" s="10">
-        <v>101.89</v>
+        <v>101.84</v>
       </c>
       <c r="DM55" t="n" s="10">
-        <v>102.7</v>
+        <v>102.68</v>
       </c>
       <c r="DN55" t="n" s="10">
-        <v>102.66</v>
+        <v>102.77</v>
       </c>
       <c r="DO55" t="n" s="10">
-        <v>102.89</v>
+        <v>102.91</v>
       </c>
       <c r="DP55" t="n" s="10">
-        <v>100.99</v>
+        <v>100.74</v>
       </c>
       <c r="DQ55" t="n" s="10">
-        <v>102.12</v>
+        <v>102.16</v>
       </c>
       <c r="DR55" t="n" s="10">
-        <v>103.0</v>
+        <v>103.15</v>
       </c>
       <c r="DS55" t="n" s="10">
-        <v>103.5</v>
+        <v>103.53</v>
       </c>
       <c r="DT55" t="n" s="10">
-        <v>105.69</v>
+        <v>105.36</v>
       </c>
       <c r="DU55" t="n" s="10">
-        <v>109.32</v>
-      </c>
-      <c r="DV55" t="s" s="10">
-        <v>43</v>
+        <v>109.26</v>
+      </c>
+      <c r="DV55" t="n" s="10">
+        <v>113.39</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="9">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s" s="13">
         <v>66</v>
       </c>
-      <c r="B56" t="s" s="13">
-        <v>67</v>
-      </c>
       <c r="C56" t="n" s="10">
-        <v>86.01</v>
+        <v>86.04</v>
       </c>
       <c r="D56" t="n" s="10">
         <v>91.34</v>
@@ -21019,13 +21016,13 @@
         <v>91.0</v>
       </c>
       <c r="F56" t="n" s="10">
-        <v>89.08</v>
+        <v>89.1</v>
       </c>
       <c r="G56" t="n" s="10">
         <v>92.21</v>
       </c>
       <c r="H56" t="n" s="10">
-        <v>89.85</v>
+        <v>89.88</v>
       </c>
       <c r="I56" t="n" s="10">
         <v>91.31</v>
@@ -21043,10 +21040,10 @@
         <v>91.94</v>
       </c>
       <c r="N56" t="n" s="10">
-        <v>93.82</v>
+        <v>93.78</v>
       </c>
       <c r="O56" t="n" s="10">
-        <v>91.99</v>
+        <v>91.96</v>
       </c>
       <c r="P56" t="n" s="10">
         <v>92.46</v>
@@ -21055,10 +21052,10 @@
         <v>92.51</v>
       </c>
       <c r="R56" t="n" s="10">
-        <v>91.56</v>
+        <v>91.59</v>
       </c>
       <c r="S56" t="n" s="10">
-        <v>94.18</v>
+        <v>94.15</v>
       </c>
       <c r="T56" t="n" s="10">
         <v>92.23</v>
@@ -21073,7 +21070,7 @@
         <v>93.15</v>
       </c>
       <c r="X56" t="n" s="10">
-        <v>91.22</v>
+        <v>91.25</v>
       </c>
       <c r="Y56" t="n" s="10">
         <v>92.09</v>
@@ -21082,10 +21079,10 @@
         <v>91.43</v>
       </c>
       <c r="AA56" t="n" s="10">
-        <v>89.73</v>
+        <v>89.76</v>
       </c>
       <c r="AB56" t="n" s="10">
-        <v>94.29</v>
+        <v>94.26</v>
       </c>
       <c r="AC56" t="n" s="10">
         <v>93.13</v>
@@ -21100,10 +21097,10 @@
         <v>91.68</v>
       </c>
       <c r="AG56" t="n" s="10">
-        <v>92.59</v>
+        <v>92.57</v>
       </c>
       <c r="AH56" t="n" s="10">
-        <v>92.3</v>
+        <v>92.28</v>
       </c>
       <c r="AI56" t="n" s="10">
         <v>90.71</v>
@@ -21115,16 +21112,16 @@
         <v>92.23</v>
       </c>
       <c r="AL56" t="n" s="10">
-        <v>94.01</v>
+        <v>93.99</v>
       </c>
       <c r="AM56" t="n" s="10">
         <v>94.48</v>
       </c>
       <c r="AN56" t="n" s="10">
-        <v>93.54</v>
+        <v>93.56</v>
       </c>
       <c r="AO56" t="n" s="10">
-        <v>93.99</v>
+        <v>94.01</v>
       </c>
       <c r="AP56" t="n" s="10">
         <v>94.14</v>
@@ -21136,13 +21133,13 @@
         <v>94.26</v>
       </c>
       <c r="AS56" t="n" s="10">
-        <v>93.73</v>
+        <v>93.74</v>
       </c>
       <c r="AT56" t="n" s="10">
-        <v>93.25</v>
+        <v>93.27</v>
       </c>
       <c r="AU56" t="n" s="10">
-        <v>92.42</v>
+        <v>92.44</v>
       </c>
       <c r="AV56" t="n" s="10">
         <v>93.96</v>
@@ -21166,7 +21163,7 @@
         <v>91.49</v>
       </c>
       <c r="BC56" t="n" s="10">
-        <v>93.09</v>
+        <v>93.08</v>
       </c>
       <c r="BD56" t="n" s="10">
         <v>92.47</v>
@@ -21175,22 +21172,22 @@
         <v>93.22</v>
       </c>
       <c r="BF56" t="n" s="10">
-        <v>94.81</v>
+        <v>94.79</v>
       </c>
       <c r="BG56" t="n" s="10">
         <v>92.25</v>
       </c>
       <c r="BH56" t="n" s="10">
-        <v>94.89</v>
+        <v>94.88</v>
       </c>
       <c r="BI56" t="n" s="10">
-        <v>93.95</v>
+        <v>93.94</v>
       </c>
       <c r="BJ56" t="n" s="10">
         <v>93.74</v>
       </c>
       <c r="BK56" t="n" s="10">
-        <v>95.17</v>
+        <v>95.15</v>
       </c>
       <c r="BL56" t="n" s="10">
         <v>93.62</v>
@@ -21217,13 +21214,13 @@
         <v>95.07</v>
       </c>
       <c r="BT56" t="n" s="10">
-        <v>97.58</v>
+        <v>97.56</v>
       </c>
       <c r="BU56" t="n" s="10">
-        <v>96.33</v>
+        <v>96.34</v>
       </c>
       <c r="BV56" t="n" s="10">
-        <v>94.81</v>
+        <v>94.82</v>
       </c>
       <c r="BW56" t="n" s="10">
         <v>95.01</v>
@@ -21247,22 +21244,22 @@
         <v>96.89</v>
       </c>
       <c r="CD56" t="n" s="10">
-        <v>98.41</v>
+        <v>98.4</v>
       </c>
       <c r="CE56" t="n" s="10">
         <v>98.81</v>
       </c>
       <c r="CF56" t="n" s="10">
-        <v>99.21</v>
+        <v>99.2</v>
       </c>
       <c r="CG56" t="n" s="10">
-        <v>99.36</v>
+        <v>99.35</v>
       </c>
       <c r="CH56" t="n" s="10">
         <v>99.22</v>
       </c>
       <c r="CI56" t="n" s="10">
-        <v>100.77</v>
+        <v>100.75</v>
       </c>
       <c r="CJ56" t="n" s="10">
         <v>99.84</v>
@@ -21271,10 +21268,10 @@
         <v>100.0</v>
       </c>
       <c r="CL56" t="n" s="10">
-        <v>100.15</v>
+        <v>100.16</v>
       </c>
       <c r="CM56" t="n" s="10">
-        <v>99.11</v>
+        <v>99.12</v>
       </c>
       <c r="CN56" t="n" s="10">
         <v>100.04</v>
@@ -21301,19 +21298,19 @@
         <v>99.68</v>
       </c>
       <c r="CV56" t="n" s="10">
-        <v>99.71</v>
+        <v>99.72</v>
       </c>
       <c r="CW56" t="n" s="10">
         <v>100.13</v>
       </c>
       <c r="CX56" t="n" s="10">
-        <v>100.38</v>
+        <v>100.37</v>
       </c>
       <c r="CY56" t="n" s="10">
         <v>98.39</v>
       </c>
       <c r="CZ56" t="n" s="10">
-        <v>99.67</v>
+        <v>99.66</v>
       </c>
       <c r="DA56" t="n" s="10">
         <v>99.22</v>
@@ -21328,10 +21325,10 @@
         <v>99.76</v>
       </c>
       <c r="DE56" t="n" s="10">
-        <v>99.81</v>
+        <v>99.82</v>
       </c>
       <c r="DF56" t="n" s="10">
-        <v>99.5</v>
+        <v>99.52</v>
       </c>
       <c r="DG56" t="n" s="10">
         <v>99.84</v>
@@ -21340,10 +21337,10 @@
         <v>100.86</v>
       </c>
       <c r="DI56" t="n" s="10">
-        <v>101.11</v>
+        <v>101.12</v>
       </c>
       <c r="DJ56" t="n" s="10">
-        <v>101.55</v>
+        <v>101.54</v>
       </c>
       <c r="DK56" t="n" s="10">
         <v>101.21</v>
@@ -21352,1564 +21349,1564 @@
         <v>101.2</v>
       </c>
       <c r="DM56" t="n" s="10">
-        <v>101.56</v>
+        <v>101.54</v>
       </c>
       <c r="DN56" t="n" s="10">
-        <v>101.24</v>
+        <v>101.26</v>
       </c>
       <c r="DO56" t="n" s="10">
-        <v>101.76</v>
+        <v>101.8</v>
       </c>
       <c r="DP56" t="n" s="10">
-        <v>100.06</v>
+        <v>100.01</v>
       </c>
       <c r="DQ56" t="n" s="10">
-        <v>100.81</v>
+        <v>100.74</v>
       </c>
       <c r="DR56" t="n" s="10">
-        <v>101.59</v>
+        <v>101.61</v>
       </c>
       <c r="DS56" t="n" s="10">
-        <v>101.63</v>
+        <v>101.71</v>
       </c>
       <c r="DT56" t="n" s="10">
-        <v>104.04</v>
+        <v>103.94</v>
       </c>
       <c r="DU56" t="n" s="10">
-        <v>106.4</v>
-      </c>
-      <c r="DV56" t="s" s="10">
-        <v>43</v>
+        <v>106.38</v>
+      </c>
+      <c r="DV56" t="n" s="10">
+        <v>111.23</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="9">
+        <v>67</v>
+      </c>
+      <c r="B57" t="s" s="13">
         <v>68</v>
       </c>
-      <c r="B57" t="s" s="13">
-        <v>69</v>
-      </c>
       <c r="C57" t="n" s="10">
-        <v>77.92</v>
+        <v>77.99</v>
       </c>
       <c r="D57" t="n" s="10">
-        <v>77.41</v>
+        <v>77.45</v>
       </c>
       <c r="E57" t="n" s="10">
-        <v>77.61</v>
+        <v>77.64</v>
       </c>
       <c r="F57" t="n" s="10">
-        <v>77.46</v>
+        <v>77.53</v>
       </c>
       <c r="G57" t="n" s="10">
-        <v>79.01</v>
+        <v>79.05</v>
       </c>
       <c r="H57" t="n" s="10">
-        <v>79.92</v>
+        <v>79.99</v>
       </c>
       <c r="I57" t="n" s="10">
         <v>80.89</v>
       </c>
       <c r="J57" t="n" s="10">
-        <v>82.02</v>
+        <v>82.06</v>
       </c>
       <c r="K57" t="n" s="10">
-        <v>81.66</v>
+        <v>81.73</v>
       </c>
       <c r="L57" t="n" s="10">
         <v>82.12</v>
       </c>
       <c r="M57" t="n" s="10">
-        <v>81.96</v>
+        <v>82.0</v>
       </c>
       <c r="N57" t="n" s="10">
-        <v>81.93</v>
+        <v>81.94</v>
       </c>
       <c r="O57" t="n" s="10">
-        <v>82.1</v>
+        <v>82.11</v>
       </c>
       <c r="P57" t="n" s="10">
-        <v>82.35</v>
+        <v>82.36</v>
       </c>
       <c r="Q57" t="n" s="10">
-        <v>82.53</v>
+        <v>82.57</v>
       </c>
       <c r="R57" t="n" s="10">
-        <v>82.7</v>
+        <v>82.74</v>
       </c>
       <c r="S57" t="n" s="10">
-        <v>82.9</v>
+        <v>82.91</v>
       </c>
       <c r="T57" t="n" s="10">
-        <v>82.45</v>
+        <v>82.49</v>
       </c>
       <c r="U57" t="n" s="10">
-        <v>82.23</v>
+        <v>82.27</v>
       </c>
       <c r="V57" t="n" s="10">
+        <v>82.32</v>
+      </c>
+      <c r="W57" t="n" s="10">
+        <v>82.43</v>
+      </c>
+      <c r="X57" t="n" s="10">
         <v>82.26</v>
       </c>
-      <c r="W57" t="n" s="10">
-        <v>82.39</v>
-      </c>
-      <c r="X57" t="n" s="10">
-        <v>82.22</v>
-      </c>
       <c r="Y57" t="n" s="10">
-        <v>82.45</v>
+        <v>82.49</v>
       </c>
       <c r="Z57" t="n" s="10">
-        <v>82.7</v>
+        <v>82.76</v>
       </c>
       <c r="AA57" t="n" s="10">
-        <v>82.96</v>
+        <v>83.02</v>
       </c>
       <c r="AB57" t="n" s="10">
-        <v>83.95</v>
+        <v>83.96</v>
       </c>
       <c r="AC57" t="n" s="10">
-        <v>84.02</v>
+        <v>84.05</v>
       </c>
       <c r="AD57" t="n" s="10">
-        <v>83.76</v>
+        <v>83.79</v>
       </c>
       <c r="AE57" t="n" s="10">
-        <v>83.89</v>
+        <v>83.92</v>
       </c>
       <c r="AF57" t="n" s="10">
-        <v>83.55</v>
+        <v>83.6</v>
       </c>
       <c r="AG57" t="n" s="10">
-        <v>83.8</v>
+        <v>83.81</v>
       </c>
       <c r="AH57" t="n" s="10">
-        <v>84.28</v>
+        <v>84.29</v>
       </c>
       <c r="AI57" t="n" s="10">
-        <v>84.14</v>
+        <v>84.22</v>
       </c>
       <c r="AJ57" t="n" s="10">
-        <v>84.81</v>
+        <v>84.84</v>
       </c>
       <c r="AK57" t="n" s="10">
-        <v>85.48</v>
+        <v>85.53</v>
       </c>
       <c r="AL57" t="n" s="10">
         <v>85.64</v>
       </c>
       <c r="AM57" t="n" s="10">
-        <v>86.69</v>
+        <v>86.72</v>
       </c>
       <c r="AN57" t="n" s="10">
-        <v>86.69</v>
+        <v>86.74</v>
       </c>
       <c r="AO57" t="n" s="10">
-        <v>86.65</v>
+        <v>86.72</v>
       </c>
       <c r="AP57" t="n" s="10">
-        <v>86.88</v>
+        <v>86.95</v>
       </c>
       <c r="AQ57" t="n" s="10">
-        <v>87.44</v>
+        <v>87.49</v>
       </c>
       <c r="AR57" t="n" s="10">
-        <v>88.03</v>
+        <v>88.06</v>
       </c>
       <c r="AS57" t="n" s="10">
-        <v>88.34</v>
+        <v>88.41</v>
       </c>
       <c r="AT57" t="n" s="10">
-        <v>88.86</v>
+        <v>88.88</v>
       </c>
       <c r="AU57" t="n" s="10">
-        <v>88.58</v>
+        <v>88.62</v>
       </c>
       <c r="AV57" t="n" s="10">
-        <v>89.01</v>
+        <v>89.05</v>
       </c>
       <c r="AW57" t="n" s="10">
-        <v>89.35</v>
+        <v>89.39</v>
       </c>
       <c r="AX57" t="n" s="10">
-        <v>89.97</v>
+        <v>90.01</v>
       </c>
       <c r="AY57" t="n" s="10">
-        <v>90.78</v>
+        <v>90.82</v>
       </c>
       <c r="AZ57" t="n" s="10">
-        <v>91.09</v>
+        <v>91.14</v>
       </c>
       <c r="BA57" t="n" s="10">
-        <v>91.59</v>
+        <v>91.63</v>
       </c>
       <c r="BB57" t="n" s="10">
-        <v>90.87</v>
+        <v>90.91</v>
       </c>
       <c r="BC57" t="n" s="10">
-        <v>90.69</v>
+        <v>90.71</v>
       </c>
       <c r="BD57" t="n" s="10">
-        <v>90.96</v>
+        <v>90.98</v>
       </c>
       <c r="BE57" t="n" s="10">
-        <v>91.15</v>
+        <v>91.18</v>
       </c>
       <c r="BF57" t="n" s="10">
-        <v>92.25</v>
+        <v>92.29</v>
       </c>
       <c r="BG57" t="n" s="10">
-        <v>92.73</v>
+        <v>92.77</v>
       </c>
       <c r="BH57" t="n" s="10">
-        <v>93.63</v>
+        <v>93.65</v>
       </c>
       <c r="BI57" t="n" s="10">
-        <v>94.01</v>
+        <v>94.04</v>
       </c>
       <c r="BJ57" t="n" s="10">
-        <v>94.29</v>
+        <v>94.33</v>
       </c>
       <c r="BK57" t="n" s="10">
-        <v>94.13</v>
+        <v>94.16</v>
       </c>
       <c r="BL57" t="n" s="10">
-        <v>93.46</v>
+        <v>93.52</v>
       </c>
       <c r="BM57" t="n" s="10">
-        <v>92.98</v>
+        <v>93.03</v>
       </c>
       <c r="BN57" t="n" s="10">
-        <v>92.27</v>
+        <v>92.32</v>
       </c>
       <c r="BO57" t="n" s="10">
-        <v>92.71</v>
+        <v>92.74</v>
       </c>
       <c r="BP57" t="n" s="10">
-        <v>93.3</v>
+        <v>93.34</v>
       </c>
       <c r="BQ57" t="n" s="10">
-        <v>93.96</v>
+        <v>94.02</v>
       </c>
       <c r="BR57" t="n" s="10">
-        <v>94.9</v>
+        <v>94.95</v>
       </c>
       <c r="BS57" t="n" s="10">
-        <v>95.03</v>
+        <v>95.08</v>
       </c>
       <c r="BT57" t="n" s="10">
-        <v>95.51</v>
+        <v>95.54</v>
       </c>
       <c r="BU57" t="n" s="10">
-        <v>95.13</v>
+        <v>95.15</v>
       </c>
       <c r="BV57" t="n" s="10">
-        <v>94.47</v>
+        <v>94.49</v>
       </c>
       <c r="BW57" t="n" s="10">
-        <v>93.83</v>
+        <v>93.87</v>
       </c>
       <c r="BX57" t="n" s="10">
-        <v>92.25</v>
+        <v>92.31</v>
       </c>
       <c r="BY57" t="n" s="10">
-        <v>92.35</v>
+        <v>92.39</v>
       </c>
       <c r="BZ57" t="n" s="10">
-        <v>93.2</v>
+        <v>93.24</v>
       </c>
       <c r="CA57" t="n" s="10">
-        <v>93.49</v>
+        <v>93.54</v>
       </c>
       <c r="CB57" t="n" s="10">
-        <v>95.24</v>
+        <v>95.27</v>
       </c>
       <c r="CC57" t="n" s="10">
-        <v>95.64</v>
+        <v>95.68</v>
       </c>
       <c r="CD57" t="n" s="10">
-        <v>94.74</v>
+        <v>94.77</v>
       </c>
       <c r="CE57" t="n" s="10">
-        <v>94.74</v>
+        <v>94.77</v>
       </c>
       <c r="CF57" t="n" s="10">
-        <v>93.95</v>
+        <v>93.98</v>
       </c>
       <c r="CG57" t="n" s="10">
-        <v>94.37</v>
+        <v>94.41</v>
       </c>
       <c r="CH57" t="n" s="10">
-        <v>95.8</v>
+        <v>95.84</v>
       </c>
       <c r="CI57" t="n" s="10">
-        <v>97.24</v>
+        <v>97.28</v>
       </c>
       <c r="CJ57" t="n" s="10">
-        <v>97.88</v>
+        <v>97.93</v>
       </c>
       <c r="CK57" t="n" s="10">
-        <v>97.81</v>
+        <v>97.86</v>
       </c>
       <c r="CL57" t="n" s="10">
-        <v>97.23</v>
+        <v>97.28</v>
       </c>
       <c r="CM57" t="n" s="10">
-        <v>96.93</v>
+        <v>96.98</v>
       </c>
       <c r="CN57" t="n" s="10">
-        <v>97.25</v>
+        <v>97.3</v>
       </c>
       <c r="CO57" t="n" s="10">
-        <v>97.71</v>
+        <v>97.76</v>
       </c>
       <c r="CP57" t="n" s="10">
-        <v>98.41</v>
+        <v>98.39</v>
       </c>
       <c r="CQ57" t="n" s="10">
-        <v>98.52</v>
+        <v>98.57</v>
       </c>
       <c r="CR57" t="n" s="10">
-        <v>99.03</v>
+        <v>99.19</v>
       </c>
       <c r="CS57" t="n" s="10">
-        <v>99.19</v>
+        <v>99.41</v>
       </c>
       <c r="CT57" t="n" s="10">
-        <v>100.3</v>
+        <v>99.8</v>
       </c>
       <c r="CU57" t="n" s="10">
-        <v>100.53</v>
+        <v>100.75</v>
       </c>
       <c r="CV57" t="n" s="10">
-        <v>99.74</v>
+        <v>100.03</v>
       </c>
       <c r="CW57" t="n" s="10">
-        <v>99.79</v>
+        <v>100.16</v>
       </c>
       <c r="CX57" t="n" s="10">
-        <v>100.48</v>
+        <v>99.64</v>
       </c>
       <c r="CY57" t="n" s="10">
-        <v>98.6</v>
+        <v>98.97</v>
       </c>
       <c r="CZ57" t="n" s="10">
-        <v>100.1</v>
+        <v>100.37</v>
       </c>
       <c r="DA57" t="n" s="10">
-        <v>100.9</v>
+        <v>101.1</v>
       </c>
       <c r="DB57" t="n" s="10">
-        <v>102.86</v>
+        <v>102.4</v>
       </c>
       <c r="DC57" t="n" s="10">
-        <v>103.5</v>
+        <v>103.68</v>
       </c>
       <c r="DD57" t="n" s="10">
-        <v>103.37</v>
+        <v>103.55</v>
       </c>
       <c r="DE57" t="n" s="10">
-        <v>103.39</v>
+        <v>103.52</v>
       </c>
       <c r="DF57" t="n" s="10">
-        <v>104.55</v>
+        <v>104.35</v>
       </c>
       <c r="DG57" t="n" s="10">
-        <v>104.28</v>
+        <v>104.42</v>
       </c>
       <c r="DH57" t="n" s="10">
-        <v>105.45</v>
+        <v>105.54</v>
       </c>
       <c r="DI57" t="n" s="10">
-        <v>105.81</v>
+        <v>105.92</v>
       </c>
       <c r="DJ57" t="n" s="10">
-        <v>107.46</v>
+        <v>107.44</v>
       </c>
       <c r="DK57" t="n" s="10">
-        <v>105.73</v>
+        <v>105.89</v>
       </c>
       <c r="DL57" t="n" s="10">
-        <v>105.03</v>
+        <v>104.82</v>
       </c>
       <c r="DM57" t="n" s="10">
-        <v>107.83</v>
+        <v>107.85</v>
       </c>
       <c r="DN57" t="n" s="10">
-        <v>109.02</v>
+        <v>109.55</v>
       </c>
       <c r="DO57" t="n" s="10">
-        <v>107.96</v>
+        <v>107.92</v>
       </c>
       <c r="DP57" t="n" s="10">
-        <v>105.17</v>
+        <v>104.09</v>
       </c>
       <c r="DQ57" t="n" s="10">
-        <v>108.18</v>
+        <v>108.79</v>
       </c>
       <c r="DR57" t="n" s="10">
-        <v>109.71</v>
+        <v>110.53</v>
       </c>
       <c r="DS57" t="n" s="10">
-        <v>112.52</v>
+        <v>112.24</v>
       </c>
       <c r="DT57" t="n" s="10">
-        <v>113.44</v>
+        <v>111.88</v>
       </c>
       <c r="DU57" t="n" s="10">
-        <v>123.02</v>
-      </c>
-      <c r="DV57" t="s" s="10">
-        <v>43</v>
+        <v>122.35</v>
+      </c>
+      <c r="DV57" t="n" s="10">
+        <v>123.11</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="9">
+        <v>69</v>
+      </c>
+      <c r="B58" t="s" s="13">
         <v>70</v>
       </c>
-      <c r="B58" t="s" s="13">
-        <v>71</v>
-      </c>
       <c r="C58" t="n" s="10">
-        <v>93.28</v>
+        <v>93.03</v>
       </c>
       <c r="D58" t="n" s="10">
-        <v>95.3</v>
+        <v>95.33</v>
       </c>
       <c r="E58" t="n" s="10">
-        <v>95.03</v>
+        <v>95.0</v>
       </c>
       <c r="F58" t="n" s="10">
-        <v>93.86</v>
+        <v>93.7</v>
       </c>
       <c r="G58" t="n" s="10">
-        <v>94.21</v>
+        <v>94.26</v>
       </c>
       <c r="H58" t="n" s="10">
-        <v>92.98</v>
+        <v>92.87</v>
       </c>
       <c r="I58" t="n" s="10">
         <v>92.87</v>
       </c>
       <c r="J58" t="n" s="10">
-        <v>92.73</v>
+        <v>92.81</v>
       </c>
       <c r="K58" t="n" s="10">
-        <v>91.72</v>
+        <v>91.64</v>
       </c>
       <c r="L58" t="n" s="10">
-        <v>92.11</v>
+        <v>92.17</v>
       </c>
       <c r="M58" t="n" s="10">
-        <v>92.04</v>
+        <v>92.09</v>
       </c>
       <c r="N58" t="n" s="10">
-        <v>92.7</v>
+        <v>92.91</v>
       </c>
       <c r="O58" t="n" s="10">
-        <v>91.59</v>
+        <v>91.64</v>
       </c>
       <c r="P58" t="n" s="10">
-        <v>91.98</v>
+        <v>92.03</v>
       </c>
       <c r="Q58" t="n" s="10">
-        <v>91.95</v>
+        <v>92.03</v>
       </c>
       <c r="R58" t="n" s="10">
-        <v>91.48</v>
+        <v>91.46</v>
       </c>
       <c r="S58" t="n" s="10">
-        <v>92.68</v>
+        <v>92.79</v>
       </c>
       <c r="T58" t="n" s="10">
-        <v>90.86</v>
+        <v>90.83</v>
       </c>
       <c r="U58" t="n" s="10">
-        <v>90.43</v>
+        <v>90.33</v>
       </c>
       <c r="V58" t="n" s="10">
-        <v>90.46</v>
+        <v>90.41</v>
       </c>
       <c r="W58" t="n" s="10">
-        <v>90.92</v>
+        <v>90.94</v>
       </c>
       <c r="X58" t="n" s="10">
-        <v>90.62</v>
+        <v>90.52</v>
       </c>
       <c r="Y58" t="n" s="10">
         <v>90.89</v>
       </c>
       <c r="Z58" t="n" s="10">
-        <v>91.32</v>
+        <v>91.28</v>
       </c>
       <c r="AA58" t="n" s="10">
-        <v>91.17</v>
+        <v>90.95</v>
       </c>
       <c r="AB58" t="n" s="10">
-        <v>93.85</v>
+        <v>93.91</v>
       </c>
       <c r="AC58" t="n" s="10">
-        <v>93.83</v>
+        <v>93.81</v>
       </c>
       <c r="AD58" t="n" s="10">
-        <v>93.36</v>
+        <v>93.28</v>
       </c>
       <c r="AE58" t="n" s="10">
-        <v>93.35</v>
+        <v>93.37</v>
       </c>
       <c r="AF58" t="n" s="10">
-        <v>91.29</v>
+        <v>91.2</v>
       </c>
       <c r="AG58" t="n" s="10">
-        <v>90.52</v>
+        <v>90.54</v>
       </c>
       <c r="AH58" t="n" s="10">
-        <v>89.11</v>
+        <v>89.18</v>
       </c>
       <c r="AI58" t="n" s="10">
-        <v>87.96</v>
+        <v>87.95</v>
       </c>
       <c r="AJ58" t="n" s="10">
-        <v>89.37</v>
+        <v>89.44</v>
       </c>
       <c r="AK58" t="n" s="10">
-        <v>90.36</v>
+        <v>90.41</v>
       </c>
       <c r="AL58" t="n" s="10">
-        <v>92.33</v>
+        <v>92.47</v>
       </c>
       <c r="AM58" t="n" s="10">
-        <v>94.75</v>
+        <v>94.88</v>
       </c>
       <c r="AN58" t="n" s="10">
-        <v>95.21</v>
+        <v>95.2</v>
       </c>
       <c r="AO58" t="n" s="10">
-        <v>96.58</v>
+        <v>96.53</v>
       </c>
       <c r="AP58" t="n" s="10">
-        <v>97.87</v>
+        <v>97.79</v>
       </c>
       <c r="AQ58" t="n" s="10">
-        <v>97.64</v>
+        <v>97.66</v>
       </c>
       <c r="AR58" t="n" s="10">
-        <v>97.08</v>
+        <v>97.05</v>
       </c>
       <c r="AS58" t="n" s="10">
-        <v>96.55</v>
+        <v>96.47</v>
       </c>
       <c r="AT58" t="n" s="10">
-        <v>95.0</v>
+        <v>94.95</v>
       </c>
       <c r="AU58" t="n" s="10">
-        <v>94.15</v>
+        <v>94.03</v>
       </c>
       <c r="AV58" t="n" s="10">
-        <v>94.94</v>
+        <v>94.95</v>
       </c>
       <c r="AW58" t="n" s="10">
-        <v>93.79</v>
+        <v>93.77</v>
       </c>
       <c r="AX58" t="n" s="10">
-        <v>93.67</v>
+        <v>93.63</v>
       </c>
       <c r="AY58" t="n" s="10">
-        <v>93.45</v>
+        <v>93.42</v>
       </c>
       <c r="AZ58" t="n" s="10">
-        <v>91.68</v>
+        <v>91.62</v>
       </c>
       <c r="BA58" t="n" s="10">
-        <v>91.52</v>
+        <v>91.5</v>
       </c>
       <c r="BB58" t="n" s="10">
-        <v>90.49</v>
+        <v>90.43</v>
       </c>
       <c r="BC58" t="n" s="10">
-        <v>91.22</v>
+        <v>91.31</v>
       </c>
       <c r="BD58" t="n" s="10">
-        <v>91.59</v>
+        <v>91.63</v>
       </c>
       <c r="BE58" t="n" s="10">
-        <v>92.45</v>
+        <v>92.37</v>
       </c>
       <c r="BF58" t="n" s="10">
-        <v>93.72</v>
+        <v>93.91</v>
       </c>
       <c r="BG58" t="n" s="10">
         <v>92.82</v>
       </c>
       <c r="BH58" t="n" s="10">
-        <v>94.62</v>
+        <v>94.84</v>
       </c>
       <c r="BI58" t="n" s="10">
-        <v>95.31</v>
+        <v>95.16</v>
       </c>
       <c r="BJ58" t="n" s="10">
-        <v>95.57</v>
+        <v>95.67</v>
       </c>
       <c r="BK58" t="n" s="10">
-        <v>97.09</v>
+        <v>97.24</v>
       </c>
       <c r="BL58" t="n" s="10">
+        <v>96.52</v>
+      </c>
+      <c r="BM58" t="n" s="10">
+        <v>97.03</v>
+      </c>
+      <c r="BN58" t="n" s="10">
+        <v>96.92</v>
+      </c>
+      <c r="BO58" t="n" s="10">
+        <v>97.0</v>
+      </c>
+      <c r="BP58" t="n" s="10">
         <v>96.53</v>
       </c>
-      <c r="BM58" t="n" s="10">
-        <v>97.16</v>
-      </c>
-      <c r="BN58" t="n" s="10">
-        <v>96.97</v>
-      </c>
-      <c r="BO58" t="n" s="10">
-        <v>96.98</v>
-      </c>
-      <c r="BP58" t="n" s="10">
-        <v>96.5</v>
-      </c>
       <c r="BQ58" t="n" s="10">
-        <v>96.06</v>
+        <v>96.22</v>
       </c>
       <c r="BR58" t="n" s="10">
-        <v>97.95</v>
+        <v>97.29</v>
       </c>
       <c r="BS58" t="n" s="10">
-        <v>98.81</v>
+        <v>98.96</v>
       </c>
       <c r="BT58" t="n" s="10">
-        <v>100.53</v>
+        <v>100.93</v>
       </c>
       <c r="BU58" t="n" s="10">
-        <v>100.65</v>
+        <v>101.09</v>
       </c>
       <c r="BV58" t="n" s="10">
-        <v>99.21</v>
+        <v>98.02</v>
       </c>
       <c r="BW58" t="n" s="10">
-        <v>94.62</v>
+        <v>95.06</v>
       </c>
       <c r="BX58" t="n" s="10">
-        <v>92.13</v>
+        <v>92.39</v>
       </c>
       <c r="BY58" t="n" s="10">
-        <v>91.85</v>
+        <v>92.08</v>
       </c>
       <c r="BZ58" t="n" s="10">
-        <v>94.18</v>
+        <v>93.57</v>
       </c>
       <c r="CA58" t="n" s="10">
-        <v>94.69</v>
+        <v>94.91</v>
       </c>
       <c r="CB58" t="n" s="10">
-        <v>97.1</v>
+        <v>97.23</v>
       </c>
       <c r="CC58" t="n" s="10">
-        <v>98.94</v>
+        <v>98.98</v>
       </c>
       <c r="CD58" t="n" s="10">
-        <v>100.6</v>
+        <v>100.64</v>
       </c>
       <c r="CE58" t="n" s="10">
-        <v>102.13</v>
+        <v>102.16</v>
       </c>
       <c r="CF58" t="n" s="10">
-        <v>102.83</v>
+        <v>102.89</v>
       </c>
       <c r="CG58" t="n" s="10">
-        <v>103.14</v>
+        <v>103.17</v>
       </c>
       <c r="CH58" t="n" s="10">
         <v>103.53</v>
       </c>
       <c r="CI58" t="n" s="10">
-        <v>104.84</v>
+        <v>104.92</v>
       </c>
       <c r="CJ58" t="n" s="10">
-        <v>104.52</v>
+        <v>104.49</v>
       </c>
       <c r="CK58" t="n" s="10">
-        <v>104.59</v>
+        <v>104.53</v>
       </c>
       <c r="CL58" t="n" s="10">
-        <v>104.42</v>
+        <v>104.39</v>
       </c>
       <c r="CM58" t="n" s="10">
-        <v>103.23</v>
+        <v>103.14</v>
       </c>
       <c r="CN58" t="n" s="10">
-        <v>103.3</v>
+        <v>103.31</v>
       </c>
       <c r="CO58" t="n" s="10">
+        <v>102.54</v>
+      </c>
+      <c r="CP58" t="n" s="10">
+        <v>102.08</v>
+      </c>
+      <c r="CQ58" t="n" s="10">
+        <v>102.2</v>
+      </c>
+      <c r="CR58" t="n" s="10">
+        <v>101.14</v>
+      </c>
+      <c r="CS58" t="n" s="10">
+        <v>101.15</v>
+      </c>
+      <c r="CT58" t="n" s="10">
+        <v>100.5</v>
+      </c>
+      <c r="CU58" t="n" s="10">
+        <v>100.53</v>
+      </c>
+      <c r="CV58" t="n" s="10">
+        <v>100.42</v>
+      </c>
+      <c r="CW58" t="n" s="10">
+        <v>99.95</v>
+      </c>
+      <c r="CX58" t="n" s="10">
+        <v>99.37</v>
+      </c>
+      <c r="CY58" t="n" s="10">
+        <v>96.86</v>
+      </c>
+      <c r="CZ58" t="n" s="10">
+        <v>97.74</v>
+      </c>
+      <c r="DA58" t="n" s="10">
+        <v>98.01</v>
+      </c>
+      <c r="DB58" t="n" s="10">
+        <v>98.79</v>
+      </c>
+      <c r="DC58" t="n" s="10">
+        <v>100.86</v>
+      </c>
+      <c r="DD58" t="n" s="10">
+        <v>99.76</v>
+      </c>
+      <c r="DE58" t="n" s="10">
+        <v>99.42</v>
+      </c>
+      <c r="DF58" t="n" s="10">
+        <v>99.69</v>
+      </c>
+      <c r="DG58" t="n" s="10">
+        <v>100.36</v>
+      </c>
+      <c r="DH58" t="n" s="10">
+        <v>101.48</v>
+      </c>
+      <c r="DI58" t="n" s="10">
+        <v>102.41</v>
+      </c>
+      <c r="DJ58" t="n" s="10">
         <v>102.55</v>
       </c>
-      <c r="CP58" t="n" s="10">
-        <v>102.11</v>
-      </c>
-      <c r="CQ58" t="n" s="10">
-        <v>102.22</v>
-      </c>
-      <c r="CR58" t="n" s="10">
-        <v>101.17</v>
-      </c>
-      <c r="CS58" t="n" s="10">
-        <v>101.17</v>
-      </c>
-      <c r="CT58" t="n" s="10">
-        <v>100.55</v>
-      </c>
-      <c r="CU58" t="n" s="10">
+      <c r="DK58" t="n" s="10">
+        <v>101.87</v>
+      </c>
+      <c r="DL58" t="n" s="10">
+        <v>101.63</v>
+      </c>
+      <c r="DM58" t="n" s="10">
+        <v>101.79</v>
+      </c>
+      <c r="DN58" t="n" s="10">
+        <v>101.39</v>
+      </c>
+      <c r="DO58" t="n" s="10">
+        <v>101.27</v>
+      </c>
+      <c r="DP58" t="n" s="10">
+        <v>96.28</v>
+      </c>
+      <c r="DQ58" t="n" s="10">
+        <v>99.39</v>
+      </c>
+      <c r="DR58" t="n" s="10">
         <v>100.52</v>
       </c>
-      <c r="CV58" t="n" s="10">
-        <v>100.47</v>
-      </c>
-      <c r="CW58" t="n" s="10">
-        <v>99.94</v>
-      </c>
-      <c r="CX58" t="n" s="10">
-        <v>99.31</v>
-      </c>
-      <c r="CY58" t="n" s="10">
-        <v>96.9</v>
-      </c>
-      <c r="CZ58" t="n" s="10">
-        <v>97.65</v>
-      </c>
-      <c r="DA58" t="n" s="10">
-        <v>97.99</v>
-      </c>
-      <c r="DB58" t="n" s="10">
-        <v>98.76</v>
-      </c>
-      <c r="DC58" t="n" s="10">
-        <v>100.79</v>
-      </c>
-      <c r="DD58" t="n" s="10">
-        <v>99.82</v>
-      </c>
-      <c r="DE58" t="n" s="10">
-        <v>99.45</v>
-      </c>
-      <c r="DF58" t="n" s="10">
-        <v>99.75</v>
-      </c>
-      <c r="DG58" t="n" s="10">
-        <v>100.37</v>
-      </c>
-      <c r="DH58" t="n" s="10">
-        <v>101.49</v>
-      </c>
-      <c r="DI58" t="n" s="10">
-        <v>102.46</v>
-      </c>
-      <c r="DJ58" t="n" s="10">
-        <v>102.54</v>
-      </c>
-      <c r="DK58" t="n" s="10">
-        <v>101.79</v>
-      </c>
-      <c r="DL58" t="n" s="10">
-        <v>101.88</v>
-      </c>
-      <c r="DM58" t="n" s="10">
-        <v>101.74</v>
-      </c>
-      <c r="DN58" t="n" s="10">
-        <v>101.27</v>
-      </c>
-      <c r="DO58" t="n" s="10">
-        <v>101.06</v>
-      </c>
-      <c r="DP58" t="n" s="10">
-        <v>97.14</v>
-      </c>
-      <c r="DQ58" t="n" s="10">
-        <v>99.16</v>
-      </c>
-      <c r="DR58" t="n" s="10">
-        <v>100.06</v>
-      </c>
       <c r="DS58" t="n" s="10">
-        <v>101.31</v>
+        <v>101.51</v>
       </c>
       <c r="DT58" t="n" s="10">
-        <v>104.98</v>
+        <v>103.95</v>
       </c>
       <c r="DU58" t="n" s="10">
-        <v>108.44</v>
-      </c>
-      <c r="DV58" t="s" s="10">
-        <v>43</v>
+        <v>108.79</v>
+      </c>
+      <c r="DV58" t="n" s="10">
+        <v>114.88</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="B59" t="s" s="13">
         <v>72</v>
       </c>
-      <c r="B59" t="s" s="13">
-        <v>73</v>
-      </c>
       <c r="C59" t="n" s="10">
-        <v>99.46</v>
+        <v>99.24</v>
       </c>
       <c r="D59" t="n" s="10">
-        <v>101.78</v>
+        <v>101.81</v>
       </c>
       <c r="E59" t="n" s="10">
         <v>101.5</v>
       </c>
       <c r="F59" t="n" s="10">
-        <v>99.7</v>
+        <v>99.55</v>
       </c>
       <c r="G59" t="n" s="10">
-        <v>99.91</v>
+        <v>99.97</v>
       </c>
       <c r="H59" t="n" s="10">
-        <v>98.01</v>
+        <v>97.92</v>
       </c>
       <c r="I59" t="n" s="10">
         <v>97.63</v>
       </c>
       <c r="J59" t="n" s="10">
-        <v>97.42</v>
+        <v>97.47</v>
       </c>
       <c r="K59" t="n" s="10">
-        <v>96.08</v>
+        <v>96.02</v>
       </c>
       <c r="L59" t="n" s="10">
-        <v>96.55</v>
+        <v>96.62</v>
       </c>
       <c r="M59" t="n" s="10">
-        <v>96.44</v>
+        <v>96.51</v>
       </c>
       <c r="N59" t="n" s="10">
-        <v>97.42</v>
+        <v>97.62</v>
       </c>
       <c r="O59" t="n" s="10">
-        <v>95.9</v>
+        <v>95.96</v>
       </c>
       <c r="P59" t="n" s="10">
-        <v>96.5</v>
+        <v>96.56</v>
       </c>
       <c r="Q59" t="n" s="10">
-        <v>96.57</v>
+        <v>96.63</v>
       </c>
       <c r="R59" t="n" s="10">
-        <v>95.83</v>
+        <v>95.8</v>
       </c>
       <c r="S59" t="n" s="10">
-        <v>97.7</v>
+        <v>97.79</v>
       </c>
       <c r="T59" t="n" s="10">
-        <v>95.49</v>
+        <v>95.46</v>
       </c>
       <c r="U59" t="n" s="10">
-        <v>94.85</v>
+        <v>94.77</v>
       </c>
       <c r="V59" t="n" s="10">
-        <v>94.93</v>
+        <v>94.87</v>
       </c>
       <c r="W59" t="n" s="10">
-        <v>95.38</v>
+        <v>95.4</v>
       </c>
       <c r="X59" t="n" s="10">
-        <v>94.72</v>
+        <v>94.64</v>
       </c>
       <c r="Y59" t="n" s="10">
         <v>95.19</v>
       </c>
       <c r="Z59" t="n" s="10">
-        <v>95.57</v>
+        <v>95.52</v>
       </c>
       <c r="AA59" t="n" s="10">
-        <v>95.14</v>
+        <v>94.95</v>
       </c>
       <c r="AB59" t="n" s="10">
-        <v>98.55</v>
+        <v>98.63</v>
       </c>
       <c r="AC59" t="n" s="10">
-        <v>98.23</v>
+        <v>98.2</v>
       </c>
       <c r="AD59" t="n" s="10">
-        <v>97.54</v>
+        <v>97.47</v>
       </c>
       <c r="AE59" t="n" s="10">
-        <v>97.39</v>
+        <v>97.42</v>
       </c>
       <c r="AF59" t="n" s="10">
-        <v>94.68</v>
+        <v>94.59</v>
       </c>
       <c r="AG59" t="n" s="10">
-        <v>93.61</v>
+        <v>93.63</v>
       </c>
       <c r="AH59" t="n" s="10">
-        <v>91.84</v>
+        <v>91.9</v>
       </c>
       <c r="AI59" t="n" s="10">
-        <v>90.24</v>
+        <v>90.22</v>
       </c>
       <c r="AJ59" t="n" s="10">
-        <v>92.02</v>
+        <v>92.08</v>
       </c>
       <c r="AK59" t="n" s="10">
-        <v>93.13</v>
+        <v>93.17</v>
       </c>
       <c r="AL59" t="n" s="10">
-        <v>95.69</v>
+        <v>95.83</v>
       </c>
       <c r="AM59" t="n" s="10">
-        <v>98.63</v>
+        <v>98.75</v>
       </c>
       <c r="AN59" t="n" s="10">
-        <v>99.15</v>
+        <v>99.13</v>
       </c>
       <c r="AO59" t="n" s="10">
-        <v>100.99</v>
+        <v>100.95</v>
       </c>
       <c r="AP59" t="n" s="10">
-        <v>102.34</v>
+        <v>102.27</v>
       </c>
       <c r="AQ59" t="n" s="10">
-        <v>102.07</v>
+        <v>102.09</v>
       </c>
       <c r="AR59" t="n" s="10">
-        <v>100.95</v>
+        <v>100.91</v>
       </c>
       <c r="AS59" t="n" s="10">
-        <v>99.83</v>
+        <v>99.76</v>
       </c>
       <c r="AT59" t="n" s="10">
-        <v>97.74</v>
+        <v>97.68</v>
       </c>
       <c r="AU59" t="n" s="10">
-        <v>96.47</v>
+        <v>96.36</v>
       </c>
       <c r="AV59" t="n" s="10">
-        <v>97.65</v>
+        <v>97.66</v>
       </c>
       <c r="AW59" t="n" s="10">
         <v>96.29</v>
       </c>
       <c r="AX59" t="n" s="10">
-        <v>96.06</v>
+        <v>96.03</v>
       </c>
       <c r="AY59" t="n" s="10">
-        <v>95.79</v>
+        <v>95.75</v>
       </c>
       <c r="AZ59" t="n" s="10">
-        <v>93.52</v>
+        <v>93.47</v>
       </c>
       <c r="BA59" t="n" s="10">
-        <v>93.23</v>
+        <v>93.21</v>
       </c>
       <c r="BB59" t="n" s="10">
-        <v>92.18</v>
+        <v>92.13</v>
       </c>
       <c r="BC59" t="n" s="10">
-        <v>93.55</v>
+        <v>93.64</v>
       </c>
       <c r="BD59" t="n" s="10">
-        <v>94.0</v>
+        <v>94.05</v>
       </c>
       <c r="BE59" t="n" s="10">
-        <v>95.36</v>
+        <v>95.23</v>
       </c>
       <c r="BF59" t="n" s="10">
-        <v>96.69</v>
+        <v>96.88</v>
       </c>
       <c r="BG59" t="n" s="10">
-        <v>95.13</v>
+        <v>95.14</v>
       </c>
       <c r="BH59" t="n" s="10">
-        <v>97.35</v>
+        <v>97.58</v>
       </c>
       <c r="BI59" t="n" s="10">
-        <v>97.91</v>
+        <v>97.68</v>
       </c>
       <c r="BJ59" t="n" s="10">
-        <v>98.24</v>
+        <v>98.35</v>
       </c>
       <c r="BK59" t="n" s="10">
-        <v>100.15</v>
+        <v>100.31</v>
       </c>
       <c r="BL59" t="n" s="10">
-        <v>99.41</v>
+        <v>99.43</v>
       </c>
       <c r="BM59" t="n" s="10">
-        <v>100.24</v>
+        <v>100.08</v>
       </c>
       <c r="BN59" t="n" s="10">
-        <v>99.88</v>
+        <v>99.83</v>
       </c>
       <c r="BO59" t="n" s="10">
-        <v>99.8</v>
+        <v>99.83</v>
       </c>
       <c r="BP59" t="n" s="10">
-        <v>99.0</v>
+        <v>99.08</v>
       </c>
       <c r="BQ59" t="n" s="10">
-        <v>98.39</v>
+        <v>98.62</v>
       </c>
       <c r="BR59" t="n" s="10">
-        <v>100.66</v>
+        <v>99.83</v>
       </c>
       <c r="BS59" t="n" s="10">
-        <v>101.52</v>
+        <v>101.73</v>
       </c>
       <c r="BT59" t="n" s="10">
-        <v>103.63</v>
+        <v>104.11</v>
       </c>
       <c r="BU59" t="n" s="10">
-        <v>103.53</v>
+        <v>104.09</v>
       </c>
       <c r="BV59" t="n" s="10">
-        <v>101.72</v>
+        <v>100.21</v>
       </c>
       <c r="BW59" t="n" s="10">
-        <v>95.91</v>
+        <v>96.48</v>
       </c>
       <c r="BX59" t="n" s="10">
-        <v>92.63</v>
+        <v>92.98</v>
       </c>
       <c r="BY59" t="n" s="10">
-        <v>92.39</v>
+        <v>92.67</v>
       </c>
       <c r="BZ59" t="n" s="10">
-        <v>95.25</v>
+        <v>94.46</v>
       </c>
       <c r="CA59" t="n" s="10">
-        <v>95.72</v>
+        <v>95.99</v>
       </c>
       <c r="CB59" t="n" s="10">
-        <v>98.63</v>
+        <v>98.78</v>
       </c>
       <c r="CC59" t="n" s="10">
-        <v>100.79</v>
+        <v>100.81</v>
       </c>
       <c r="CD59" t="n" s="10">
-        <v>102.76</v>
+        <v>102.77</v>
       </c>
       <c r="CE59" t="n" s="10">
-        <v>104.55</v>
+        <v>104.59</v>
       </c>
       <c r="CF59" t="n" s="10">
-        <v>105.31</v>
+        <v>105.36</v>
       </c>
       <c r="CG59" t="n" s="10">
-        <v>105.64</v>
+        <v>105.67</v>
       </c>
       <c r="CH59" t="n" s="10">
         <v>106.0</v>
       </c>
       <c r="CI59" t="n" s="10">
-        <v>107.49</v>
+        <v>107.56</v>
       </c>
       <c r="CJ59" t="n" s="10">
-        <v>106.95</v>
+        <v>106.92</v>
       </c>
       <c r="CK59" t="n" s="10">
-        <v>106.91</v>
+        <v>106.86</v>
       </c>
       <c r="CL59" t="n" s="10">
-        <v>106.68</v>
+        <v>106.64</v>
       </c>
       <c r="CM59" t="n" s="10">
-        <v>104.98</v>
+        <v>104.9</v>
       </c>
       <c r="CN59" t="n" s="10">
-        <v>104.99</v>
+        <v>105.0</v>
       </c>
       <c r="CO59" t="n" s="10">
-        <v>103.88</v>
+        <v>103.87</v>
       </c>
       <c r="CP59" t="n" s="10">
-        <v>103.18</v>
+        <v>103.15</v>
       </c>
       <c r="CQ59" t="n" s="10">
-        <v>103.27</v>
+        <v>103.26</v>
       </c>
       <c r="CR59" t="n" s="10">
-        <v>101.81</v>
+        <v>101.78</v>
       </c>
       <c r="CS59" t="n" s="10">
-        <v>101.75</v>
+        <v>101.74</v>
       </c>
       <c r="CT59" t="n" s="10">
-        <v>100.92</v>
+        <v>100.88</v>
       </c>
       <c r="CU59" t="n" s="10">
         <v>100.67</v>
       </c>
       <c r="CV59" t="n" s="10">
-        <v>100.61</v>
+        <v>100.57</v>
       </c>
       <c r="CW59" t="n" s="10">
-        <v>99.95</v>
+        <v>99.96</v>
       </c>
       <c r="CX59" t="n" s="10">
-        <v>98.98</v>
+        <v>99.03</v>
       </c>
       <c r="CY59" t="n" s="10">
-        <v>96.02</v>
+        <v>95.98</v>
       </c>
       <c r="CZ59" t="n" s="10">
-        <v>96.87</v>
+        <v>96.94</v>
       </c>
       <c r="DA59" t="n" s="10">
-        <v>97.29</v>
+        <v>97.3</v>
       </c>
       <c r="DB59" t="n" s="10">
-        <v>98.28</v>
+        <v>98.3</v>
       </c>
       <c r="DC59" t="n" s="10">
-        <v>100.72</v>
+        <v>100.78</v>
       </c>
       <c r="DD59" t="n" s="10">
-        <v>99.44</v>
+        <v>99.39</v>
       </c>
       <c r="DE59" t="n" s="10">
-        <v>98.86</v>
+        <v>98.84</v>
       </c>
       <c r="DF59" t="n" s="10">
-        <v>99.14</v>
+        <v>99.09</v>
       </c>
       <c r="DG59" t="n" s="10">
-        <v>99.84</v>
+        <v>99.8</v>
       </c>
       <c r="DH59" t="n" s="10">
         <v>101.07</v>
       </c>
       <c r="DI59" t="n" s="10">
-        <v>102.17</v>
+        <v>102.15</v>
       </c>
       <c r="DJ59" t="n" s="10">
-        <v>102.2</v>
+        <v>102.19</v>
       </c>
       <c r="DK59" t="n" s="10">
-        <v>101.25</v>
+        <v>101.22</v>
       </c>
       <c r="DL59" t="n" s="10">
-        <v>101.11</v>
+        <v>101.06</v>
       </c>
       <c r="DM59" t="n" s="10">
-        <v>100.67</v>
+        <v>100.66</v>
       </c>
       <c r="DN59" t="n" s="10">
-        <v>100.17</v>
+        <v>100.15</v>
       </c>
       <c r="DO59" t="n" s="10">
-        <v>99.82</v>
+        <v>99.9</v>
       </c>
       <c r="DP59" t="n" s="10">
-        <v>94.73</v>
+        <v>94.54</v>
       </c>
       <c r="DQ59" t="n" s="10">
-        <v>97.38</v>
+        <v>97.31</v>
       </c>
       <c r="DR59" t="n" s="10">
-        <v>98.13</v>
+        <v>98.29</v>
       </c>
       <c r="DS59" t="n" s="10">
-        <v>99.42</v>
+        <v>99.55</v>
       </c>
       <c r="DT59" t="n" s="10">
-        <v>103.64</v>
+        <v>103.41</v>
       </c>
       <c r="DU59" t="n" s="10">
-        <v>107.95</v>
-      </c>
-      <c r="DV59" t="s" s="10">
-        <v>43</v>
+        <v>107.94</v>
+      </c>
+      <c r="DV59" t="n" s="10">
+        <v>115.25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="9">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s" s="13">
         <v>74</v>
       </c>
-      <c r="B60" t="s" s="13">
-        <v>75</v>
-      </c>
       <c r="C60" t="n" s="10">
-        <v>75.21</v>
+        <v>74.9</v>
       </c>
       <c r="D60" t="n" s="10">
-        <v>76.32</v>
+        <v>76.36</v>
       </c>
       <c r="E60" t="n" s="10">
-        <v>75.95</v>
+        <v>75.9</v>
       </c>
       <c r="F60" t="n" s="10">
-        <v>76.74</v>
+        <v>76.51</v>
       </c>
       <c r="G60" t="n" s="10">
-        <v>77.48</v>
+        <v>77.56</v>
       </c>
       <c r="H60" t="n" s="10">
-        <v>78.14</v>
+        <v>78.03</v>
       </c>
       <c r="I60" t="n" s="10">
-        <v>78.75</v>
+        <v>78.77</v>
       </c>
       <c r="J60" t="n" s="10">
-        <v>78.71</v>
+        <v>78.78</v>
       </c>
       <c r="K60" t="n" s="10">
-        <v>78.59</v>
+        <v>78.51</v>
       </c>
       <c r="L60" t="n" s="10">
-        <v>78.73</v>
+        <v>78.81</v>
       </c>
       <c r="M60" t="n" s="10">
-        <v>78.87</v>
+        <v>78.9</v>
       </c>
       <c r="N60" t="n" s="10">
-        <v>78.65</v>
+        <v>78.86</v>
       </c>
       <c r="O60" t="n" s="10">
-        <v>78.57</v>
+        <v>78.63</v>
       </c>
       <c r="P60" t="n" s="10">
-        <v>78.33</v>
+        <v>78.4</v>
       </c>
       <c r="Q60" t="n" s="10">
-        <v>78.13</v>
+        <v>78.2</v>
       </c>
       <c r="R60" t="n" s="10">
-        <v>78.33</v>
+        <v>78.28</v>
       </c>
       <c r="S60" t="n" s="10">
-        <v>77.94</v>
+        <v>78.04</v>
       </c>
       <c r="T60" t="n" s="10">
-        <v>77.11</v>
+        <v>77.06</v>
       </c>
       <c r="U60" t="n" s="10">
-        <v>77.2</v>
+        <v>77.09</v>
       </c>
       <c r="V60" t="n" s="10">
-        <v>77.11</v>
+        <v>77.06</v>
       </c>
       <c r="W60" t="n" s="10">
-        <v>77.63</v>
+        <v>77.66</v>
       </c>
       <c r="X60" t="n" s="10">
-        <v>78.13</v>
+        <v>78.02</v>
       </c>
       <c r="Y60" t="n" s="10">
-        <v>77.92</v>
+        <v>77.91</v>
       </c>
       <c r="Z60" t="n" s="10">
-        <v>78.5</v>
+        <v>78.42</v>
       </c>
       <c r="AA60" t="n" s="10">
-        <v>79.01</v>
+        <v>78.77</v>
       </c>
       <c r="AB60" t="n" s="10">
-        <v>79.79</v>
+        <v>79.9</v>
       </c>
       <c r="AC60" t="n" s="10">
-        <v>80.48</v>
+        <v>80.45</v>
       </c>
       <c r="AD60" t="n" s="10">
-        <v>80.68</v>
+        <v>80.57</v>
       </c>
       <c r="AE60" t="n" s="10">
-        <v>80.98</v>
+        <v>81.01</v>
       </c>
       <c r="AF60" t="n" s="10">
-        <v>80.89</v>
+        <v>80.79</v>
       </c>
       <c r="AG60" t="n" s="10">
-        <v>80.82</v>
+        <v>80.85</v>
       </c>
       <c r="AH60" t="n" s="10">
-        <v>80.59</v>
+        <v>80.66</v>
       </c>
       <c r="AI60" t="n" s="10">
-        <v>80.63</v>
+        <v>80.6</v>
       </c>
       <c r="AJ60" t="n" s="10">
-        <v>81.0</v>
+        <v>81.1</v>
       </c>
       <c r="AK60" t="n" s="10">
-        <v>81.63</v>
+        <v>81.71</v>
       </c>
       <c r="AL60" t="n" s="10">
-        <v>81.93</v>
+        <v>82.13</v>
       </c>
       <c r="AM60" t="n" s="10">
-        <v>82.9</v>
+        <v>83.05</v>
       </c>
       <c r="AN60" t="n" s="10">
-        <v>83.15</v>
+        <v>83.14</v>
       </c>
       <c r="AO60" t="n" s="10">
-        <v>83.19</v>
+        <v>83.14</v>
       </c>
       <c r="AP60" t="n" s="10">
-        <v>84.14</v>
+        <v>84.03</v>
       </c>
       <c r="AQ60" t="n" s="10">
-        <v>84.21</v>
+        <v>84.23</v>
       </c>
       <c r="AR60" t="n" s="10">
-        <v>85.24</v>
+        <v>85.18</v>
       </c>
       <c r="AS60" t="n" s="10">
-        <v>86.18</v>
+        <v>86.09</v>
       </c>
       <c r="AT60" t="n" s="10">
-        <v>86.01</v>
+        <v>85.94</v>
       </c>
       <c r="AU60" t="n" s="10">
-        <v>86.37</v>
+        <v>86.21</v>
       </c>
       <c r="AV60" t="n" s="10">
-        <v>86.2</v>
+        <v>86.21</v>
       </c>
       <c r="AW60" t="n" s="10">
-        <v>85.63</v>
+        <v>85.62</v>
       </c>
       <c r="AX60" t="n" s="10">
-        <v>85.88</v>
+        <v>85.84</v>
       </c>
       <c r="AY60" t="n" s="10">
-        <v>85.79</v>
+        <v>85.76</v>
       </c>
       <c r="AZ60" t="n" s="10">
-        <v>85.48</v>
+        <v>85.39</v>
       </c>
       <c r="BA60" t="n" s="10">
         <v>85.64</v>
       </c>
       <c r="BB60" t="n" s="10">
-        <v>84.7</v>
+        <v>84.61</v>
       </c>
       <c r="BC60" t="n" s="10">
-        <v>83.59</v>
+        <v>83.7</v>
       </c>
       <c r="BD60" t="n" s="10">
-        <v>83.71</v>
+        <v>83.72</v>
       </c>
       <c r="BE60" t="n" s="10">
-        <v>83.05</v>
+        <v>83.1</v>
       </c>
       <c r="BF60" t="n" s="10">
-        <v>84.12</v>
+        <v>84.33</v>
       </c>
       <c r="BG60" t="n" s="10">
-        <v>85.28</v>
+        <v>85.2</v>
       </c>
       <c r="BH60" t="n" s="10">
-        <v>85.75</v>
+        <v>85.94</v>
       </c>
       <c r="BI60" t="n" s="10">
-        <v>86.85</v>
+        <v>86.93</v>
       </c>
       <c r="BJ60" t="n" s="10">
-        <v>86.89</v>
+        <v>86.91</v>
       </c>
       <c r="BK60" t="n" s="10">
-        <v>87.09</v>
+        <v>87.23</v>
       </c>
       <c r="BL60" t="n" s="10">
-        <v>87.09</v>
+        <v>87.0</v>
       </c>
       <c r="BM60" t="n" s="10">
-        <v>87.05</v>
+        <v>87.02</v>
       </c>
       <c r="BN60" t="n" s="10">
-        <v>87.38</v>
+        <v>87.34</v>
       </c>
       <c r="BO60" t="n" s="10">
-        <v>87.76</v>
+        <v>87.79</v>
       </c>
       <c r="BP60" t="n" s="10">
-        <v>88.34</v>
+        <v>88.24</v>
       </c>
       <c r="BQ60" t="n" s="10">
-        <v>88.46</v>
+        <v>88.39</v>
       </c>
       <c r="BR60" t="n" s="10">
-        <v>89.05</v>
+        <v>89.01</v>
       </c>
       <c r="BS60" t="n" s="10">
-        <v>89.96</v>
+        <v>89.85</v>
       </c>
       <c r="BT60" t="n" s="10">
-        <v>90.39</v>
+        <v>90.55</v>
       </c>
       <c r="BU60" t="n" s="10">
-        <v>91.28</v>
+        <v>91.3</v>
       </c>
       <c r="BV60" t="n" s="10">
-        <v>91.04</v>
+        <v>90.97</v>
       </c>
       <c r="BW60" t="n" s="10">
-        <v>90.55</v>
+        <v>90.56</v>
       </c>
       <c r="BX60" t="n" s="10">
-        <v>90.59</v>
+        <v>90.48</v>
       </c>
       <c r="BY60" t="n" s="10">
-        <v>90.28</v>
+        <v>90.32</v>
       </c>
       <c r="BZ60" t="n" s="10">
-        <v>90.89</v>
+        <v>90.95</v>
       </c>
       <c r="CA60" t="n" s="10">
         <v>91.48</v>
       </c>
       <c r="CB60" t="n" s="10">
-        <v>92.15</v>
+        <v>92.21</v>
       </c>
       <c r="CC60" t="n" s="10">
-        <v>92.86</v>
+        <v>92.92</v>
       </c>
       <c r="CD60" t="n" s="10">
-        <v>93.41</v>
+        <v>93.56</v>
       </c>
       <c r="CE60" t="n" s="10">
-        <v>93.96</v>
+        <v>94.03</v>
       </c>
       <c r="CF60" t="n" s="10">
-        <v>94.47</v>
+        <v>94.53</v>
       </c>
       <c r="CG60" t="n" s="10">
-        <v>94.73</v>
+        <v>94.79</v>
       </c>
       <c r="CH60" t="n" s="10">
         <v>95.33</v>
       </c>
       <c r="CI60" t="n" s="10">
-        <v>95.95</v>
+        <v>96.08</v>
       </c>
       <c r="CJ60" t="n" s="10">
-        <v>96.4</v>
+        <v>96.36</v>
       </c>
       <c r="CK60" t="n" s="10">
-        <v>96.8</v>
+        <v>96.72</v>
       </c>
       <c r="CL60" t="n" s="10">
-        <v>96.85</v>
+        <v>96.78</v>
       </c>
       <c r="CM60" t="n" s="10">
-        <v>97.29</v>
+        <v>97.15</v>
       </c>
       <c r="CN60" t="n" s="10">
-        <v>97.55</v>
+        <v>97.57</v>
       </c>
       <c r="CO60" t="n" s="10">
-        <v>98.11</v>
+        <v>98.1</v>
       </c>
       <c r="CP60" t="n" s="10">
-        <v>98.52</v>
+        <v>98.48</v>
       </c>
       <c r="CQ60" t="n" s="10">
-        <v>98.65</v>
+        <v>98.63</v>
       </c>
       <c r="CR60" t="n" s="10">
-        <v>98.99</v>
+        <v>98.93</v>
       </c>
       <c r="CS60" t="n" s="10">
-        <v>99.13</v>
+        <v>99.11</v>
       </c>
       <c r="CT60" t="n" s="10">
-        <v>99.28</v>
+        <v>99.21</v>
       </c>
       <c r="CU60" t="n" s="10">
-        <v>100.04</v>
+        <v>100.05</v>
       </c>
       <c r="CV60" t="n" s="10">
-        <v>99.98</v>
+        <v>99.91</v>
       </c>
       <c r="CW60" t="n" s="10">
-        <v>99.93</v>
+        <v>99.94</v>
       </c>
       <c r="CX60" t="n" s="10">
-        <v>100.36</v>
+        <v>100.45</v>
       </c>
       <c r="CY60" t="n" s="10">
-        <v>99.83</v>
+        <v>99.75</v>
       </c>
       <c r="CZ60" t="n" s="10">
-        <v>100.26</v>
+        <v>100.4</v>
       </c>
       <c r="DA60" t="n" s="10">
-        <v>100.35</v>
+        <v>100.38</v>
       </c>
       <c r="DB60" t="n" s="10">
-        <v>100.36</v>
+        <v>100.41</v>
       </c>
       <c r="DC60" t="n" s="10">
-        <v>101.02</v>
+        <v>101.15</v>
       </c>
       <c r="DD60" t="n" s="10">
-        <v>101.13</v>
+        <v>101.04</v>
       </c>
       <c r="DE60" t="n" s="10">
-        <v>101.45</v>
+        <v>101.39</v>
       </c>
       <c r="DF60" t="n" s="10">
-        <v>101.81</v>
+        <v>101.68</v>
       </c>
       <c r="DG60" t="n" s="10">
-        <v>102.17</v>
+        <v>102.22</v>
       </c>
       <c r="DH60" t="n" s="10">
-        <v>102.95</v>
+        <v>102.87</v>
       </c>
       <c r="DI60" t="n" s="10">
-        <v>103.46</v>
+        <v>103.3</v>
       </c>
       <c r="DJ60" t="n" s="10">
-        <v>103.7</v>
+        <v>103.77</v>
       </c>
       <c r="DK60" t="n" s="10">
-        <v>103.64</v>
+        <v>104.05</v>
       </c>
       <c r="DL60" t="n" s="10">
-        <v>104.51</v>
+        <v>103.52</v>
       </c>
       <c r="DM60" t="n" s="10">
-        <v>105.3</v>
+        <v>105.59</v>
       </c>
       <c r="DN60" t="n" s="10">
-        <v>104.95</v>
+        <v>105.51</v>
       </c>
       <c r="DO60" t="n" s="10">
-        <v>105.31</v>
+        <v>105.91</v>
       </c>
       <c r="DP60" t="n" s="10">
-        <v>106.54</v>
+        <v>102.79</v>
       </c>
       <c r="DQ60" t="n" s="10">
-        <v>106.01</v>
+        <v>107.55</v>
       </c>
       <c r="DR60" t="n" s="10">
-        <v>107.96</v>
+        <v>109.85</v>
       </c>
       <c r="DS60" t="n" s="10">
-        <v>108.44</v>
+        <v>108.91</v>
       </c>
       <c r="DT60" t="n" s="10">
-        <v>109.64</v>
+        <v>105.26</v>
       </c>
       <c r="DU60" t="n" s="10">
-        <v>110.53</v>
-      </c>
-      <c r="DV60" t="s" s="10">
-        <v>43</v>
+        <v>112.11</v>
+      </c>
+      <c r="DV60" t="n" s="10">
+        <v>114.06</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="11">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="12">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -22956,7 +22953,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 28.12.21 / 09:53:36&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:22:34&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>